--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77429FDD-BC0B-AF49-8F51-E95C2E37CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4960F2-2418-B44F-A522-1E4BEACF8F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28460" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1017,6 +1017,7 @@
     <xf numFmtId="10" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,7 +1048,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2460,11 +2460,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>639.5</v>
+    <v>657.1</v>
     <v>375.75</v>
-    <v>1.5911999999999999</v>
-    <v>6.8</v>
-    <v>1.1859E-2</v>
+    <v>1.6016999999999999</v>
+    <v>-13.3</v>
+    <v>-2.0945000000000002E-2</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2472,24 +2472,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>586.70000000000005</v>
+    <v>631.20000000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.666666666664</v>
+    <v>45070.666666666664</v>
     <v>0</v>
-    <v>573.6</v>
-    <v>233900800000</v>
+    <v>617.20000000000005</v>
+    <v>255992800000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>579.79999999999995</v>
-    <v>35.6404</v>
-    <v>573.4</v>
-    <v>580.20000000000005</v>
+    <v>631.20000000000005</v>
+    <v>38.642499999999998</v>
+    <v>635</v>
+    <v>621.70000000000005</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>776388</v>
-    <v>660450</v>
+    <v>596488</v>
+    <v>581160</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3056,11 +3056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AA95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
+      <selection pane="bottomRight" activeCell="AE99" sqref="AE99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3069,7 +3069,7 @@
     <col min="2" max="29" width="15" customWidth="1"/>
     <col min="30" max="34" width="19" customWidth="1"/>
     <col min="35" max="35" width="19.83203125" customWidth="1"/>
-    <col min="36" max="36" width="20.33203125" customWidth="1"/>
+    <col min="36" max="36" width="21" customWidth="1"/>
     <col min="37" max="37" width="20" customWidth="1"/>
     <col min="38" max="38" width="18" customWidth="1"/>
   </cols>
@@ -4823,15 +4823,15 @@
       </c>
       <c r="AJ17" s="47">
         <f>AK101/AC4</f>
-        <v>11.046917358572548</v>
+        <v>12.090301982676378</v>
       </c>
       <c r="AK17" s="47">
         <f>AK101/AC26</f>
-        <v>36.229426433915215</v>
+        <v>39.651306516317902</v>
       </c>
       <c r="AL17" s="48">
         <f>AK101/AC107</f>
-        <v>32.633526334147192</v>
+        <v>35.715772584583185</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10817,10 +10817,10 @@
       <c r="AC83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ83" s="67" t="s">
+      <c r="AJ83" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="AK83" s="68"/>
+      <c r="AK83" s="69"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10910,10 +10910,10 @@
       <c r="AC84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ84" s="61" t="s">
+      <c r="AJ84" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="AK84" s="62"/>
+      <c r="AK84" s="63"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11799,10 +11799,10 @@
       <c r="AC93" s="1">
         <v>864700000</v>
       </c>
-      <c r="AJ93" s="69" t="s">
+      <c r="AJ93" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="AK93" s="70"/>
+      <c r="AK93" s="71"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="AK95" s="59" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5911999999999999</v>
+        <v>1.6016999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="AK97" s="57">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.10945116000000001</v>
+        <v>0.109903185</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12274,10 +12274,10 @@
       <c r="AC98" s="1">
         <v>-4639700000</v>
       </c>
-      <c r="AJ98" s="69" t="s">
+      <c r="AJ98" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="AK98" s="70"/>
+      <c r="AK98" s="71"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="AK100" s="55">
         <f>AK99/AK103</f>
-        <v>1.4801929111471475E-2</v>
+        <v>1.3541831241546471E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="AK101" s="38" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>233900800000</v>
+        <v>255992800000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12660,7 +12660,7 @@
       </c>
       <c r="AK102" s="55">
         <f>AK101/AK103</f>
-        <v>0.98519807088852851</v>
+        <v>0.98645816875845349</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="AK103" s="60">
         <f>AK99+AK101</f>
-        <v>237415000000</v>
+        <v>259507000000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12847,10 +12847,10 @@
       <c r="AC104" s="1">
         <v>6951800000</v>
       </c>
-      <c r="AJ104" s="61" t="s">
+      <c r="AJ104" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="AK104" s="62"/>
+      <c r="AK104" s="63"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="AK105" s="24">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10767143669775749</v>
+        <v>0.10826884945584547</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13067,10 +13067,10 @@
       <c r="AG106" s="15"/>
       <c r="AH106" s="15"/>
       <c r="AI106" s="15"/>
-      <c r="AJ106" s="63" t="s">
+      <c r="AJ106" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="AK106" s="64"/>
+      <c r="AK106" s="65"/>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -13198,7 +13198,7 @@
       <c r="AG108" s="28"/>
       <c r="AH108" s="31">
         <f>AH107*(1+AK108)/(AK109-AK108)</f>
-        <v>194723342379.46655</v>
+        <v>193326298829.62482</v>
       </c>
       <c r="AI108" s="32" t="s">
         <v>145</v>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="AH109" s="31">
         <f>AH108+AH107</f>
-        <v>210428765280.05176</v>
+        <v>209031721730.21002</v>
       </c>
       <c r="AI109" s="32" t="s">
         <v>137</v>
@@ -13239,14 +13239,14 @@
       </c>
       <c r="AK109" s="36">
         <f>AK105</f>
-        <v>0.10767143669775749</v>
+        <v>0.10826884945584547</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD110" s="65" t="s">
+      <c r="AD110" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="AE110" s="66"/>
+      <c r="AE110" s="67"/>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="AD111" s="37" t="s">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="AE111" s="38">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>159124287088.5708</v>
+        <v>157903388069.86673</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="AE114" s="38">
         <f>AE111+AE112-AE113</f>
-        <v>162986087088.5708</v>
+        <v>161765188069.86673</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13299,16 +13299,16 @@
       </c>
       <c r="AE116" s="40">
         <f>AE114/AE115</f>
-        <v>418.03893870021568</v>
+        <v>414.90748534026216</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
       <c r="AD117" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AE117" s="71" cm="1">
+      <c r="AE117" s="61" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>580.20000000000005</v>
+        <v>621.70000000000005</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="AE118" s="42">
         <f>AE116/AE117-1</f>
-        <v>-0.2794916602891836</v>
+        <v>-0.33262427965214392</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4960F2-2418-B44F-A522-1E4BEACF8F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3E32C-5738-974B-9E9A-C6AEAF450E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18120" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -553,17 +553,27 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -895,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -987,12 +997,6 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,6 +1022,17 @@
     <xf numFmtId="39" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2460,11 +2475,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>657.1</v>
+    <v>698.1</v>
     <v>375.75</v>
-    <v>1.6016999999999999</v>
-    <v>-13.3</v>
-    <v>-2.0945000000000002E-2</v>
+    <v>1.605</v>
+    <v>6.9</v>
+    <v>1.0204E-2</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2472,24 +2487,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>631.20000000000005</v>
+    <v>698.1</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45070.666666666664</v>
+    <v>45076.666666666664</v>
     <v>0</v>
-    <v>617.20000000000005</v>
-    <v>255992800000</v>
+    <v>674.2</v>
+    <v>272602100000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>631.20000000000005</v>
-    <v>38.642499999999998</v>
-    <v>635</v>
-    <v>621.70000000000005</v>
+    <v>677.9</v>
+    <v>42.4589</v>
+    <v>676.2</v>
+    <v>683.1</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>596488</v>
-    <v>581160</v>
+    <v>748984</v>
+    <v>698330</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3057,21 +3072,17 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE99" sqref="AE99"/>
+      <selection pane="bottomRight" activeCell="AE125" sqref="AE125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="29" width="15" customWidth="1"/>
-    <col min="30" max="34" width="19" customWidth="1"/>
-    <col min="35" max="35" width="19.83203125" customWidth="1"/>
-    <col min="36" max="36" width="21" customWidth="1"/>
-    <col min="37" max="37" width="20" customWidth="1"/>
-    <col min="38" max="38" width="18" customWidth="1"/>
+    <col min="30" max="38" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -3162,7 +3173,7 @@
       <c r="AC1" s="8">
         <v>2022</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="21">
         <v>2023</v>
       </c>
       <c r="AE1" s="21">
@@ -3421,19 +3432,19 @@
         <v>21173400000</v>
       </c>
       <c r="AD4" s="22">
-        <v>28000000000</v>
+        <v>26567000000</v>
       </c>
       <c r="AE4" s="22">
-        <v>31400000000</v>
+        <v>29757000000</v>
       </c>
       <c r="AF4" s="22">
-        <v>36800000000</v>
+        <v>34695000000</v>
       </c>
       <c r="AG4" s="22">
-        <v>41041000000</v>
+        <v>39321000000</v>
       </c>
       <c r="AH4" s="22">
-        <v>45895000000</v>
+        <v>43191000000</v>
       </c>
       <c r="AI4" s="44" t="s">
         <v>108</v>
@@ -3563,23 +3574,23 @@
       </c>
       <c r="AD5" s="16">
         <f t="shared" si="9"/>
-        <v>0.32241397224819823</v>
+        <v>0.25473471431135297</v>
       </c>
       <c r="AE5" s="16">
         <f t="shared" si="9"/>
-        <v>0.12142857142857144</v>
+        <v>0.12007377573681643</v>
       </c>
       <c r="AF5" s="16">
         <f t="shared" si="9"/>
-        <v>0.17197452229299359</v>
+        <v>0.16594414759552367</v>
       </c>
       <c r="AG5" s="16">
         <f t="shared" si="9"/>
-        <v>0.11524456521739124</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AH5" s="16">
         <f t="shared" si="9"/>
-        <v>0.11827197193050853</v>
+        <v>9.8420691233692015E-2</v>
       </c>
       <c r="AI5" s="45">
         <f>(AC5+AB5+AA5)/3</f>
@@ -4821,17 +4832,17 @@
         <f>(SUM(Y36:AC36)/5)</f>
         <v>-9.9987576959951977E-3</v>
       </c>
-      <c r="AJ17" s="47">
+      <c r="AJ17" s="65">
         <f>AK101/AC4</f>
-        <v>12.090301982676378</v>
-      </c>
-      <c r="AK17" s="47">
+        <v>12.874743782292876</v>
+      </c>
+      <c r="AK17" s="65">
         <f>AK101/AC26</f>
-        <v>39.651306516317902</v>
-      </c>
-      <c r="AL17" s="48">
+        <v>42.223958736698627</v>
+      </c>
+      <c r="AL17" s="66">
         <f>AK101/AC107</f>
-        <v>35.715772584583185</v>
+        <v>38.033079874433206</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5011,8 +5022,17 @@
       <c r="AC19" s="1">
         <v>583600000</v>
       </c>
-      <c r="AI19" s="49" t="s">
+      <c r="AI19" s="47" t="s">
         <v>160</v>
+      </c>
+      <c r="AJ19" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK19" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL19" s="46" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5103,12 +5123,39 @@
       <c r="AC20" s="10">
         <v>6995100000</v>
       </c>
-      <c r="AI20" s="50">
+      <c r="AD20" s="60">
+        <v>9265000000</v>
+      </c>
+      <c r="AE20" s="60">
+        <v>11305000000</v>
+      </c>
+      <c r="AF20" s="60">
+        <v>14025000000</v>
+      </c>
+      <c r="AG20" s="60">
+        <v>15858000000</v>
+      </c>
+      <c r="AH20" s="60">
+        <v>18812000000</v>
+      </c>
+      <c r="AI20" s="48">
         <f>AC41-AC57-AC62</f>
         <v>3861800000</v>
       </c>
+      <c r="AJ20" s="65">
+        <f>AK101/AD4</f>
+        <v>10.260928972032973</v>
+      </c>
+      <c r="AK20" s="65">
+        <f>AK101/AD29</f>
+        <v>36.813247805536797</v>
+      </c>
+      <c r="AL20" s="66">
+        <f>AK101/AD106</f>
+        <v>41.867931193365074</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>101</v>
       </c>
@@ -5221,6 +5268,26 @@
         <f t="shared" ref="AC21" si="48">(AC20/AB20)-1</f>
         <v>-5.8558316061478877E-2</v>
       </c>
+      <c r="AD21" s="16">
+        <f t="shared" ref="AD21" si="49">(AD20/AC20)-1</f>
+        <v>0.32449857757573164</v>
+      </c>
+      <c r="AE21" s="16">
+        <f t="shared" ref="AE21" si="50">(AE20/AD20)-1</f>
+        <v>0.22018348623853212</v>
+      </c>
+      <c r="AF21" s="16">
+        <f t="shared" ref="AF21" si="51">(AF20/AE20)-1</f>
+        <v>0.24060150375939848</v>
+      </c>
+      <c r="AG21" s="16">
+        <f t="shared" ref="AG21" si="52">(AG20/AF20)-1</f>
+        <v>0.13069518716577533</v>
+      </c>
+      <c r="AH21" s="16">
+        <f t="shared" ref="AH21" si="53">(AH20/AG20)-1</f>
+        <v>0.18627821919535892</v>
+      </c>
     </row>
     <row r="22" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5310,6 +5377,26 @@
       <c r="AC22" s="2">
         <v>0.33040000000000003</v>
       </c>
+      <c r="AD22" s="61">
+        <f>AD20/AD4</f>
+        <v>0.34874091918545563</v>
+      </c>
+      <c r="AE22" s="61">
+        <f t="shared" ref="AE22:AH22" si="54">AE20/AE4</f>
+        <v>0.37991060926840742</v>
+      </c>
+      <c r="AF22" s="61">
+        <f t="shared" si="54"/>
+        <v>0.40423692174664938</v>
+      </c>
+      <c r="AG22" s="61">
+        <f t="shared" si="54"/>
+        <v>0.40329594872968644</v>
+      </c>
+      <c r="AH22" s="61">
+        <f t="shared" si="54"/>
+        <v>0.43555370331782084</v>
+      </c>
     </row>
     <row r="23" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -5933,6 +6020,21 @@
       <c r="AC29" s="11">
         <v>5486200000</v>
       </c>
+      <c r="AD29" s="62">
+        <v>7405000000</v>
+      </c>
+      <c r="AE29" s="62">
+        <v>8861000000</v>
+      </c>
+      <c r="AF29" s="62">
+        <v>11223000000</v>
+      </c>
+      <c r="AG29" s="62">
+        <v>12889000000</v>
+      </c>
+      <c r="AH29" s="62">
+        <v>15237000000</v>
+      </c>
     </row>
     <row r="30" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
@@ -5952,100 +6054,120 @@
         <v>-0.58218042136711268</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" ref="F30:Q30" si="49">(F29/E29)-1</f>
+        <f t="shared" ref="F30:Q30" si="55">(F29/E29)-1</f>
         <v>0.31060246611215114</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>3.2755052170411219</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-2.3890296985218447</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-0.56716728473638112</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-0.22990569968406516</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-2.4711194395727776</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.32276413044521868</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>1.0071753151253837</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0.10283204718324379</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-0.53095972415640369</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-1.467065609347519</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>-7.7703826403842973</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ref="R30" si="50">(R29/Q29)-1</f>
+        <f t="shared" ref="R30" si="56">(R29/Q29)-1</f>
         <v>0.43563445616644803</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30" si="51">(S29/R29)-1</f>
+        <f t="shared" ref="S30" si="57">(S29/R29)-1</f>
         <v>-0.21857719365217865</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" ref="T30" si="52">(T29/S29)-1</f>
+        <f t="shared" ref="T30" si="58">(T29/S29)-1</f>
         <v>-0.11412734359461096</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ref="U30" si="53">(U29/T29)-1</f>
+        <f t="shared" ref="U30" si="59">(U29/T29)-1</f>
         <v>0.17838678864390589</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" ref="V30" si="54">(V29/U29)-1</f>
+        <f t="shared" ref="V30" si="60">(V29/U29)-1</f>
         <v>0.15922416098408876</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" ref="W30" si="55">(W29/V29)-1</f>
+        <f t="shared" ref="W30" si="61">(W29/V29)-1</f>
         <v>6.1073809053514561E-2</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" ref="X30" si="56">(X29/W29)-1</f>
+        <f t="shared" ref="X30" si="62">(X29/W29)-1</f>
         <v>0.45064794068051106</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" ref="Y30" si="57">(Y29/X29)-1</f>
+        <f t="shared" ref="Y30" si="63">(Y29/X29)-1</f>
         <v>0.21084675908579986</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" ref="Z30" si="58">(Z29/Y29)-1</f>
+        <f t="shared" ref="Z30" si="64">(Z29/Y29)-1</f>
         <v>-4.3706969907945092E-3</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" ref="AA30" si="59">(AA29/Z29)-1</f>
+        <f t="shared" ref="AA30" si="65">(AA29/Z29)-1</f>
         <v>0.38056019579658917</v>
       </c>
       <c r="AB30" s="15">
-        <f t="shared" ref="AB30" si="60">(AB29/AA29)-1</f>
+        <f t="shared" ref="AB30" si="66">(AB29/AA29)-1</f>
         <v>0.6555139713538003</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" ref="AC30" si="61">(AC29/AB29)-1</f>
+        <f t="shared" ref="AC30" si="67">(AC29/AB29)-1</f>
         <v>-6.74802828392711E-2</v>
+      </c>
+      <c r="AD30" s="16">
+        <f t="shared" ref="AD30" si="68">(AD29/AC29)-1</f>
+        <v>0.34975028252706797</v>
+      </c>
+      <c r="AE30" s="16">
+        <f t="shared" ref="AE30" si="69">(AE29/AD29)-1</f>
+        <v>0.19662390276839981</v>
+      </c>
+      <c r="AF30" s="16">
+        <f t="shared" ref="AF30" si="70">(AF29/AE29)-1</f>
+        <v>0.26656133619230338</v>
+      </c>
+      <c r="AG30" s="16">
+        <f t="shared" ref="AG30" si="71">(AG29/AF29)-1</f>
+        <v>0.14844515726632812</v>
+      </c>
+      <c r="AH30" s="16">
+        <f t="shared" ref="AH30" si="72">(AH29/AG29)-1</f>
+        <v>0.18217084335479861</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6136,8 +6258,28 @@
       <c r="AC31" s="2">
         <v>0.2591</v>
       </c>
+      <c r="AD31" s="61">
+        <f>AD29/AD4</f>
+        <v>0.27872925057402043</v>
+      </c>
+      <c r="AE31" s="61">
+        <f t="shared" ref="AE31:AH31" si="73">AE29/AE4</f>
+        <v>0.29777867392546292</v>
+      </c>
+      <c r="AF31" s="61">
+        <f t="shared" si="73"/>
+        <v>0.32347600518806746</v>
+      </c>
+      <c r="AG31" s="61">
+        <f t="shared" si="73"/>
+        <v>0.3277892220442003</v>
+      </c>
+      <c r="AH31" s="61">
+        <f t="shared" si="73"/>
+        <v>0.35278182954782245</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
@@ -6225,8 +6367,23 @@
       <c r="AC32" s="12">
         <v>13.39</v>
       </c>
+      <c r="AD32" s="63">
+        <v>18.77</v>
+      </c>
+      <c r="AE32" s="63">
+        <v>22.46</v>
+      </c>
+      <c r="AF32" s="63">
+        <v>28.44</v>
+      </c>
+      <c r="AG32" s="63">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="AH32" s="63">
+        <v>38.61</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
@@ -6503,107 +6660,107 @@
         <v>4.1735427891645867E-2</v>
       </c>
       <c r="D36" s="26">
-        <f t="shared" ref="D36:G36" si="62">(D35-C35)/C35</f>
+        <f t="shared" ref="D36:G36" si="74">(D35-C35)/C35</f>
         <v>2.3061923137880198E-2</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>2.1963683622972824E-2</v>
       </c>
       <c r="F36" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>-0.12146748094155442</v>
       </c>
       <c r="G36" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="74"/>
         <v>3.9632295351572443E-2</v>
       </c>
       <c r="H36" s="26">
-        <f t="shared" ref="H36" si="63">(H35-G35)/G35</f>
+        <f t="shared" ref="H36" si="75">(H35-G35)/G35</f>
         <v>6.6059800089528317E-2</v>
       </c>
       <c r="I36" s="26">
-        <f t="shared" ref="I36" si="64">(I35-H35)/H35</f>
+        <f t="shared" ref="I36" si="76">(I35-H35)/H35</f>
         <v>2.3611940477784515E-2</v>
       </c>
       <c r="J36" s="26">
-        <f t="shared" ref="J36" si="65">(J35-I35)/I35</f>
+        <f t="shared" ref="J36" si="77">(J35-I35)/I35</f>
         <v>1.1269413512263345E-2</v>
       </c>
       <c r="K36" s="26">
-        <f t="shared" ref="K36" si="66">(K35-J35)/J35</f>
+        <f t="shared" ref="K36" si="78">(K35-J35)/J35</f>
         <v>5.0203212061519838E-3</v>
       </c>
       <c r="L36" s="26">
-        <f t="shared" ref="L36" si="67">(L35-K35)/K35</f>
+        <f t="shared" ref="L36" si="79">(L35-K35)/K35</f>
         <v>0.12032740392851796</v>
       </c>
       <c r="M36" s="26">
-        <f t="shared" ref="M36" si="68">(M35-L35)/L35</f>
+        <f t="shared" ref="M36" si="80">(M35-L35)/L35</f>
         <v>-7.1818615831729993E-2</v>
       </c>
       <c r="N36" s="26">
-        <f t="shared" ref="N36" si="69">(N35-M35)/M35</f>
+        <f t="shared" ref="N36" si="81">(N35-M35)/M35</f>
         <v>8.4060985386721909E-2</v>
       </c>
       <c r="O36" s="26">
-        <f t="shared" ref="O36" si="70">(O35-N35)/N35</f>
+        <f t="shared" ref="O36" si="82">(O35-N35)/N35</f>
         <v>-0.10591730962867786</v>
       </c>
       <c r="P36" s="26">
-        <f t="shared" ref="P36" si="71">(P35-O35)/O35</f>
+        <f t="shared" ref="P36" si="83">(P35-O35)/O35</f>
         <v>-3.6618647873700211E-3</v>
       </c>
       <c r="Q36" s="26">
-        <f t="shared" ref="Q36" si="72">(Q35-P35)/P35</f>
+        <f t="shared" ref="Q36" si="84">(Q35-P35)/P35</f>
         <v>1.4759081400321302E-2</v>
       </c>
       <c r="R36" s="26">
-        <f t="shared" ref="R36" si="73">(R35-Q35)/Q35</f>
+        <f t="shared" ref="R36" si="85">(R35-Q35)/Q35</f>
         <v>-2.2658314350797265E-2</v>
       </c>
       <c r="S36" s="26">
-        <f t="shared" ref="S36" si="74">(S35-R35)/R35</f>
+        <f t="shared" ref="S36" si="86">(S35-R35)/R35</f>
         <v>0.292487069302521</v>
       </c>
       <c r="T36" s="26">
-        <f t="shared" ref="T36" si="75">(T35-S35)/S35</f>
+        <f t="shared" ref="T36" si="87">(T35-S35)/S35</f>
         <v>1.5096018735362997E-2</v>
       </c>
       <c r="U36" s="26">
-        <f t="shared" ref="U36" si="76">(U35-T35)/T35</f>
+        <f t="shared" ref="U36" si="88">(U35-T35)/T35</f>
         <v>1.4412406620432534E-2</v>
       </c>
       <c r="V36" s="26">
-        <f t="shared" ref="V36" si="77">(V35-U35)/U35</f>
+        <f t="shared" ref="V36" si="89">(V35-U35)/U35</f>
         <v>-1.6131710079532766E-2</v>
       </c>
       <c r="W36" s="26">
-        <f t="shared" ref="W36" si="78">(W35-V35)/V35</f>
+        <f t="shared" ref="W36" si="90">(W35-V35)/V35</f>
         <v>-1.1326860841423949E-2</v>
       </c>
       <c r="X36" s="26">
-        <f t="shared" ref="X36" si="79">(X35-W35)/W35</f>
+        <f t="shared" ref="X36" si="91">(X35-W35)/W35</f>
         <v>9.11854103343465E-3</v>
       </c>
       <c r="Y36" s="26">
-        <f t="shared" ref="Y36" si="80">(Y35-X35)/X35</f>
+        <f t="shared" ref="Y36" si="92">(Y35-X35)/X35</f>
         <v>-1.2048192771084338E-2</v>
       </c>
       <c r="Z36" s="26">
-        <f t="shared" ref="Z36" si="81">(Z35-Y35)/Y35</f>
+        <f t="shared" ref="Z36" si="93">(Z35-Y35)/Y35</f>
         <v>-1.125703564727955E-2</v>
       </c>
       <c r="AA36" s="26">
-        <f t="shared" ref="AA36" si="82">(AA35-Z35)/Z35</f>
+        <f t="shared" ref="AA36" si="94">(AA35-Z35)/Z35</f>
         <v>-5.9297912713472487E-3</v>
       </c>
       <c r="AB36" s="26">
-        <f t="shared" ref="AB36" si="83">(AB35-AA35)/AA35</f>
+        <f t="shared" ref="AB36" si="95">(AB35-AA35)/AA35</f>
         <v>-2.0758768790264854E-2</v>
       </c>
       <c r="AC36" s="26">
-        <f t="shared" ref="AC36" si="84">(AC35-AB35)/AB35</f>
+        <f t="shared" ref="AC36" si="96">(AC35-AB35)/AB35</f>
         <v>0</v>
       </c>
     </row>
@@ -10532,111 +10689,111 @@
         <v>#VALUE!</v>
       </c>
       <c r="C81" s="15" t="e">
-        <f t="shared" ref="C81:Q81" si="85">C80/C4</f>
+        <f t="shared" ref="C81:Q81" si="97">C80/C4</f>
         <v>#VALUE!</v>
       </c>
       <c r="D81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="E81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="F81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="G81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="H81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="K81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="L81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="M81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="N81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="O81" s="15" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>#VALUE!</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>8.3918993172575271E-3</v>
       </c>
       <c r="Q81" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>2.6861505193727154E-3</v>
       </c>
       <c r="R81" s="15">
-        <f t="shared" ref="R81" si="86">R80/R4</f>
+        <f t="shared" ref="R81" si="98">R80/R4</f>
         <v>2.1995970649624362E-3</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" ref="S81" si="87">S80/S4</f>
+        <f t="shared" ref="S81" si="99">S80/S4</f>
         <v>3.9551479376230434E-3</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" ref="T81" si="88">T80/T4</f>
+        <f t="shared" ref="T81" si="100">T80/T4</f>
         <v>9.9843174666360106E-3</v>
       </c>
       <c r="U81" s="15">
-        <f t="shared" ref="U81" si="89">U80/U4</f>
+        <f t="shared" ref="U81" si="101">U80/U4</f>
         <v>1.0822575503173774E-2</v>
       </c>
       <c r="V81" s="15">
-        <f t="shared" ref="V81" si="90">V80/V4</f>
+        <f t="shared" ref="V81" si="102">V80/V4</f>
         <v>9.3950177935943069E-3</v>
       </c>
       <c r="W81" s="15">
-        <f t="shared" ref="W81" si="91">W80/W4</f>
+        <f t="shared" ref="W81" si="103">W80/W4</f>
         <v>7.0202709385125458E-3</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" ref="X81" si="92">X80/X4</f>
+        <f t="shared" ref="X81" si="104">X80/X4</f>
         <v>5.8655885471898201E-3</v>
       </c>
       <c r="Y81" s="15">
-        <f t="shared" ref="Y81" si="93">Y80/Y4</f>
+        <f t="shared" ref="Y81" si="105">Y80/Y4</f>
         <v>4.2306286549707601E-3</v>
       </c>
       <c r="Z81" s="15">
-        <f t="shared" ref="Z81" si="94">Z80/Z4</f>
+        <f t="shared" ref="Z81" si="106">Z80/Z4</f>
         <v>6.3113367174280881E-3</v>
       </c>
       <c r="AA81" s="15">
-        <f t="shared" ref="AA81" si="95">AA80/AA4</f>
+        <f t="shared" ref="AA81" si="107">AA80/AA4</f>
         <v>3.8559215938763101E-3</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" ref="AB81" si="96">AB80/AB4</f>
+        <f t="shared" ref="AB81" si="108">AB80/AB4</f>
         <v>6.3134705281822582E-3</v>
       </c>
       <c r="AC81" s="15">
-        <f t="shared" ref="AC81" si="97">AC80/AC4</f>
+        <f t="shared" ref="AC81" si="109">AC80/AC4</f>
         <v>3.2540829531393163E-3</v>
       </c>
     </row>
@@ -10817,10 +10974,10 @@
       <c r="AC83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ83" s="68" t="s">
+      <c r="AJ83" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="AK83" s="69"/>
+      <c r="AK83" s="74"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10910,10 +11067,10 @@
       <c r="AC84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ84" s="62" t="s">
+      <c r="AJ84" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="AK84" s="63"/>
+      <c r="AK84" s="68"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11003,10 +11160,10 @@
       <c r="AC85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ85" s="52" t="s">
+      <c r="AJ85" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AK85" s="53">
+      <c r="AK85" s="51">
         <f>AC18</f>
         <v>-44600000</v>
       </c>
@@ -11099,10 +11256,10 @@
       <c r="AC86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ86" s="52" t="s">
+      <c r="AJ86" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="AK86" s="53">
+      <c r="AK86" s="51">
         <f>AC57</f>
         <v>0</v>
       </c>
@@ -11195,10 +11352,10 @@
       <c r="AC87" s="1">
         <v>333100000</v>
       </c>
-      <c r="AJ87" s="52" t="s">
+      <c r="AJ87" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="AK87" s="53">
+      <c r="AK87" s="51">
         <f>AC62</f>
         <v>3514200000</v>
       </c>
@@ -11291,10 +11448,10 @@
       <c r="AC88" s="10">
         <v>8486800000</v>
       </c>
-      <c r="AJ88" s="54" t="s">
+      <c r="AJ88" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="AK88" s="55">
+      <c r="AK88" s="53">
         <f>AK85/(AK86+AK87)</f>
         <v>-1.2691366456092425E-2</v>
       </c>
@@ -11387,10 +11544,10 @@
       <c r="AC89" s="1">
         <v>-1281800000</v>
       </c>
-      <c r="AJ89" s="52" t="s">
+      <c r="AJ89" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="AK89" s="53">
+      <c r="AK89" s="51">
         <f>AC28</f>
         <v>969900000</v>
       </c>
@@ -11404,117 +11561,117 @@
         <v>4.9624322907565965E-2</v>
       </c>
       <c r="C90" s="15">
-        <f t="shared" ref="C90:Q90" si="98">(-1*C89)/C4</f>
+        <f t="shared" ref="C90:Q90" si="110">(-1*C89)/C4</f>
         <v>6.0967700090802955E-2</v>
       </c>
       <c r="D90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>5.0714044754301135E-2</v>
       </c>
       <c r="E90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>0.12647220693450742</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>9.1701244813278002E-2</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>6.0903775613929838E-2</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>0.18799741345080007</v>
       </c>
       <c r="I90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>7.0755451803855382E-2</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>4.6307118616669946E-2</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>3.0412923882041139E-2</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>2.8731066089044664E-2</v>
       </c>
       <c r="M90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>1.9665471475837595E-2</v>
       </c>
       <c r="N90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>4.7037890898362446E-2</v>
       </c>
       <c r="O90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>8.7959856039251064E-2</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>6.5761188624759798E-2</v>
       </c>
       <c r="Q90" s="15">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>2.8555849703345522E-2</v>
       </c>
       <c r="R90" s="15">
-        <f t="shared" ref="R90" si="99">(-1*R89)/R4</f>
+        <f t="shared" ref="R90" si="111">(-1*R89)/R4</f>
         <v>5.3246529175628887E-2</v>
       </c>
       <c r="S90" s="15">
-        <f t="shared" ref="S90" si="100">(-1*S89)/S4</f>
+        <f t="shared" ref="S90" si="112">(-1*S89)/S4</f>
         <v>3.6325901315740809E-2</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" ref="T90" si="101">(-1*T89)/T4</f>
+        <f t="shared" ref="T90" si="113">(-1*T89)/T4</f>
         <v>4.0188922480699961E-2</v>
       </c>
       <c r="U90" s="15">
-        <f t="shared" ref="U90" si="102">(-1*U89)/U4</f>
+        <f t="shared" ref="U90" si="114">(-1*U89)/U4</f>
         <v>6.1178800114816974E-2</v>
       </c>
       <c r="V90" s="15">
-        <f t="shared" ref="V90" si="103">(-1*V89)/V4</f>
+        <f t="shared" ref="V90" si="115">(-1*V89)/V4</f>
         <v>5.9129604962325298E-2</v>
       </c>
       <c r="W90" s="15">
-        <f t="shared" ref="W90" si="104">(-1*W89)/W4</f>
+        <f t="shared" ref="W90" si="116">(-1*W89)/W4</f>
         <v>4.6556224568608244E-2</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" ref="X90" si="105">(-1*X89)/X4</f>
+        <f t="shared" ref="X90" si="117">(-1*X89)/X4</f>
         <v>3.7435931424531638E-2</v>
       </c>
       <c r="Y90" s="15">
-        <f t="shared" ref="Y90" si="106">(-1*Y89)/Y4</f>
+        <f t="shared" ref="Y90" si="118">(-1*Y89)/Y4</f>
         <v>5.2448830409356724E-2</v>
       </c>
       <c r="Z90" s="15">
-        <f t="shared" ref="Z90" si="107">(-1*Z89)/Z4</f>
+        <f t="shared" ref="Z90" si="119">(-1*Z89)/Z4</f>
         <v>6.4856175972927241E-2</v>
       </c>
       <c r="AA90" s="15">
-        <f t="shared" ref="AA90" si="108">(-1*AA89)/AA4</f>
+        <f t="shared" ref="AA90" si="120">(-1*AA89)/AA4</f>
         <v>6.8819973530779413E-2</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" ref="AB90" si="109">(-1*AB89)/AB4</f>
+        <f t="shared" ref="AB90" si="121">(-1*AB89)/AB4</f>
         <v>4.8396109827521357E-2</v>
       </c>
       <c r="AC90" s="15">
-        <f t="shared" ref="AC90" si="110">(-1*AC89)/AC4</f>
+        <f t="shared" ref="AC90" si="122">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
-      <c r="AJ90" s="52" t="s">
+      <c r="AJ90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AK90" s="53">
+      <c r="AK90" s="51">
         <f>AC26</f>
         <v>6456100000</v>
       </c>
@@ -11607,10 +11764,10 @@
       <c r="AC91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ91" s="54" t="s">
+      <c r="AJ91" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="AK91" s="55">
+      <c r="AK91" s="53">
         <f>AK89/AK90</f>
         <v>0.15023001502455041</v>
       </c>
@@ -11703,10 +11860,10 @@
       <c r="AC92" s="1">
         <v>-334300000</v>
       </c>
-      <c r="AJ92" s="56" t="s">
+      <c r="AJ92" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="AK92" s="57">
+      <c r="AK92" s="55">
         <f>AK88*(1-AK91)</f>
         <v>-1.0784742282711585E-2</v>
       </c>
@@ -11799,10 +11956,10 @@
       <c r="AC93" s="1">
         <v>864700000</v>
       </c>
-      <c r="AJ93" s="70" t="s">
+      <c r="AJ93" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="AK93" s="71"/>
+      <c r="AK93" s="76"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -11892,10 +12049,10 @@
       <c r="AC94" s="1">
         <v>-277500000</v>
       </c>
-      <c r="AJ94" s="52" t="s">
+      <c r="AJ94" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AK94" s="58">
+      <c r="AK94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11987,12 +12144,12 @@
       <c r="AC95" s="10">
         <v>-1028900000</v>
       </c>
-      <c r="AJ95" s="52" t="s">
+      <c r="AJ95" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AK95" s="59" cm="1">
+      <c r="AK95" s="57" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.6016999999999999</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12083,10 +12240,10 @@
       <c r="AC96" s="1">
         <v>-516200000</v>
       </c>
-      <c r="AJ96" s="52" t="s">
+      <c r="AJ96" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="AK96" s="58">
+      <c r="AK96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12178,12 +12335,12 @@
       <c r="AC97" s="1">
         <v>81800000</v>
       </c>
-      <c r="AJ97" s="56" t="s">
+      <c r="AJ97" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="AK97" s="57">
+      <c r="AK97" s="55">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.109903185</v>
+        <v>0.11004525000000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12274,10 +12431,10 @@
       <c r="AC98" s="1">
         <v>-4639700000</v>
       </c>
-      <c r="AJ98" s="70" t="s">
+      <c r="AJ98" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="AK98" s="71"/>
+      <c r="AK98" s="76"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12367,10 +12524,10 @@
       <c r="AC99" s="1">
         <v>-2559800000</v>
       </c>
-      <c r="AJ99" s="52" t="s">
+      <c r="AJ99" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AK99" s="53">
+      <c r="AK99" s="51">
         <f>AK86+AK87</f>
         <v>3514200000</v>
       </c>
@@ -12463,12 +12620,12 @@
       <c r="AC100" s="1">
         <v>495600000</v>
       </c>
-      <c r="AJ100" s="54" t="s">
+      <c r="AJ100" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="AK100" s="55">
+      <c r="AK100" s="53">
         <f>AK99/AK103</f>
-        <v>1.3541831241546471E-2</v>
+        <v>1.2727245729426332E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12559,12 +12716,12 @@
       <c r="AC101" s="10">
         <v>-7138300000</v>
       </c>
-      <c r="AJ101" s="52" t="s">
+      <c r="AJ101" s="50" t="s">
         <v>135</v>
       </c>
       <c r="AK101" s="38" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>255992800000</v>
+        <v>272602100000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12655,12 +12812,12 @@
       <c r="AC102" s="1">
         <v>-3100000</v>
       </c>
-      <c r="AJ102" s="54" t="s">
+      <c r="AJ102" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="AK102" s="55">
+      <c r="AK102" s="53">
         <f>AK101/AK103</f>
-        <v>0.98645816875845349</v>
+        <v>0.9872727542705737</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12751,12 +12908,12 @@
       <c r="AC103" s="10">
         <v>316500000</v>
       </c>
-      <c r="AJ103" s="56" t="s">
+      <c r="AJ103" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="AK103" s="60">
+      <c r="AK103" s="58">
         <f>AK99+AK101</f>
-        <v>259507000000</v>
+        <v>276116300000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12847,10 +13004,10 @@
       <c r="AC104" s="1">
         <v>6951800000</v>
       </c>
-      <c r="AJ104" s="62" t="s">
+      <c r="AJ104" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AK104" s="63"/>
+      <c r="AK104" s="68"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -12945,7 +13102,7 @@
       </c>
       <c r="AK105" s="24">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10826884945584547</v>
+        <v>0.10850741699673326</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -12954,123 +13111,133 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f t="shared" ref="C106:AC106" si="111">(C107/B107)-1</f>
+        <f t="shared" ref="C106:AC106" si="123">(C107/B107)-1</f>
         <v>-0.8009824268767608</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-21.832079824350117</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1.6594573719174357</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.52591351736719194</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-1.744870646716107</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-11.913888658073057</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.66979189736365963</v>
       </c>
       <c r="J106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-3.26949536002674</v>
       </c>
       <c r="K106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.59701276650847013</v>
       </c>
       <c r="L106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>2.6237406549827647</v>
       </c>
       <c r="M106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.36278011504110608</v>
       </c>
       <c r="N106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.20933002743700557</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.95732894849008021</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-1.3427722668223172</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-113.76164002779709</v>
       </c>
       <c r="R106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1.1810654242469063</v>
       </c>
       <c r="S106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.70391095549017768</v>
       </c>
       <c r="T106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.60202656019177692</v>
       </c>
       <c r="U106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.20896054059656721</v>
       </c>
       <c r="V106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1.4891065011581777</v>
       </c>
       <c r="W106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.18849012102605311</v>
       </c>
       <c r="X106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>7.4125548768849026E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.7098431209218381</v>
       </c>
       <c r="Z106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-2.9514452744397568E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>0.51717213971972398</v>
       </c>
       <c r="AB106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1.7311955442814604</v>
       </c>
       <c r="AC106" s="15">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>-0.2764120942910504</v>
       </c>
-      <c r="AD106" s="15"/>
-      <c r="AE106" s="15"/>
-      <c r="AF106" s="15"/>
-      <c r="AG106" s="15"/>
-      <c r="AH106" s="15"/>
+      <c r="AD106" s="64">
+        <v>6511000000</v>
+      </c>
+      <c r="AE106" s="64">
+        <v>8577000000</v>
+      </c>
+      <c r="AF106" s="64">
+        <v>10965000000</v>
+      </c>
+      <c r="AG106" s="64">
+        <v>12490000000</v>
+      </c>
+      <c r="AH106" s="64">
+        <v>14747000000</v>
+      </c>
       <c r="AI106" s="15"/>
-      <c r="AJ106" s="64" t="s">
+      <c r="AJ106" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="AK106" s="65"/>
+      <c r="AK106" s="70"/>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
@@ -13162,23 +13329,23 @@
       </c>
       <c r="AD107" s="27">
         <f>AC107*(1+$AK$107)</f>
-        <v>8385019720.069171</v>
+        <v>8274888300.2790642</v>
       </c>
       <c r="AE107" s="27">
-        <f t="shared" ref="AE107:AH107" si="112">AD107*(1+$AK$107)</f>
-        <v>9809355522.2809734</v>
+        <f t="shared" ref="AE107:AH107" si="124">AD107*(1+$AK$107)</f>
+        <v>9553369568.4820843</v>
       </c>
       <c r="AF107" s="27">
-        <f t="shared" si="112"/>
-        <v>11475638576.281183</v>
+        <f t="shared" si="124"/>
+        <v>11029377896.124792</v>
       </c>
       <c r="AG107" s="27">
-        <f t="shared" si="112"/>
-        <v>13424967668.294973</v>
+        <f t="shared" si="124"/>
+        <v>12733431477.084</v>
       </c>
       <c r="AH107" s="27">
-        <f t="shared" si="112"/>
-        <v>15705422900.585196</v>
+        <f t="shared" si="124"/>
+        <v>14700763606.85421</v>
       </c>
       <c r="AI107" s="28" t="s">
         <v>143</v>
@@ -13188,7 +13355,7 @@
       </c>
       <c r="AK107" s="30">
         <f>(SUM(AD5:AH5)/5)</f>
-        <v>0.16986672062353261</v>
+        <v>0.15450133244214367</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13196,9 +13363,9 @@
       <c r="AE108" s="28"/>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
-      <c r="AH108" s="31">
-        <f>AH107*(1+AK108)/(AK109-AK108)</f>
-        <v>193326298829.62482</v>
+      <c r="AH108" s="64">
+        <f>AH106*(1+AK108)/(AK109-AK108)</f>
+        <v>181009969456.86047</v>
       </c>
       <c r="AI108" s="32" t="s">
         <v>145</v>
@@ -13212,24 +13379,24 @@
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="AD109" s="31">
-        <f t="shared" ref="AD109:AF109" si="113">AD108+AD107</f>
-        <v>8385019720.069171</v>
+        <f t="shared" ref="AD109:AF109" si="125">AD108+AD107</f>
+        <v>8274888300.2790642</v>
       </c>
       <c r="AE109" s="31">
-        <f t="shared" si="113"/>
-        <v>9809355522.2809734</v>
+        <f t="shared" si="125"/>
+        <v>9553369568.4820843</v>
       </c>
       <c r="AF109" s="31">
-        <f t="shared" si="113"/>
-        <v>11475638576.281183</v>
+        <f t="shared" si="125"/>
+        <v>11029377896.124792</v>
       </c>
       <c r="AG109" s="31">
         <f>AG108+AG107</f>
-        <v>13424967668.294973</v>
-      </c>
-      <c r="AH109" s="31">
-        <f>AH108+AH107</f>
-        <v>209031721730.21002</v>
+        <v>12733431477.084</v>
+      </c>
+      <c r="AH109" s="64">
+        <f>AH108+AH106</f>
+        <v>195756969456.86047</v>
       </c>
       <c r="AI109" s="32" t="s">
         <v>137</v>
@@ -13239,14 +13406,14 @@
       </c>
       <c r="AK109" s="36">
         <f>AK105</f>
-        <v>0.10826884945584547</v>
+        <v>0.10850741699673326</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD110" s="66" t="s">
+      <c r="AD110" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="AE110" s="67"/>
+      <c r="AE110" s="72"/>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="AD111" s="37" t="s">
@@ -13254,7 +13421,7 @@
       </c>
       <c r="AE111" s="38">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>157903388069.86673</v>
+        <v>148726356178.97803</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13281,14 +13448,14 @@
       </c>
       <c r="AE114" s="38">
         <f>AE111+AE112-AE113</f>
-        <v>161765188069.86673</v>
+        <v>152588156178.97803</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
       <c r="AD115" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="AE115" s="51">
+      <c r="AE115" s="49">
         <f>AC35*(1+(5*AI17))</f>
         <v>389882549.20781785</v>
       </c>
@@ -13299,16 +13466,16 @@
       </c>
       <c r="AE116" s="40">
         <f>AE114/AE115</f>
-        <v>414.90748534026216</v>
+        <v>391.36954574913392</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
       <c r="AD117" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="AE117" s="61" cm="1">
+      <c r="AE117" s="59" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>621.70000000000005</v>
+        <v>683.1</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13317,7 +13484,7 @@
       </c>
       <c r="AE118" s="42">
         <f>AE116/AE117-1</f>
-        <v>-0.33262427965214392</v>
+        <v>-0.42706844422612511</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13397,7 +13564,7 @@
     <hyperlink ref="AB75" r:id="rId55" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="AC37" r:id="rId56" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="AC75" r:id="rId57" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="AD1" r:id="rId58" display="https://finbox.com/NASDAQGS:ASML/explorer/revenue_proj" xr:uid="{E3846DBC-89B9-5E45-B936-D668B6065684}"/>
+    <hyperlink ref="AD1" r:id="rId58" display="https://finbox.com/ENXTAM:ASML/explorer/revenue_proj" xr:uid="{E3846DBC-89B9-5E45-B936-D668B6065684}"/>
     <hyperlink ref="A3" r:id="rId59" xr:uid="{CF4C75A9-BADF-2145-B981-31B69E6CC415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3E32C-5738-974B-9E9A-C6AEAF450E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0BE41-FD88-5342-9A50-3657E466A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="166">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>3yr Rev Growth</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>Assumptions</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -562,6 +556,21 @@
   </si>
   <si>
     <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -959,7 +968,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1032,6 +1040,9 @@
     </xf>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,11 +1477,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$107</c:f>
+              <c:f>'Sheet 1'!$A$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1510,7 +1521,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AC$107</c:f>
+              <c:f>'Sheet 1'!$B$108:$AC$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2319,13 +2330,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>33866</xdr:colOff>
+      <xdr:colOff>17991</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>25402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1571624</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2353,6 +2364,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2477,9 +2548,9 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>375.75</v>
-    <v>1.605</v>
-    <v>6.9</v>
-    <v>1.0204E-2</v>
+    <v>1.57</v>
+    <v>-6.3</v>
+    <v>-9.6640000000000007E-3</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2487,24 +2558,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>698.1</v>
+    <v>650.6</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45076.666666666664</v>
+    <v>45100.470243055555</v>
     <v>0</v>
-    <v>674.2</v>
-    <v>272602100000</v>
+    <v>643.6</v>
+    <v>262805800000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>677.9</v>
-    <v>42.4589</v>
-    <v>676.2</v>
-    <v>683.1</v>
+    <v>650.6</v>
+    <v>40.519599999999997</v>
+    <v>651.9</v>
+    <v>645.6</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>748984</v>
-    <v>698330</v>
+    <v>117782</v>
+    <v>614800</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3071,11 +3142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z97" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Z91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE125" sqref="AE125"/>
+      <selection pane="bottomRight" activeCell="AC122" sqref="AC122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3194,104 +3265,104 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9"/>
       <c r="AH2" s="9"/>
     </row>
     <row r="3" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3441,27 +3512,27 @@
         <v>34695000000</v>
       </c>
       <c r="AG4" s="22">
-        <v>39321000000</v>
+        <v>40089000000</v>
       </c>
       <c r="AH4" s="22">
         <v>43191000000</v>
       </c>
-      <c r="AI4" s="44" t="s">
+      <c r="AI4" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AJ4" s="44" t="s">
+      <c r="AL4" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="AK4" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL4" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="15">
@@ -3586,26 +3657,26 @@
       </c>
       <c r="AG5" s="16">
         <f t="shared" si="9"/>
-        <v>0.1333333333333333</v>
+        <v>0.1554690877648075</v>
       </c>
       <c r="AH5" s="16">
         <f t="shared" si="9"/>
-        <v>9.8420691233692015E-2</v>
-      </c>
-      <c r="AI5" s="45">
+        <v>7.7377834318641092E-2</v>
+      </c>
+      <c r="AI5" s="44">
         <f>(AC5+AB5+AA5)/3</f>
         <v>0.21723267494156651</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="44">
         <f>(AC21+AB21+AA21)/3</f>
         <v>0.32336582629238492</v>
       </c>
-      <c r="AK5" s="45">
+      <c r="AK5" s="44">
         <f>(AC30+AB30+AA30)/3</f>
         <v>0.32286462810370614</v>
       </c>
       <c r="AL5" s="17">
-        <f>(AC106+AB106+AA106)/3</f>
+        <f>(AC107+AB107+AA107)/3</f>
         <v>0.65731852990337802</v>
       </c>
     </row>
@@ -3786,17 +3857,17 @@
       <c r="AC7" s="10">
         <v>10700100000</v>
       </c>
-      <c r="AI7" s="44" t="s">
+      <c r="AI7" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK7" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AJ7" s="44" t="s">
+      <c r="AL7" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="AK7" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL7" s="18" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3887,20 +3958,20 @@
       <c r="AC8" s="2">
         <v>0.50539999999999996</v>
       </c>
-      <c r="AI8" s="45">
+      <c r="AI8" s="44">
         <f>AC8</f>
         <v>0.50539999999999996</v>
       </c>
-      <c r="AJ8" s="45">
+      <c r="AJ8" s="44">
         <f>AC22</f>
         <v>0.33040000000000003</v>
       </c>
-      <c r="AK8" s="45">
+      <c r="AK8" s="44">
         <f>AC31</f>
         <v>0.2591</v>
       </c>
       <c r="AL8" s="17">
-        <f>AC107/AC4</f>
+        <f>AC108/AC4</f>
         <v>0.33851436236032001</v>
       </c>
     </row>
@@ -3909,10 +3980,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1">
         <v>78636285</v>
@@ -3995,7 +4066,7 @@
     </row>
     <row r="10" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="15" t="e">
         <f>B9/B4</f>
@@ -4109,17 +4180,17 @@
         <f t="shared" ref="AC10" si="22">AC9/AC4</f>
         <v>0.15365978066819688</v>
       </c>
-      <c r="AI10" s="44" t="s">
+      <c r="AI10" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="AJ10" s="18" t="s">
+      <c r="AK10" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AK10" s="18" t="s">
+      <c r="AL10" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="AL10" s="18" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,98 +4198,98 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI11" s="45">
+        <v>91</v>
+      </c>
+      <c r="AI11" s="44">
         <f>(AC10+AB10+AA10)/3</f>
         <v>0.14931870488429119</v>
       </c>
-      <c r="AJ11" s="45">
+      <c r="AJ11" s="44">
         <f>(AC14+AB14+AA14)/3</f>
         <v>4.0880988625067081E-2</v>
       </c>
-      <c r="AK11" s="45">
+      <c r="AK11" s="44">
         <f>(AC81+AB81+AA81)/3</f>
         <v>4.4744916917326275E-3</v>
       </c>
@@ -4232,88 +4303,88 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -4404,22 +4475,22 @@
       <c r="AC13" s="1">
         <v>945900000</v>
       </c>
-      <c r="AI13" s="44" t="s">
+      <c r="AI13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ13" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK13" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="AJ13" s="44" t="s">
+      <c r="AL13" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="AK13" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL13" s="18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="15">
         <f>B13/B4</f>
@@ -4533,7 +4604,7 @@
         <f t="shared" ref="AC14" si="35">AC13/AC4</f>
         <v>4.4673977726770384E-2</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AI14" s="44">
         <f>AC29/AC73</f>
         <v>0.62266763517501245</v>
       </c>
@@ -4541,7 +4612,7 @@
         <f>AC29/AC55</f>
         <v>0.15113332084494938</v>
       </c>
-      <c r="AK14" s="45">
+      <c r="AK14" s="44">
         <f>(AC29-AC99)/AC74</f>
         <v>0.2216504501327809</v>
       </c>
@@ -4573,19 +4644,19 @@
         <v>66031981</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="1">
         <v>-758</v>
@@ -4597,46 +4668,46 @@
         <v>-22249145</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -4727,17 +4798,17 @@
       <c r="AC16" s="1">
         <v>4199400000</v>
       </c>
-      <c r="AI16" s="44" t="s">
-        <v>140</v>
+      <c r="AI16" s="43" t="s">
+        <v>138</v>
       </c>
       <c r="AJ16" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AK16" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL16" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="AL16" s="45" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4832,17 +4903,17 @@
         <f>(SUM(Y36:AC36)/5)</f>
         <v>-9.9987576959951977E-3</v>
       </c>
-      <c r="AJ17" s="65">
+      <c r="AJ17" s="64">
         <f>AK101/AC4</f>
-        <v>12.874743782292876</v>
-      </c>
-      <c r="AK17" s="65">
+        <v>12.412073639566627</v>
+      </c>
+      <c r="AK17" s="64">
         <f>AK101/AC26</f>
-        <v>42.223958736698627</v>
-      </c>
-      <c r="AL17" s="66">
-        <f>AK101/AC107</f>
-        <v>38.033079874433206</v>
+        <v>40.706587568346215</v>
+      </c>
+      <c r="AL17" s="65">
+        <f>AK101/AC108</f>
+        <v>36.666313219393096</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4850,46 +4921,46 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P18" s="1">
         <v>49303000</v>
@@ -5022,17 +5093,17 @@
       <c r="AC19" s="1">
         <v>583600000</v>
       </c>
-      <c r="AI19" s="47" t="s">
+      <c r="AI19" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ19" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK19" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL19" s="45" t="s">
         <v>160</v>
-      </c>
-      <c r="AJ19" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK19" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL19" s="46" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5123,41 +5194,41 @@
       <c r="AC20" s="10">
         <v>6995100000</v>
       </c>
-      <c r="AD20" s="60">
+      <c r="AD20" s="59">
         <v>9265000000</v>
       </c>
-      <c r="AE20" s="60">
+      <c r="AE20" s="59">
         <v>11305000000</v>
       </c>
-      <c r="AF20" s="60">
+      <c r="AF20" s="59">
         <v>14025000000</v>
       </c>
-      <c r="AG20" s="60">
+      <c r="AG20" s="59">
         <v>15858000000</v>
       </c>
-      <c r="AH20" s="60">
+      <c r="AH20" s="59">
         <v>18812000000</v>
       </c>
-      <c r="AI20" s="48">
+      <c r="AI20" s="47">
         <f>AC41-AC57-AC62</f>
         <v>3861800000</v>
       </c>
-      <c r="AJ20" s="65">
+      <c r="AJ20" s="64">
         <f>AK101/AD4</f>
-        <v>10.260928972032973</v>
-      </c>
-      <c r="AK20" s="65">
+        <v>9.892189558474799</v>
+      </c>
+      <c r="AK20" s="64">
         <f>AK101/AD29</f>
-        <v>36.813247805536797</v>
-      </c>
-      <c r="AL20" s="66">
+        <v>35.490317353139773</v>
+      </c>
+      <c r="AL20" s="65">
         <f>AK101/AD106</f>
-        <v>41.867931193365074</v>
+        <v>31.318227162538069</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="15">
@@ -5377,23 +5448,23 @@
       <c r="AC22" s="2">
         <v>0.33040000000000003</v>
       </c>
-      <c r="AD22" s="61">
+      <c r="AD22" s="60">
         <f>AD20/AD4</f>
         <v>0.34874091918545563</v>
       </c>
-      <c r="AE22" s="61">
+      <c r="AE22" s="60">
         <f t="shared" ref="AE22:AH22" si="54">AE20/AE4</f>
         <v>0.37991060926840742</v>
       </c>
-      <c r="AF22" s="61">
+      <c r="AF22" s="60">
         <f t="shared" si="54"/>
         <v>0.40423692174664938</v>
       </c>
-      <c r="AG22" s="61">
+      <c r="AG22" s="60">
         <f t="shared" si="54"/>
-        <v>0.40329594872968644</v>
-      </c>
-      <c r="AH22" s="61">
+        <v>0.39556985706802367</v>
+      </c>
+      <c r="AH22" s="60">
         <f t="shared" si="54"/>
         <v>0.43555370331782084</v>
       </c>
@@ -6020,25 +6091,25 @@
       <c r="AC29" s="11">
         <v>5486200000</v>
       </c>
-      <c r="AD29" s="62">
+      <c r="AD29" s="61">
         <v>7405000000</v>
       </c>
-      <c r="AE29" s="62">
+      <c r="AE29" s="61">
         <v>8861000000</v>
       </c>
-      <c r="AF29" s="62">
+      <c r="AF29" s="61">
         <v>11223000000</v>
       </c>
-      <c r="AG29" s="62">
+      <c r="AG29" s="61">
         <v>12889000000</v>
       </c>
-      <c r="AH29" s="62">
+      <c r="AH29" s="61">
         <v>15237000000</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="15">
@@ -6258,23 +6329,23 @@
       <c r="AC31" s="2">
         <v>0.2591</v>
       </c>
-      <c r="AD31" s="61">
+      <c r="AD31" s="60">
         <f>AD29/AD4</f>
         <v>0.27872925057402043</v>
       </c>
-      <c r="AE31" s="61">
+      <c r="AE31" s="60">
         <f t="shared" ref="AE31:AH31" si="73">AE29/AE4</f>
         <v>0.29777867392546292</v>
       </c>
-      <c r="AF31" s="61">
+      <c r="AF31" s="60">
         <f t="shared" si="73"/>
         <v>0.32347600518806746</v>
       </c>
-      <c r="AG31" s="61">
+      <c r="AG31" s="60">
         <f t="shared" si="73"/>
-        <v>0.3277892220442003</v>
-      </c>
-      <c r="AH31" s="61">
+        <v>0.32150964104866669</v>
+      </c>
+      <c r="AH31" s="60">
         <f t="shared" si="73"/>
         <v>0.35278182954782245</v>
       </c>
@@ -6367,19 +6438,19 @@
       <c r="AC32" s="12">
         <v>13.39</v>
       </c>
-      <c r="AD32" s="63">
+      <c r="AD32" s="62">
         <v>18.77</v>
       </c>
-      <c r="AE32" s="63">
+      <c r="AE32" s="62">
         <v>22.46</v>
       </c>
-      <c r="AF32" s="63">
+      <c r="AF32" s="62">
         <v>28.44</v>
       </c>
-      <c r="AG32" s="63">
+      <c r="AG32" s="62">
         <v>32.659999999999997</v>
       </c>
-      <c r="AH32" s="63">
+      <c r="AH32" s="62">
         <v>38.61</v>
       </c>
     </row>
@@ -6652,7 +6723,7 @@
     </row>
     <row r="36" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="26">
@@ -6769,88 +6840,88 @@
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -6858,88 +6929,88 @@
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -7036,55 +7107,55 @@
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S40" s="1">
         <v>930005000</v>
@@ -7659,40 +7730,40 @@
         <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1">
         <v>128473053</v>
@@ -7748,16 +7819,16 @@
         <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>19975179</v>
@@ -7837,16 +7908,16 @@
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>19975179</v>
@@ -7926,70 +7997,70 @@
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1">
         <v>982200000</v>
@@ -8015,22 +8086,22 @@
         <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1">
         <v>262547624</v>
@@ -8110,7 +8181,7 @@
         <v>7793659</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>12789900</v>
@@ -8282,88 +8353,88 @@
         <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8541,7 +8612,7 @@
         <v>2116300000</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8552,34 +8623,34 @@
         <v>779910</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1">
         <v>7405662</v>
@@ -8591,10 +8662,10 @@
         <v>70204087</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>2587000</v>
@@ -8618,10 +8689,10 @@
         <v>25200000</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1">
         <v>15400000</v>
@@ -8638,46 +8709,46 @@
         <v>49</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1">
         <v>15032000</v>
@@ -8686,7 +8757,7 @@
         <v>61197000</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1">
         <v>10791000</v>
@@ -8719,7 +8790,7 @@
         <v>301900000</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8727,37 +8798,37 @@
         <v>50</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M59" s="1">
         <v>191234137</v>
@@ -8769,31 +8840,31 @@
         <v>262830549</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y59" s="1">
         <v>1728600000</v>
@@ -8808,7 +8879,7 @@
         <v>7935200000</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -8997,10 +9068,10 @@
         <v>8033073</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1">
         <v>270719550</v>
@@ -9083,73 +9154,73 @@
         <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1">
         <v>1224600000</v>
@@ -9261,7 +9332,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>-80347</v>
@@ -9270,19 +9341,19 @@
         <v>90909</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1">
         <v>-99379</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1">
         <v>-794</v>
@@ -9439,88 +9510,88 @@
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9617,16 +9688,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1">
         <v>8248457</v>
@@ -9698,7 +9769,7 @@
         <v>36500000</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9787,7 +9858,7 @@
         <v>8317300000</v>
       </c>
       <c r="AC70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9876,7 +9947,7 @@
         <v>333500000</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9965,7 +10036,7 @@
         <v>1453300000</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10151,88 +10222,88 @@
         <v>28</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC75" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:29" ht="21" x14ac:dyDescent="0.25">
@@ -10240,88 +10311,88 @@
         <v>65</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC76" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10596,46 +10667,46 @@
         <v>68</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P80" s="1">
         <v>13394000</v>
@@ -10682,7 +10753,7 @@
     </row>
     <row r="81" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="15" t="e">
         <f>B80/B4</f>
@@ -10891,46 +10962,46 @@
         <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1">
         <v>97540000</v>
@@ -10972,10 +11043,10 @@
         <v>-1754900000</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK83" s="74"/>
     </row>
@@ -11065,10 +11136,10 @@
         <v>-483200000</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ84" s="67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK84" s="68"/>
     </row>
@@ -11077,46 +11148,46 @@
         <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1">
         <v>10430000</v>
@@ -11158,12 +11229,12 @@
         <v>718600000</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ85" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK85" s="51">
+        <v>91</v>
+      </c>
+      <c r="AJ85" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK85" s="50">
         <f>AC18</f>
         <v>-44600000</v>
       </c>
@@ -11173,37 +11244,37 @@
         <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M86" s="1">
         <v>-31366093</v>
@@ -11218,25 +11289,25 @@
         <v>14830000</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R86" s="1">
         <v>-130822000</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X86" s="1">
         <v>-151800000</v>
@@ -11254,12 +11325,12 @@
         <v>5744200000</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ86" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK86" s="51">
+        <v>91</v>
+      </c>
+      <c r="AJ86" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK86" s="50">
         <f>AC57</f>
         <v>0</v>
       </c>
@@ -11281,7 +11352,7 @@
         <v>-85266</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G87" s="1">
         <v>-1058352</v>
@@ -11352,10 +11423,10 @@
       <c r="AC87" s="1">
         <v>333100000</v>
       </c>
-      <c r="AJ87" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK87" s="51">
+      <c r="AJ87" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK87" s="50">
         <f>AC62</f>
         <v>3514200000</v>
       </c>
@@ -11448,10 +11519,10 @@
       <c r="AC88" s="10">
         <v>8486800000</v>
       </c>
-      <c r="AJ88" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK88" s="53">
+      <c r="AJ88" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK88" s="52">
         <f>AK85/(AK86+AK87)</f>
         <v>-1.2691366456092425E-2</v>
       </c>
@@ -11544,17 +11615,17 @@
       <c r="AC89" s="1">
         <v>-1281800000</v>
       </c>
-      <c r="AJ89" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK89" s="51">
+      <c r="AJ89" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK89" s="50">
         <f>AC28</f>
         <v>969900000</v>
       </c>
     </row>
     <row r="90" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="15">
         <f>(-1*B89)/B4</f>
@@ -11668,10 +11739,10 @@
         <f t="shared" ref="AC90" si="122">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
-      <c r="AJ90" s="50" t="s">
+      <c r="AJ90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AK90" s="51">
+      <c r="AK90" s="50">
         <f>AC26</f>
         <v>6456100000</v>
       </c>
@@ -11681,55 +11752,55 @@
         <v>75</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-188306980</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1">
         <v>-10292000</v>
@@ -11738,10 +11809,10 @@
         <v>-443712000</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1">
         <v>-2641295000</v>
@@ -11750,10 +11821,10 @@
         <v>-1019700000</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1">
         <v>-222800000</v>
@@ -11762,12 +11833,12 @@
         <v>329000000</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ91" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK91" s="53">
+        <v>91</v>
+      </c>
+      <c r="AJ91" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK91" s="52">
         <f>AK89/AK90</f>
         <v>0.15023001502455041</v>
       </c>
@@ -11783,49 +11854,49 @@
         <v>-1847981</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1">
         <v>-1379997000</v>
@@ -11860,10 +11931,10 @@
       <c r="AC92" s="1">
         <v>-334300000</v>
       </c>
-      <c r="AJ92" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK92" s="55">
+      <c r="AJ92" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK92" s="54">
         <f>AK88*(1-AK91)</f>
         <v>-1.0784742282711585E-2</v>
       </c>
@@ -11873,7 +11944,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>5222555</v>
@@ -11882,46 +11953,46 @@
         <v>15818166</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1">
         <v>449992000</v>
@@ -11957,7 +12028,7 @@
         <v>864700000</v>
       </c>
       <c r="AJ93" s="75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK93" s="76"/>
     </row>
@@ -11969,7 +12040,7 @@
         <v>2261739</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="1">
         <v>12363624</v>
@@ -12005,7 +12076,7 @@
         <v>19250999</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P94" s="1">
         <v>6877000</v>
@@ -12014,7 +12085,7 @@
         <v>3825000</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S94" s="1">
         <v>-7658000</v>
@@ -12049,11 +12120,12 @@
       <c r="AC94" s="1">
         <v>-277500000</v>
       </c>
-      <c r="AJ94" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK94" s="56">
-        <v>4.095E-2</v>
+      <c r="AJ94" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12144,12 +12216,12 @@
       <c r="AC95" s="10">
         <v>-1028900000</v>
       </c>
-      <c r="AJ95" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK95" s="57" cm="1">
+      <c r="AJ95" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK95" s="56" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.605</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12157,46 +12229,46 @@
         <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1">
         <v>-17000</v>
@@ -12240,10 +12312,10 @@
       <c r="AC96" s="1">
         <v>-516200000</v>
       </c>
-      <c r="AJ96" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK96" s="56">
+      <c r="AJ96" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12252,13 +12324,13 @@
         <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>44110503</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1">
         <v>1790586</v>
@@ -12335,12 +12407,12 @@
       <c r="AC97" s="1">
         <v>81800000</v>
       </c>
-      <c r="AJ97" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK97" s="55">
+      <c r="AJ97" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK97" s="54">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.11004525000000001</v>
+        <v>0.11065890000000002</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12348,37 +12420,37 @@
         <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-678384861</v>
@@ -12390,10 +12462,10 @@
         <v>-87812755</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1">
         <v>-700452000</v>
@@ -12432,7 +12504,7 @@
         <v>-4639700000</v>
       </c>
       <c r="AJ98" s="75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AK98" s="76"/>
     </row>
@@ -12441,43 +12513,43 @@
         <v>83</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1">
         <v>-108096522</v>
@@ -12524,10 +12596,10 @@
       <c r="AC99" s="1">
         <v>-2559800000</v>
       </c>
-      <c r="AJ99" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK99" s="51">
+      <c r="AJ99" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK99" s="50">
         <f>AK86+AK87</f>
         <v>3514200000</v>
       </c>
@@ -12603,29 +12675,29 @@
         <v>2231501000</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA100" s="1">
         <v>1486300000</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC100" s="1">
         <v>495600000</v>
       </c>
-      <c r="AJ100" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK100" s="53">
+      <c r="AJ100" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK100" s="52">
         <f>AK99/AK103</f>
-        <v>1.2727245729426332E-2</v>
+        <v>1.3195404025232803E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12716,12 +12788,12 @@
       <c r="AC101" s="10">
         <v>-7138300000</v>
       </c>
-      <c r="AJ101" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK101" s="38" cm="1">
+      <c r="AJ101" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK101" s="37" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>272602100000</v>
+        <v>262805800000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12812,12 +12884,12 @@
       <c r="AC102" s="1">
         <v>-3100000</v>
       </c>
-      <c r="AJ102" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK102" s="53">
+      <c r="AJ102" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK102" s="52">
         <f>AK101/AK103</f>
-        <v>0.9872727542705737</v>
+        <v>0.98680459597476722</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12908,12 +12980,12 @@
       <c r="AC103" s="10">
         <v>316500000</v>
       </c>
-      <c r="AJ103" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK103" s="58">
+      <c r="AJ103" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK103" s="57">
         <f>AK99+AK101</f>
-        <v>276116300000</v>
+        <v>266320000000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13005,7 +13077,7 @@
         <v>6951800000</v>
       </c>
       <c r="AJ104" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AK104" s="68"/>
     </row>
@@ -13014,16 +13086,16 @@
         <v>89</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F105" s="11">
         <v>603031772</v>
@@ -13098,400 +13170,517 @@
         <v>7268300000</v>
       </c>
       <c r="AJ105" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AK105" s="24">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10850741699673326</v>
+        <v>0.1090564020737838</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="15">
-        <f t="shared" ref="C106:AC106" si="123">(C107/B107)-1</f>
-        <v>-0.8009824268767608</v>
-      </c>
-      <c r="D106" s="15">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" ref="B106:AB106" si="123">(B23*(1-$AK$91))+B78+B89+B82</f>
+        <v>29995522.702297062</v>
+      </c>
+      <c r="C106" s="1">
         <f t="shared" si="123"/>
-        <v>-21.832079824350117</v>
-      </c>
-      <c r="E106" s="15">
+        <v>25230055.660414189</v>
+      </c>
+      <c r="D106" s="1">
         <f t="shared" si="123"/>
-        <v>1.6594573719174357</v>
-      </c>
-      <c r="F106" s="15">
+        <v>-23946940.938956946</v>
+      </c>
+      <c r="E106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.52591351736719194</v>
-      </c>
-      <c r="G106" s="15">
+        <v>-134079767.39722122</v>
+      </c>
+      <c r="F106" s="1">
         <f t="shared" si="123"/>
-        <v>-1.744870646716107</v>
-      </c>
-      <c r="H106" s="15">
+        <v>-84278120.741624191</v>
+      </c>
+      <c r="G106" s="1">
         <f t="shared" si="123"/>
-        <v>-11.913888658073057</v>
-      </c>
-      <c r="I106" s="15">
+        <v>133411816.62892461</v>
+      </c>
+      <c r="H106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.66979189736365963</v>
-      </c>
-      <c r="J106" s="15">
+        <v>-875796020.54777658</v>
+      </c>
+      <c r="I106" s="1">
         <f t="shared" si="123"/>
-        <v>-3.26949536002674</v>
-      </c>
-      <c r="K106" s="15">
+        <v>-294867467.76993853</v>
+      </c>
+      <c r="J106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.59701276650847013</v>
-      </c>
-      <c r="L106" s="15">
+        <v>455794446.05374759</v>
+      </c>
+      <c r="K106" s="1">
         <f t="shared" si="123"/>
-        <v>2.6237406549827647</v>
-      </c>
-      <c r="M106" s="15">
+        <v>113561069.62000281</v>
+      </c>
+      <c r="L106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.36278011504110608</v>
-      </c>
-      <c r="N106" s="15">
+        <v>670661808.65572095</v>
+      </c>
+      <c r="M106" s="1">
         <f t="shared" si="123"/>
-        <v>0.20933002743700557</v>
-      </c>
-      <c r="O106" s="15">
+        <v>421860305.67117929</v>
+      </c>
+      <c r="N106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.95732894849008021</v>
-      </c>
-      <c r="P106" s="15">
+        <v>307453545.34096444</v>
+      </c>
+      <c r="O106" s="1">
         <f t="shared" si="123"/>
-        <v>-1.3427722668223172</v>
-      </c>
-      <c r="Q106" s="15">
+        <v>-206557647.16652465</v>
+      </c>
+      <c r="P106" s="1">
         <f t="shared" si="123"/>
-        <v>-113.76164002779709</v>
-      </c>
-      <c r="R106" s="15">
+        <v>-68938094.530753881</v>
+      </c>
+      <c r="Q106" s="1">
         <f t="shared" si="123"/>
-        <v>1.1810654242469063</v>
-      </c>
-      <c r="S106" s="15">
+        <v>746233470.43880987</v>
+      </c>
+      <c r="R106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.70391095549017768</v>
-      </c>
-      <c r="T106" s="15">
+        <v>1544769095.6614676</v>
+      </c>
+      <c r="S106" s="1">
         <f t="shared" si="123"/>
-        <v>0.60202656019177692</v>
-      </c>
-      <c r="U106" s="15">
+        <v>285060824.59999084</v>
+      </c>
+      <c r="T106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.20896054059656721</v>
-      </c>
-      <c r="V106" s="15">
+        <v>506886756.2150526</v>
+      </c>
+      <c r="U106" s="1">
         <f t="shared" si="123"/>
-        <v>1.4891065011581777</v>
-      </c>
-      <c r="W106" s="15">
+        <v>378576816.68499565</v>
+      </c>
+      <c r="V106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.18849012102605311</v>
-      </c>
-      <c r="X106" s="15">
+        <v>1272633745.4345503</v>
+      </c>
+      <c r="W106" s="1">
         <f t="shared" si="123"/>
-        <v>7.4125548768849026E-2</v>
-      </c>
-      <c r="Y106" s="15">
+        <v>1154350596.2732921</v>
+      </c>
+      <c r="X106" s="1">
         <f t="shared" si="123"/>
-        <v>0.7098431209218381</v>
-      </c>
-      <c r="Z106" s="15">
+        <v>1260495836.495717</v>
+      </c>
+      <c r="Y106" s="1">
         <f t="shared" si="123"/>
-        <v>-2.9514452744397568E-2</v>
-      </c>
-      <c r="AA106" s="15">
+        <v>2309122936.447701</v>
+      </c>
+      <c r="Z106" s="1">
         <f t="shared" si="123"/>
-        <v>0.51717213971972398</v>
-      </c>
-      <c r="AB106" s="15">
+        <v>2165038074.0694847</v>
+      </c>
+      <c r="AA106" s="1">
         <f t="shared" si="123"/>
-        <v>1.7311955442814604</v>
-      </c>
-      <c r="AC106" s="15">
+        <v>3503243094.1280341</v>
+      </c>
+      <c r="AB106" s="1">
         <f t="shared" si="123"/>
-        <v>-0.2764120942910504</v>
-      </c>
-      <c r="AD106" s="64">
-        <v>6511000000</v>
-      </c>
-      <c r="AE106" s="64">
-        <v>8577000000</v>
-      </c>
-      <c r="AF106" s="64">
-        <v>10965000000</v>
-      </c>
-      <c r="AG106" s="64">
-        <v>12490000000</v>
-      </c>
-      <c r="AH106" s="64">
-        <v>14747000000</v>
-      </c>
-      <c r="AI106" s="15"/>
+        <v>10198732375.582783</v>
+      </c>
+      <c r="AC106" s="1">
+        <f>(AC23*(1-$AK$91))+AC78+AC89+AC82</f>
+        <v>7267099741.3299055</v>
+      </c>
+      <c r="AD106" s="27">
+        <f>AC106*(1+$AK$107)</f>
+        <v>8391464773.4071131</v>
+      </c>
+      <c r="AE106" s="27">
+        <f t="shared" ref="AE106:AH106" si="124">AD106*(1+$AK$107)</f>
+        <v>9689791464.2418251</v>
+      </c>
+      <c r="AF106" s="27">
+        <f t="shared" si="124"/>
+        <v>11188995146.358883</v>
+      </c>
+      <c r="AG106" s="27">
+        <f t="shared" si="124"/>
+        <v>12920155490.161354</v>
+      </c>
+      <c r="AH106" s="27">
+        <f t="shared" si="124"/>
+        <v>14919160809.920361</v>
+      </c>
+      <c r="AI106" s="28" t="s">
+        <v>164</v>
+      </c>
       <c r="AJ106" s="69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AK106" s="70"/>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="1">
-        <v>13726416</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2731798</v>
-      </c>
-      <c r="D107" s="1">
-        <v>-56909034</v>
-      </c>
-      <c r="E107" s="1">
-        <v>-151347150</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-71751638</v>
-      </c>
-      <c r="G107" s="1">
-        <v>53445689</v>
-      </c>
-      <c r="H107" s="1">
-        <v>-583300299</v>
-      </c>
-      <c r="I107" s="1">
-        <v>-192610485</v>
-      </c>
-      <c r="J107" s="1">
-        <v>437128602</v>
-      </c>
-      <c r="K107" s="1">
-        <v>176157246</v>
-      </c>
-      <c r="L107" s="1">
-        <v>638348174</v>
-      </c>
-      <c r="M107" s="1">
-        <v>406768150</v>
-      </c>
-      <c r="N107" s="1">
-        <v>491916938</v>
-      </c>
-      <c r="O107" s="1">
-        <v>20990613</v>
-      </c>
-      <c r="P107" s="1">
-        <v>-7195000</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>811320000</v>
-      </c>
-      <c r="R107" s="1">
-        <v>1769542000</v>
-      </c>
-      <c r="S107" s="1">
-        <v>523942000</v>
-      </c>
-      <c r="T107" s="1">
-        <v>839369000</v>
-      </c>
-      <c r="U107" s="1">
-        <v>663974000</v>
-      </c>
-      <c r="V107" s="1">
-        <v>1652702000</v>
-      </c>
-      <c r="W107" s="1">
-        <v>1341184000</v>
-      </c>
-      <c r="X107" s="1">
-        <v>1440600000</v>
-      </c>
-      <c r="Y107" s="1">
-        <v>2463200000</v>
-      </c>
-      <c r="Z107" s="1">
-        <v>2390500000</v>
-      </c>
-      <c r="AA107" s="1">
-        <v>3626800000</v>
-      </c>
-      <c r="AB107" s="1">
-        <v>9905500000</v>
-      </c>
-      <c r="AC107" s="1">
-        <v>7167500000</v>
-      </c>
-      <c r="AD107" s="27">
-        <f>AC107*(1+$AK$107)</f>
-        <v>8274888300.2790642</v>
-      </c>
-      <c r="AE107" s="27">
-        <f t="shared" ref="AE107:AH107" si="124">AD107*(1+$AK$107)</f>
-        <v>9553369568.4820843</v>
-      </c>
-      <c r="AF107" s="27">
-        <f t="shared" si="124"/>
-        <v>11029377896.124792</v>
-      </c>
-      <c r="AG107" s="27">
-        <f t="shared" si="124"/>
-        <v>12733431477.084</v>
-      </c>
-      <c r="AH107" s="27">
-        <f t="shared" si="124"/>
-        <v>14700763606.85421</v>
+      <c r="A107" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="15">
+        <f t="shared" ref="C107:AC107" si="125">(C108/B108)-1</f>
+        <v>-0.8009824268767608</v>
+      </c>
+      <c r="D107" s="15">
+        <f t="shared" si="125"/>
+        <v>-21.832079824350117</v>
+      </c>
+      <c r="E107" s="15">
+        <f t="shared" si="125"/>
+        <v>1.6594573719174357</v>
+      </c>
+      <c r="F107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.52591351736719194</v>
+      </c>
+      <c r="G107" s="15">
+        <f t="shared" si="125"/>
+        <v>-1.744870646716107</v>
+      </c>
+      <c r="H107" s="15">
+        <f t="shared" si="125"/>
+        <v>-11.913888658073057</v>
+      </c>
+      <c r="I107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.66979189736365963</v>
+      </c>
+      <c r="J107" s="15">
+        <f t="shared" si="125"/>
+        <v>-3.26949536002674</v>
+      </c>
+      <c r="K107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.59701276650847013</v>
+      </c>
+      <c r="L107" s="15">
+        <f t="shared" si="125"/>
+        <v>2.6237406549827647</v>
+      </c>
+      <c r="M107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.36278011504110608</v>
+      </c>
+      <c r="N107" s="15">
+        <f t="shared" si="125"/>
+        <v>0.20933002743700557</v>
+      </c>
+      <c r="O107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.95732894849008021</v>
+      </c>
+      <c r="P107" s="15">
+        <f t="shared" si="125"/>
+        <v>-1.3427722668223172</v>
+      </c>
+      <c r="Q107" s="15">
+        <f t="shared" si="125"/>
+        <v>-113.76164002779709</v>
+      </c>
+      <c r="R107" s="15">
+        <f t="shared" si="125"/>
+        <v>1.1810654242469063</v>
+      </c>
+      <c r="S107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.70391095549017768</v>
+      </c>
+      <c r="T107" s="15">
+        <f t="shared" si="125"/>
+        <v>0.60202656019177692</v>
+      </c>
+      <c r="U107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.20896054059656721</v>
+      </c>
+      <c r="V107" s="15">
+        <f t="shared" si="125"/>
+        <v>1.4891065011581777</v>
+      </c>
+      <c r="W107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.18849012102605311</v>
+      </c>
+      <c r="X107" s="15">
+        <f t="shared" si="125"/>
+        <v>7.4125548768849026E-2</v>
+      </c>
+      <c r="Y107" s="15">
+        <f t="shared" si="125"/>
+        <v>0.7098431209218381</v>
+      </c>
+      <c r="Z107" s="15">
+        <f t="shared" si="125"/>
+        <v>-2.9514452744397568E-2</v>
+      </c>
+      <c r="AA107" s="15">
+        <f t="shared" si="125"/>
+        <v>0.51717213971972398</v>
+      </c>
+      <c r="AB107" s="15">
+        <f t="shared" si="125"/>
+        <v>1.7311955442814604</v>
+      </c>
+      <c r="AC107" s="15">
+        <f t="shared" si="125"/>
+        <v>-0.2764120942910504</v>
+      </c>
+      <c r="AD107" s="63">
+        <v>6586000000</v>
+      </c>
+      <c r="AE107" s="63">
+        <v>8547000000</v>
+      </c>
+      <c r="AF107" s="63">
+        <v>10951000000</v>
+      </c>
+      <c r="AG107" s="63">
+        <v>13796000000</v>
+      </c>
+      <c r="AH107" s="63">
+        <v>14728000000</v>
       </c>
       <c r="AI107" s="28" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="AJ107" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AK107" s="30">
         <f>(SUM(AD5:AH5)/5)</f>
-        <v>0.15450133244214367</v>
+        <v>0.15471991194542833</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="1">
+        <v>13726416</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2731798</v>
+      </c>
+      <c r="D108" s="1">
+        <v>-56909034</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-151347150</v>
+      </c>
+      <c r="F108" s="1">
+        <v>-71751638</v>
+      </c>
+      <c r="G108" s="1">
+        <v>53445689</v>
+      </c>
+      <c r="H108" s="1">
+        <v>-583300299</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-192610485</v>
+      </c>
+      <c r="J108" s="1">
+        <v>437128602</v>
+      </c>
+      <c r="K108" s="1">
+        <v>176157246</v>
+      </c>
+      <c r="L108" s="1">
+        <v>638348174</v>
+      </c>
+      <c r="M108" s="1">
+        <v>406768150</v>
+      </c>
+      <c r="N108" s="1">
+        <v>491916938</v>
+      </c>
+      <c r="O108" s="1">
+        <v>20990613</v>
+      </c>
+      <c r="P108" s="1">
+        <v>-7195000</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>811320000</v>
+      </c>
+      <c r="R108" s="1">
+        <v>1769542000</v>
+      </c>
+      <c r="S108" s="1">
+        <v>523942000</v>
+      </c>
+      <c r="T108" s="1">
+        <v>839369000</v>
+      </c>
+      <c r="U108" s="1">
+        <v>663974000</v>
+      </c>
+      <c r="V108" s="1">
+        <v>1652702000</v>
+      </c>
+      <c r="W108" s="1">
+        <v>1341184000</v>
+      </c>
+      <c r="X108" s="1">
+        <v>1440600000</v>
+      </c>
+      <c r="Y108" s="1">
+        <v>2463200000</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>2390500000</v>
+      </c>
+      <c r="AA108" s="1">
+        <v>3626800000</v>
+      </c>
+      <c r="AB108" s="1">
+        <v>9905500000</v>
+      </c>
+      <c r="AC108" s="1">
+        <v>7167500000</v>
+      </c>
       <c r="AD108" s="28"/>
       <c r="AE108" s="28"/>
       <c r="AF108" s="28"/>
       <c r="AG108" s="28"/>
-      <c r="AH108" s="64">
+      <c r="AH108" s="27">
         <f>AH106*(1+AK108)/(AK109-AK108)</f>
-        <v>181009969456.86047</v>
-      </c>
-      <c r="AI108" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ108" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK108" s="34">
+        <v>181927128129.33743</v>
+      </c>
+      <c r="AI108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ108" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK108" s="33">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="31">
-        <f t="shared" ref="AD109:AF109" si="125">AD108+AD107</f>
-        <v>8274888300.2790642</v>
-      </c>
-      <c r="AE109" s="31">
-        <f t="shared" si="125"/>
-        <v>9553369568.4820843</v>
-      </c>
-      <c r="AF109" s="31">
-        <f t="shared" si="125"/>
-        <v>11029377896.124792</v>
-      </c>
-      <c r="AG109" s="31">
-        <f>AG108+AG107</f>
-        <v>12733431477.084</v>
-      </c>
-      <c r="AH109" s="64">
+      <c r="AD109" s="27">
+        <f t="shared" ref="AD109:AG109" si="126">AD108+AD106</f>
+        <v>8391464773.4071131</v>
+      </c>
+      <c r="AE109" s="27">
+        <f t="shared" si="126"/>
+        <v>9689791464.2418251</v>
+      </c>
+      <c r="AF109" s="27">
+        <f t="shared" si="126"/>
+        <v>11188995146.358883</v>
+      </c>
+      <c r="AG109" s="27">
+        <f t="shared" si="126"/>
+        <v>12920155490.161354</v>
+      </c>
+      <c r="AH109" s="27">
         <f>AH108+AH106</f>
-        <v>195756969456.86047</v>
-      </c>
-      <c r="AI109" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ109" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK109" s="36">
+        <v>196846288939.25778</v>
+      </c>
+      <c r="AI109" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ109" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK109" s="35">
         <f>AK105</f>
-        <v>0.10850741699673326</v>
+        <v>0.1090564020737838</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="AD110" s="71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AE110" s="72"/>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE111" s="38">
+      <c r="AD111" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE111" s="37">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>148726356178.97803</v>
+        <v>149502746840.47876</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE112" s="38">
+      <c r="AD112" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE112" s="37">
         <f>AC41</f>
         <v>7376000000</v>
       </c>
     </row>
     <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE113" s="38">
+      <c r="AD113" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE113" s="37">
         <f>AK99</f>
         <v>3514200000</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE114" s="38">
+      <c r="AD114" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE114" s="37">
         <f>AE111+AE112-AE113</f>
-        <v>152588156178.97803</v>
+        <v>153364546840.47876</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE115" s="49">
+      <c r="AD115" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE115" s="48">
         <f>AC35*(1+(5*AI17))</f>
         <v>389882549.20781785</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE116" s="40">
+      <c r="AD116" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE116" s="39">
         <f>AE114/AE115</f>
-        <v>391.36954574913392</v>
+        <v>393.36089074028121</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE117" s="59" cm="1">
+      <c r="AD117" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE117" s="58" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>683.1</v>
+        <v>645.6</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE118" s="42">
+      <c r="AD118" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE118" s="41">
         <f>AE116/AE117-1</f>
-        <v>-0.42706844422612511</v>
+        <v>-0.39070493999336864</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD119" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE119" s="43" t="str">
+      <c r="AD119" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE119" s="42" t="str">
         <f>IF(AE116&gt;AE117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -13566,8 +13755,9 @@
     <hyperlink ref="AC75" r:id="rId57" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="AD1" r:id="rId58" display="https://finbox.com/ENXTAM:ASML/explorer/revenue_proj" xr:uid="{E3846DBC-89B9-5E45-B936-D668B6065684}"/>
     <hyperlink ref="A3" r:id="rId59" xr:uid="{CF4C75A9-BADF-2145-B981-31B69E6CC415}"/>
+    <hyperlink ref="AI107" r:id="rId60" xr:uid="{A226C403-6D66-F445-845F-7758BD692BB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId60"/>
+  <drawing r:id="rId61"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F0BE41-FD88-5342-9A50-3657E466A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFB8D5-05D6-AB4D-A70F-665509F75AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -571,18 +571,25 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -914,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1073,6 +1080,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2384,12 +2397,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2406,14 +2420,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2421,6 +2435,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2548,9 +2563,9 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>375.75</v>
-    <v>1.57</v>
-    <v>-6.3</v>
-    <v>-9.6640000000000007E-3</v>
+    <v>1.5690999999999999</v>
+    <v>1.1000000000000001</v>
+    <v>1.717E-3</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2558,24 +2573,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>650.6</v>
+    <v>642.70000000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45100.470243055555</v>
+    <v>45103.489131944443</v>
     <v>0</v>
-    <v>643.6</v>
-    <v>262805800000</v>
+    <v>635.79999999999995</v>
+    <v>258331000000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>650.6</v>
-    <v>40.519599999999997</v>
-    <v>651.9</v>
-    <v>645.6</v>
+    <v>641.6</v>
+    <v>39.829700000000003</v>
+    <v>640.79999999999995</v>
+    <v>641.9</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>117782</v>
-    <v>614800</v>
+    <v>86152</v>
+    <v>622580</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3143,10 +3158,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC122" sqref="AC122"/>
+      <selection pane="bottomRight" activeCell="AH96" sqref="AH96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4905,15 +4920,15 @@
       </c>
       <c r="AJ17" s="64">
         <f>AK101/AC4</f>
-        <v>12.412073639566627</v>
+        <v>12.200732995173189</v>
       </c>
       <c r="AK17" s="64">
         <f>AK101/AC26</f>
-        <v>40.706587568346215</v>
+        <v>40.013475627700934</v>
       </c>
       <c r="AL17" s="65">
         <f>AK101/AC108</f>
-        <v>36.666313219393096</v>
+        <v>36.041995116846877</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5215,15 +5230,15 @@
       </c>
       <c r="AJ20" s="64">
         <f>AK101/AD4</f>
-        <v>9.892189558474799</v>
+        <v>9.7237550344412238</v>
       </c>
       <c r="AK20" s="64">
         <f>AK101/AD29</f>
-        <v>35.490317353139773</v>
+        <v>34.886022957461172</v>
       </c>
       <c r="AL20" s="65">
         <f>AK101/AD106</f>
-        <v>31.318227162538069</v>
+        <v>30.784971036124855</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5468,6 +5483,12 @@
         <f t="shared" si="54"/>
         <v>0.43555370331782084</v>
       </c>
+      <c r="AK22" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL22" s="45" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="23" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -5556,6 +5577,14 @@
       </c>
       <c r="AC23" s="10">
         <v>6500700000</v>
+      </c>
+      <c r="AK23" s="77">
+        <f>AC99*-1/AK101</f>
+        <v>9.9089927263859151E-3</v>
+      </c>
+      <c r="AL23" s="78">
+        <f>AC108/AK101</f>
+        <v>2.7745411894042914E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12125,7 +12154,7 @@
       </c>
       <c r="AK94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12221,7 +12250,7 @@
       </c>
       <c r="AK95" s="56" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.57</v>
+        <v>1.5690999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12412,7 +12441,7 @@
       </c>
       <c r="AK97" s="54">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.11065890000000002</v>
+        <v>0.11052575100000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12697,7 +12726,7 @@
       </c>
       <c r="AK100" s="52">
         <f>AK99/AK103</f>
-        <v>1.3195404025232803E-2</v>
+        <v>1.3420906703655443E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12793,7 +12822,7 @@
       </c>
       <c r="AK101" s="37" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>262805800000</v>
+        <v>258331000000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12889,7 +12918,7 @@
       </c>
       <c r="AK102" s="52">
         <f>AK101/AK103</f>
-        <v>0.98680459597476722</v>
+        <v>0.98657909329634452</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12985,7 +13014,7 @@
       </c>
       <c r="AK103" s="57">
         <f>AK99+AK101</f>
-        <v>266320000000</v>
+        <v>261845200000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13174,7 +13203,7 @@
       </c>
       <c r="AK105" s="24">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.1090564020737838</v>
+        <v>0.10889765418747831</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13554,7 +13583,7 @@
       <c r="AG108" s="28"/>
       <c r="AH108" s="27">
         <f>AH106*(1+AK108)/(AK109-AK108)</f>
-        <v>181927128129.33743</v>
+        <v>182271363583.02036</v>
       </c>
       <c r="AI108" s="31" t="s">
         <v>142</v>
@@ -13585,7 +13614,7 @@
       </c>
       <c r="AH109" s="27">
         <f>AH108+AH106</f>
-        <v>196846288939.25778</v>
+        <v>197190524392.9407</v>
       </c>
       <c r="AI109" s="31" t="s">
         <v>135</v>
@@ -13595,7 +13624,7 @@
       </c>
       <c r="AK109" s="35">
         <f>AK105</f>
-        <v>0.1090564020737838</v>
+        <v>0.10889765418747831</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13610,7 +13639,7 @@
       </c>
       <c r="AE111" s="37">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>149502746840.47876</v>
+        <v>149803802757.34164</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13637,7 +13666,7 @@
       </c>
       <c r="AE114" s="37">
         <f>AE111+AE112-AE113</f>
-        <v>153364546840.47876</v>
+        <v>153665602757.34164</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13655,7 +13684,7 @@
       </c>
       <c r="AE116" s="39">
         <f>AE114/AE115</f>
-        <v>393.36089074028121</v>
+        <v>394.13306153242002</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13664,7 +13693,7 @@
       </c>
       <c r="AE117" s="58" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>645.6</v>
+        <v>641.9</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13673,7 +13702,7 @@
       </c>
       <c r="AE118" s="41">
         <f>AE116/AE117-1</f>
-        <v>-0.39070493999336864</v>
+        <v>-0.38598993373980361</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFB8D5-05D6-AB4D-A70F-665509F75AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6082A-1664-F447-ADCC-276A15DD94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -752,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -801,19 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -852,46 +839,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -921,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -947,145 +894,120 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2423,7 +2345,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2563,9 +2485,9 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>375.75</v>
-    <v>1.5690999999999999</v>
-    <v>1.1000000000000001</v>
-    <v>1.717E-3</v>
+    <v>1.5650999999999999</v>
+    <v>-5.4</v>
+    <v>-8.0789999999999994E-3</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2573,24 +2495,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>642.70000000000005</v>
+    <v>666</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45103.489131944443</v>
+    <v>45107.666666666664</v>
     <v>0</v>
-    <v>635.79999999999995</v>
-    <v>258331000000</v>
+    <v>642.9</v>
+    <v>269457600000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>641.6</v>
-    <v>39.829700000000003</v>
-    <v>640.79999999999995</v>
-    <v>641.9</v>
+    <v>653</v>
+    <v>41.545200000000001</v>
+    <v>668.4</v>
+    <v>663</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>86152</v>
-    <v>622580</v>
+    <v>1112112</v>
+    <v>577990</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3158,10 +3080,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH96" sqref="AH96"/>
+      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3394,33 +3316,33 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23">
         <v>214</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="23">
         <v>212</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="23">
         <v>292</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="23">
         <v>338</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="23">
         <v>344</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="23">
         <v>395</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="23">
         <v>505</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="23">
         <v>561</v>
       </c>
       <c r="AD3" s="1"/>
@@ -3532,13 +3454,13 @@
       <c r="AH4" s="22">
         <v>43191000000</v>
       </c>
-      <c r="AI4" s="43" t="s">
+      <c r="AI4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="AJ4" s="43" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="28" t="s">
         <v>108</v>
       </c>
       <c r="AL4" s="18" t="s">
@@ -3678,15 +3600,15 @@
         <f t="shared" si="9"/>
         <v>7.7377834318641092E-2</v>
       </c>
-      <c r="AI5" s="44">
+      <c r="AI5" s="29">
         <f>(AC5+AB5+AA5)/3</f>
         <v>0.21723267494156651</v>
       </c>
-      <c r="AJ5" s="44">
+      <c r="AJ5" s="29">
         <f>(AC21+AB21+AA21)/3</f>
         <v>0.32336582629238492</v>
       </c>
-      <c r="AK5" s="44">
+      <c r="AK5" s="29">
         <f>(AC30+AB30+AA30)/3</f>
         <v>0.32286462810370614</v>
       </c>
@@ -3872,13 +3794,13 @@
       <c r="AC7" s="10">
         <v>10700100000</v>
       </c>
-      <c r="AI7" s="43" t="s">
+      <c r="AI7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AJ7" s="43" t="s">
+      <c r="AJ7" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="AK7" s="43" t="s">
+      <c r="AK7" s="28" t="s">
         <v>112</v>
       </c>
       <c r="AL7" s="18" t="s">
@@ -3973,15 +3895,15 @@
       <c r="AC8" s="2">
         <v>0.50539999999999996</v>
       </c>
-      <c r="AI8" s="44">
+      <c r="AI8" s="29">
         <f>AC8</f>
         <v>0.50539999999999996</v>
       </c>
-      <c r="AJ8" s="44">
+      <c r="AJ8" s="29">
         <f>AC22</f>
         <v>0.33040000000000003</v>
       </c>
-      <c r="AK8" s="44">
+      <c r="AK8" s="29">
         <f>AC31</f>
         <v>0.2591</v>
       </c>
@@ -4195,7 +4117,7 @@
         <f t="shared" ref="AC10" si="22">AC9/AC4</f>
         <v>0.15365978066819688</v>
       </c>
-      <c r="AI10" s="43" t="s">
+      <c r="AI10" s="28" t="s">
         <v>95</v>
       </c>
       <c r="AJ10" s="18" t="s">
@@ -4296,15 +4218,15 @@
       <c r="AC11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI11" s="44">
+      <c r="AI11" s="29">
         <f>(AC10+AB10+AA10)/3</f>
         <v>0.14931870488429119</v>
       </c>
-      <c r="AJ11" s="44">
+      <c r="AJ11" s="29">
         <f>(AC14+AB14+AA14)/3</f>
         <v>4.0880988625067081E-2</v>
       </c>
-      <c r="AK11" s="44">
+      <c r="AK11" s="29">
         <f>(AC81+AB81+AA81)/3</f>
         <v>4.4744916917326275E-3</v>
       </c>
@@ -4490,13 +4412,13 @@
       <c r="AC13" s="1">
         <v>945900000</v>
       </c>
-      <c r="AI13" s="43" t="s">
+      <c r="AI13" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="AJ13" s="43" t="s">
+      <c r="AJ13" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="AK13" s="43" t="s">
+      <c r="AK13" s="28" t="s">
         <v>116</v>
       </c>
       <c r="AL13" s="18" t="s">
@@ -4619,7 +4541,7 @@
         <f t="shared" ref="AC14" si="35">AC13/AC4</f>
         <v>4.4673977726770384E-2</v>
       </c>
-      <c r="AI14" s="44">
+      <c r="AI14" s="29">
         <f>AC29/AC73</f>
         <v>0.62266763517501245</v>
       </c>
@@ -4627,7 +4549,7 @@
         <f>AC29/AC55</f>
         <v>0.15113332084494938</v>
       </c>
-      <c r="AK14" s="44">
+      <c r="AK14" s="29">
         <f>(AC29-AC99)/AC74</f>
         <v>0.2216504501327809</v>
       </c>
@@ -4813,7 +4735,7 @@
       <c r="AC16" s="1">
         <v>4199400000</v>
       </c>
-      <c r="AI16" s="43" t="s">
+      <c r="AI16" s="28" t="s">
         <v>138</v>
       </c>
       <c r="AJ16" s="18" t="s">
@@ -4822,7 +4744,7 @@
       <c r="AK16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="AL16" s="45" t="s">
+      <c r="AL16" s="30" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4918,17 +4840,17 @@
         <f>(SUM(Y36:AC36)/5)</f>
         <v>-9.9987576959951977E-3</v>
       </c>
-      <c r="AJ17" s="64">
+      <c r="AJ17" s="38">
         <f>AK101/AC4</f>
-        <v>12.200732995173189</v>
-      </c>
-      <c r="AK17" s="64">
+        <v>12.72623197030236</v>
+      </c>
+      <c r="AK17" s="38">
         <f>AK101/AC26</f>
-        <v>40.013475627700934</v>
-      </c>
-      <c r="AL17" s="65">
+        <v>41.736899986059697</v>
+      </c>
+      <c r="AL17" s="39">
         <f>AK101/AC108</f>
-        <v>36.041995116846877</v>
+        <v>37.594363446110918</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5108,7 +5030,7 @@
       <c r="AC19" s="1">
         <v>583600000</v>
       </c>
-      <c r="AI19" s="46" t="s">
+      <c r="AI19" s="31" t="s">
         <v>157</v>
       </c>
       <c r="AJ19" s="18" t="s">
@@ -5117,7 +5039,7 @@
       <c r="AK19" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="AL19" s="45" t="s">
+      <c r="AL19" s="30" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5209,36 +5131,36 @@
       <c r="AC20" s="10">
         <v>6995100000</v>
       </c>
-      <c r="AD20" s="59">
+      <c r="AD20" s="33">
         <v>9265000000</v>
       </c>
-      <c r="AE20" s="59">
+      <c r="AE20" s="33">
         <v>11305000000</v>
       </c>
-      <c r="AF20" s="59">
+      <c r="AF20" s="33">
         <v>14025000000</v>
       </c>
-      <c r="AG20" s="59">
+      <c r="AG20" s="33">
         <v>15858000000</v>
       </c>
-      <c r="AH20" s="59">
+      <c r="AH20" s="33">
         <v>18812000000</v>
       </c>
-      <c r="AI20" s="47">
+      <c r="AI20" s="32">
         <f>AC41-AC57-AC62</f>
         <v>3861800000</v>
       </c>
-      <c r="AJ20" s="64">
+      <c r="AJ20" s="38">
         <f>AK101/AD4</f>
-        <v>9.7237550344412238</v>
-      </c>
-      <c r="AK20" s="64">
+        <v>10.142567847329394</v>
+      </c>
+      <c r="AK20" s="38">
         <f>AK101/AD29</f>
-        <v>34.886022957461172</v>
-      </c>
-      <c r="AL20" s="65">
+        <v>36.388602295746118</v>
+      </c>
+      <c r="AL20" s="39">
         <f>AK101/AD106</f>
-        <v>30.784971036124855</v>
+        <v>32.110913562304631</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5463,30 +5385,30 @@
       <c r="AC22" s="2">
         <v>0.33040000000000003</v>
       </c>
-      <c r="AD22" s="60">
+      <c r="AD22" s="34">
         <f>AD20/AD4</f>
         <v>0.34874091918545563</v>
       </c>
-      <c r="AE22" s="60">
+      <c r="AE22" s="34">
         <f t="shared" ref="AE22:AH22" si="54">AE20/AE4</f>
         <v>0.37991060926840742</v>
       </c>
-      <c r="AF22" s="60">
+      <c r="AF22" s="34">
         <f t="shared" si="54"/>
         <v>0.40423692174664938</v>
       </c>
-      <c r="AG22" s="60">
+      <c r="AG22" s="34">
         <f t="shared" si="54"/>
         <v>0.39556985706802367</v>
       </c>
-      <c r="AH22" s="60">
+      <c r="AH22" s="34">
         <f t="shared" si="54"/>
         <v>0.43555370331782084</v>
       </c>
-      <c r="AK22" s="46" t="s">
+      <c r="AK22" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="AL22" s="45" t="s">
+      <c r="AL22" s="30" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5578,13 +5500,13 @@
       <c r="AC23" s="10">
         <v>6500700000</v>
       </c>
-      <c r="AK23" s="77">
+      <c r="AK23" s="41">
         <f>AC99*-1/AK101</f>
-        <v>9.9089927263859151E-3</v>
-      </c>
-      <c r="AL23" s="78">
+        <v>9.4998248332947375E-3</v>
+      </c>
+      <c r="AL23" s="42">
         <f>AC108/AK101</f>
-        <v>2.7745411894042914E-2</v>
+        <v>2.6599732202765854E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,19 +6042,19 @@
       <c r="AC29" s="11">
         <v>5486200000</v>
       </c>
-      <c r="AD29" s="61">
+      <c r="AD29" s="35">
         <v>7405000000</v>
       </c>
-      <c r="AE29" s="61">
+      <c r="AE29" s="35">
         <v>8861000000</v>
       </c>
-      <c r="AF29" s="61">
+      <c r="AF29" s="35">
         <v>11223000000</v>
       </c>
-      <c r="AG29" s="61">
+      <c r="AG29" s="35">
         <v>12889000000</v>
       </c>
-      <c r="AH29" s="61">
+      <c r="AH29" s="35">
         <v>15237000000</v>
       </c>
     </row>
@@ -6358,23 +6280,23 @@
       <c r="AC31" s="2">
         <v>0.2591</v>
       </c>
-      <c r="AD31" s="60">
+      <c r="AD31" s="34">
         <f>AD29/AD4</f>
         <v>0.27872925057402043</v>
       </c>
-      <c r="AE31" s="60">
+      <c r="AE31" s="34">
         <f t="shared" ref="AE31:AH31" si="73">AE29/AE4</f>
         <v>0.29777867392546292</v>
       </c>
-      <c r="AF31" s="60">
+      <c r="AF31" s="34">
         <f t="shared" si="73"/>
         <v>0.32347600518806746</v>
       </c>
-      <c r="AG31" s="60">
+      <c r="AG31" s="34">
         <f t="shared" si="73"/>
         <v>0.32150964104866669</v>
       </c>
-      <c r="AH31" s="60">
+      <c r="AH31" s="34">
         <f t="shared" si="73"/>
         <v>0.35278182954782245</v>
       </c>
@@ -6467,19 +6389,19 @@
       <c r="AC32" s="12">
         <v>13.39</v>
       </c>
-      <c r="AD32" s="62">
+      <c r="AD32" s="36">
         <v>18.77</v>
       </c>
-      <c r="AE32" s="62">
+      <c r="AE32" s="36">
         <v>22.46</v>
       </c>
-      <c r="AF32" s="62">
+      <c r="AF32" s="36">
         <v>28.44</v>
       </c>
-      <c r="AG32" s="62">
+      <c r="AG32" s="36">
         <v>32.659999999999997</v>
       </c>
-      <c r="AH32" s="62">
+      <c r="AH32" s="36">
         <v>38.61</v>
       </c>
     </row>
@@ -6755,111 +6677,111 @@
         <v>137</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="26">
+      <c r="C36" s="24">
         <f>(C35-B35)/B35</f>
         <v>4.1735427891645867E-2</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <f t="shared" ref="D36:G36" si="74">(D35-C35)/C35</f>
         <v>2.3061923137880198E-2</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="24">
         <f t="shared" si="74"/>
         <v>2.1963683622972824E-2</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="24">
         <f t="shared" si="74"/>
         <v>-0.12146748094155442</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="24">
         <f t="shared" si="74"/>
         <v>3.9632295351572443E-2</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="24">
         <f t="shared" ref="H36" si="75">(H35-G35)/G35</f>
         <v>6.6059800089528317E-2</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <f t="shared" ref="I36" si="76">(I35-H35)/H35</f>
         <v>2.3611940477784515E-2</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="24">
         <f t="shared" ref="J36" si="77">(J35-I35)/I35</f>
         <v>1.1269413512263345E-2</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="24">
         <f t="shared" ref="K36" si="78">(K35-J35)/J35</f>
         <v>5.0203212061519838E-3</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="24">
         <f t="shared" ref="L36" si="79">(L35-K35)/K35</f>
         <v>0.12032740392851796</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="24">
         <f t="shared" ref="M36" si="80">(M35-L35)/L35</f>
         <v>-7.1818615831729993E-2</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="24">
         <f t="shared" ref="N36" si="81">(N35-M35)/M35</f>
         <v>8.4060985386721909E-2</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="24">
         <f t="shared" ref="O36" si="82">(O35-N35)/N35</f>
         <v>-0.10591730962867786</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="24">
         <f t="shared" ref="P36" si="83">(P35-O35)/O35</f>
         <v>-3.6618647873700211E-3</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="24">
         <f t="shared" ref="Q36" si="84">(Q35-P35)/P35</f>
         <v>1.4759081400321302E-2</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="24">
         <f t="shared" ref="R36" si="85">(R35-Q35)/Q35</f>
         <v>-2.2658314350797265E-2</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="24">
         <f t="shared" ref="S36" si="86">(S35-R35)/R35</f>
         <v>0.292487069302521</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="24">
         <f t="shared" ref="T36" si="87">(T35-S35)/S35</f>
         <v>1.5096018735362997E-2</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="24">
         <f t="shared" ref="U36" si="88">(U35-T35)/T35</f>
         <v>1.4412406620432534E-2</v>
       </c>
-      <c r="V36" s="26">
+      <c r="V36" s="24">
         <f t="shared" ref="V36" si="89">(V35-U35)/U35</f>
         <v>-1.6131710079532766E-2</v>
       </c>
-      <c r="W36" s="26">
+      <c r="W36" s="24">
         <f t="shared" ref="W36" si="90">(W35-V35)/V35</f>
         <v>-1.1326860841423949E-2</v>
       </c>
-      <c r="X36" s="26">
+      <c r="X36" s="24">
         <f t="shared" ref="X36" si="91">(X35-W35)/W35</f>
         <v>9.11854103343465E-3</v>
       </c>
-      <c r="Y36" s="26">
+      <c r="Y36" s="24">
         <f t="shared" ref="Y36" si="92">(Y35-X35)/X35</f>
         <v>-1.2048192771084338E-2</v>
       </c>
-      <c r="Z36" s="26">
+      <c r="Z36" s="24">
         <f t="shared" ref="Z36" si="93">(Z35-Y35)/Y35</f>
         <v>-1.125703564727955E-2</v>
       </c>
-      <c r="AA36" s="26">
+      <c r="AA36" s="24">
         <f t="shared" ref="AA36" si="94">(AA35-Z35)/Z35</f>
         <v>-5.9297912713472487E-3</v>
       </c>
-      <c r="AB36" s="26">
+      <c r="AB36" s="24">
         <f t="shared" ref="AB36" si="95">(AB35-AA35)/AA35</f>
         <v>-2.0758768790264854E-2</v>
       </c>
-      <c r="AC36" s="26">
+      <c r="AC36" s="24">
         <f t="shared" ref="AC36" si="96">(AC35-AB35)/AB35</f>
         <v>0</v>
       </c>
@@ -8729,7 +8651,7 @@
       <c r="AB57" s="1">
         <v>509100000</v>
       </c>
-      <c r="AC57" s="25">
+      <c r="AC57" s="23">
         <v>0</v>
       </c>
     </row>
@@ -11074,10 +10996,10 @@
       <c r="AC83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ83" s="73" t="s">
+      <c r="AJ83" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="AK83" s="74"/>
+      <c r="AK83" s="68"/>
     </row>
     <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11167,10 +11089,10 @@
       <c r="AC84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ84" s="67" t="s">
+      <c r="AJ84" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="AK84" s="68"/>
+      <c r="AK84" s="64"/>
     </row>
     <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11260,10 +11182,10 @@
       <c r="AC85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ85" s="49" t="s">
+      <c r="AJ85" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="AK85" s="50">
+      <c r="AK85" s="51">
         <f>AC18</f>
         <v>-44600000</v>
       </c>
@@ -11356,10 +11278,10 @@
       <c r="AC86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ86" s="49" t="s">
+      <c r="AJ86" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="AK86" s="50">
+      <c r="AK86" s="51">
         <f>AC57</f>
         <v>0</v>
       </c>
@@ -11452,10 +11374,10 @@
       <c r="AC87" s="1">
         <v>333100000</v>
       </c>
-      <c r="AJ87" s="49" t="s">
+      <c r="AJ87" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="AK87" s="50">
+      <c r="AK87" s="51">
         <f>AC62</f>
         <v>3514200000</v>
       </c>
@@ -11548,10 +11470,10 @@
       <c r="AC88" s="10">
         <v>8486800000</v>
       </c>
-      <c r="AJ88" s="51" t="s">
+      <c r="AJ88" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="AK88" s="52">
+      <c r="AK88" s="53">
         <f>AK85/(AK86+AK87)</f>
         <v>-1.2691366456092425E-2</v>
       </c>
@@ -11644,10 +11566,10 @@
       <c r="AC89" s="1">
         <v>-1281800000</v>
       </c>
-      <c r="AJ89" s="49" t="s">
+      <c r="AJ89" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="AK89" s="50">
+      <c r="AK89" s="51">
         <f>AC28</f>
         <v>969900000</v>
       </c>
@@ -11768,10 +11690,10 @@
         <f t="shared" ref="AC90" si="122">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
-      <c r="AJ90" s="49" t="s">
+      <c r="AJ90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AK90" s="50">
+      <c r="AK90" s="51">
         <f>AC26</f>
         <v>6456100000</v>
       </c>
@@ -11864,10 +11786,10 @@
       <c r="AC91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ91" s="51" t="s">
+      <c r="AJ91" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="AK91" s="52">
+      <c r="AK91" s="53">
         <f>AK89/AK90</f>
         <v>0.15023001502455041</v>
       </c>
@@ -11960,10 +11882,10 @@
       <c r="AC92" s="1">
         <v>-334300000</v>
       </c>
-      <c r="AJ92" s="53" t="s">
+      <c r="AJ92" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="AK92" s="54">
+      <c r="AK92" s="53">
         <f>AK88*(1-AK91)</f>
         <v>-1.0784742282711585E-2</v>
       </c>
@@ -12056,10 +11978,10 @@
       <c r="AC93" s="1">
         <v>864700000</v>
       </c>
-      <c r="AJ93" s="75" t="s">
+      <c r="AJ93" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="AK93" s="76"/>
+      <c r="AK93" s="69"/>
     </row>
     <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
@@ -12149,12 +12071,12 @@
       <c r="AC94" s="1">
         <v>-277500000</v>
       </c>
-      <c r="AJ94" s="49" t="s">
+      <c r="AJ94" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="AK94" s="55">
+      <c r="AK94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12245,12 +12167,12 @@
       <c r="AC95" s="10">
         <v>-1028900000</v>
       </c>
-      <c r="AJ95" s="49" t="s">
+      <c r="AJ95" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="AK95" s="56" cm="1">
+      <c r="AK95" s="55" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5690999999999999</v>
+        <v>1.5650999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12341,10 +12263,10 @@
       <c r="AC96" s="1">
         <v>-516200000</v>
       </c>
-      <c r="AJ96" s="49" t="s">
+      <c r="AJ96" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="AK96" s="55">
+      <c r="AK96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12436,12 +12358,12 @@
       <c r="AC97" s="1">
         <v>81800000</v>
       </c>
-      <c r="AJ97" s="53" t="s">
+      <c r="AJ97" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="AK97" s="54">
+      <c r="AK97" s="53">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.11052575100000001</v>
+        <v>0.109689446</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12532,10 +12454,10 @@
       <c r="AC98" s="1">
         <v>-4639700000</v>
       </c>
-      <c r="AJ98" s="75" t="s">
+      <c r="AJ98" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="AK98" s="76"/>
+      <c r="AK98" s="69"/>
     </row>
     <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12625,10 +12547,10 @@
       <c r="AC99" s="1">
         <v>-2559800000</v>
       </c>
-      <c r="AJ99" s="49" t="s">
+      <c r="AJ99" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AK99" s="50">
+      <c r="AK99" s="51">
         <f>AK86+AK87</f>
         <v>3514200000</v>
       </c>
@@ -12721,12 +12643,12 @@
       <c r="AC100" s="1">
         <v>495600000</v>
       </c>
-      <c r="AJ100" s="51" t="s">
+      <c r="AJ100" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="AK100" s="52">
+      <c r="AK100" s="53">
         <f>AK99/AK103</f>
-        <v>1.3420906703655443E-2</v>
+        <v>1.2873857299545228E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12817,12 +12739,12 @@
       <c r="AC101" s="10">
         <v>-7138300000</v>
       </c>
-      <c r="AJ101" s="49" t="s">
+      <c r="AJ101" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AK101" s="37" cm="1">
+      <c r="AK101" s="44" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>258331000000</v>
+        <v>269457600000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12913,12 +12835,12 @@
       <c r="AC102" s="1">
         <v>-3100000</v>
       </c>
-      <c r="AJ102" s="51" t="s">
+      <c r="AJ102" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="AK102" s="52">
+      <c r="AK102" s="53">
         <f>AK101/AK103</f>
-        <v>0.98657909329634452</v>
+        <v>0.98712614270045473</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13009,12 +12931,12 @@
       <c r="AC103" s="10">
         <v>316500000</v>
       </c>
-      <c r="AJ103" s="53" t="s">
+      <c r="AJ103" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="AK103" s="57">
+      <c r="AK103" s="56">
         <f>AK99+AK101</f>
-        <v>261845200000</v>
+        <v>272971800000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13105,10 +13027,10 @@
       <c r="AC104" s="1">
         <v>6951800000</v>
       </c>
-      <c r="AJ104" s="67" t="s">
+      <c r="AJ104" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="AK104" s="68"/>
+      <c r="AK104" s="64"/>
     </row>
     <row r="105" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
@@ -13198,12 +13120,12 @@
       <c r="AC105" s="11">
         <v>7268300000</v>
       </c>
-      <c r="AJ105" s="23" t="s">
+      <c r="AJ105" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="AK105" s="24">
+      <c r="AK105" s="58">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10889765418747831</v>
+        <v>0.10813847849176982</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13322,33 +13244,33 @@
         <f>(AC23*(1-$AK$91))+AC78+AC89+AC82</f>
         <v>7267099741.3299055</v>
       </c>
-      <c r="AD106" s="27">
+      <c r="AD106" s="25">
         <f>AC106*(1+$AK$107)</f>
         <v>8391464773.4071131</v>
       </c>
-      <c r="AE106" s="27">
+      <c r="AE106" s="25">
         <f t="shared" ref="AE106:AH106" si="124">AD106*(1+$AK$107)</f>
         <v>9689791464.2418251</v>
       </c>
-      <c r="AF106" s="27">
+      <c r="AF106" s="25">
         <f t="shared" si="124"/>
         <v>11188995146.358883</v>
       </c>
-      <c r="AG106" s="27">
+      <c r="AG106" s="25">
         <f t="shared" si="124"/>
         <v>12920155490.161354</v>
       </c>
-      <c r="AH106" s="27">
+      <c r="AH106" s="25">
         <f t="shared" si="124"/>
         <v>14919160809.920361</v>
       </c>
-      <c r="AI106" s="28" t="s">
+      <c r="AI106" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="AJ106" s="69" t="s">
+      <c r="AJ106" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="AK106" s="70"/>
+      <c r="AK106" s="65"/>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
@@ -13463,34 +13385,34 @@
         <f t="shared" si="125"/>
         <v>-0.2764120942910504</v>
       </c>
-      <c r="AD107" s="63">
+      <c r="AD107" s="37">
         <v>6586000000</v>
       </c>
-      <c r="AE107" s="63">
+      <c r="AE107" s="37">
         <v>8547000000</v>
       </c>
-      <c r="AF107" s="63">
+      <c r="AF107" s="37">
         <v>10951000000</v>
       </c>
-      <c r="AG107" s="63">
+      <c r="AG107" s="37">
         <v>13796000000</v>
       </c>
-      <c r="AH107" s="63">
+      <c r="AH107" s="37">
         <v>14728000000</v>
       </c>
-      <c r="AI107" s="28" t="s">
+      <c r="AI107" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="AJ107" s="29" t="s">
+      <c r="AJ107" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="AK107" s="30">
+      <c r="AK107" s="60">
         <f>(SUM(AD5:AH5)/5)</f>
         <v>0.15471991194542833</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="66" t="s">
+      <c r="A108" s="40" t="s">
         <v>163</v>
       </c>
       <c r="B108" s="1">
@@ -13577,139 +13499,139 @@
       <c r="AC108" s="1">
         <v>7167500000</v>
       </c>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="28"/>
-      <c r="AG108" s="28"/>
-      <c r="AH108" s="27">
+      <c r="AD108" s="26"/>
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="26"/>
+      <c r="AH108" s="25">
         <f>AH106*(1+AK108)/(AK109-AK108)</f>
-        <v>182271363583.02036</v>
-      </c>
-      <c r="AI108" s="31" t="s">
+        <v>183935767259.46692</v>
+      </c>
+      <c r="AI108" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="AJ108" s="32" t="s">
+      <c r="AJ108" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="AK108" s="33">
+      <c r="AK108" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="27">
+      <c r="AD109" s="25">
         <f t="shared" ref="AD109:AG109" si="126">AD108+AD106</f>
         <v>8391464773.4071131</v>
       </c>
-      <c r="AE109" s="27">
+      <c r="AE109" s="25">
         <f t="shared" si="126"/>
         <v>9689791464.2418251</v>
       </c>
-      <c r="AF109" s="27">
+      <c r="AF109" s="25">
         <f t="shared" si="126"/>
         <v>11188995146.358883</v>
       </c>
-      <c r="AG109" s="27">
+      <c r="AG109" s="25">
         <f t="shared" si="126"/>
         <v>12920155490.161354</v>
       </c>
-      <c r="AH109" s="27">
+      <c r="AH109" s="25">
         <f>AH108+AH106</f>
-        <v>197190524392.9407</v>
-      </c>
-      <c r="AI109" s="31" t="s">
+        <v>198854928069.38727</v>
+      </c>
+      <c r="AI109" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AJ109" s="34" t="s">
+      <c r="AJ109" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="AK109" s="35">
+      <c r="AK109" s="60">
         <f>AK105</f>
-        <v>0.10889765418747831</v>
+        <v>0.10813847849176982</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD110" s="71" t="s">
+      <c r="AD110" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AE110" s="72"/>
+      <c r="AE110" s="66"/>
     </row>
     <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="36" t="s">
+      <c r="AD111" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AE111" s="37">
+      <c r="AE111" s="44">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>149803802757.34164</v>
+        <v>151259577031.67505</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="36" t="s">
+      <c r="AD112" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AE112" s="37">
+      <c r="AE112" s="44">
         <f>AC41</f>
         <v>7376000000</v>
       </c>
     </row>
     <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="36" t="s">
+      <c r="AD113" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AE113" s="37">
+      <c r="AE113" s="44">
         <f>AK99</f>
         <v>3514200000</v>
       </c>
     </row>
     <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="36" t="s">
+      <c r="AD114" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AE114" s="37">
+      <c r="AE114" s="44">
         <f>AE111+AE112-AE113</f>
-        <v>153665602757.34164</v>
+        <v>155121377031.67505</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="36" t="s">
+      <c r="AD115" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="AE115" s="48">
+      <c r="AE115" s="43">
         <f>AC35*(1+(5*AI17))</f>
         <v>389882549.20781785</v>
       </c>
     </row>
     <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="38" t="s">
+      <c r="AD116" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AE116" s="39">
+      <c r="AE116" s="46">
         <f>AE114/AE115</f>
-        <v>394.13306153242002</v>
+        <v>397.86694056160792</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="36" t="s">
+      <c r="AD117" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="AE117" s="58" cm="1">
+      <c r="AE117" s="47" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>641.9</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="40" t="s">
+      <c r="AD118" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AE118" s="41">
+      <c r="AE118" s="48">
         <f>AE116/AE117-1</f>
-        <v>-0.38598993373980361</v>
+        <v>-0.3998990338437286</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD119" s="40" t="s">
+      <c r="AD119" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="AE119" s="42" t="str">
+      <c r="AE119" s="49" t="str">
         <f>IF(AE116&gt;AE117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6082A-1664-F447-ADCC-276A15DD94FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDE705-5ACA-7F45-B162-6932E3684801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2310,7 +2310,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2324,10 +2323,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2341,14 +2342,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2358,6 +2359,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2485,9 +2487,9 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>375.75</v>
-    <v>1.5650999999999999</v>
-    <v>-5.4</v>
-    <v>-8.0789999999999994E-3</v>
+    <v>1.5590999999999999</v>
+    <v>0.6</v>
+    <v>9.3780000000000003E-4</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2495,24 +2497,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>666</v>
+    <v>644.5</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45107.666666666664</v>
+    <v>45114.666666666664</v>
     <v>0</v>
-    <v>642.9</v>
-    <v>269457600000</v>
+    <v>628.4</v>
+    <v>258169700000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>653</v>
-    <v>41.545200000000001</v>
-    <v>668.4</v>
-    <v>663</v>
+    <v>636.5</v>
+    <v>39.767499999999998</v>
+    <v>639.79999999999995</v>
+    <v>640.4</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>1112112</v>
-    <v>577990</v>
+    <v>558228</v>
+    <v>534010</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3080,10 +3082,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="AE101" sqref="AE101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4842,15 +4844,15 @@
       </c>
       <c r="AJ17" s="38">
         <f>AK101/AC4</f>
-        <v>12.72623197030236</v>
+        <v>12.193114946111631</v>
       </c>
       <c r="AK17" s="38">
         <f>AK101/AC26</f>
-        <v>41.736899986059697</v>
+        <v>39.988491504158858</v>
       </c>
       <c r="AL17" s="39">
         <f>AK101/AC108</f>
-        <v>37.594363446110918</v>
+        <v>36.019490756888736</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5152,15 +5154,15 @@
       </c>
       <c r="AJ20" s="38">
         <f>AK101/AD4</f>
-        <v>10.142567847329394</v>
+        <v>9.7176835924266953</v>
       </c>
       <c r="AK20" s="38">
         <f>AK101/AD29</f>
-        <v>36.388602295746118</v>
+        <v>34.864240378122886</v>
       </c>
       <c r="AL20" s="39">
         <f>AK101/AD106</f>
-        <v>32.110913562304631</v>
+        <v>30.765749123818061</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,11 +5504,11 @@
       </c>
       <c r="AK23" s="41">
         <f>AC99*-1/AK101</f>
-        <v>9.4998248332947375E-3</v>
+        <v>9.9151836950656866E-3</v>
       </c>
       <c r="AL23" s="42">
         <f>AC108/AK101</f>
-        <v>2.6599732202765854E-2</v>
+        <v>2.7762746751458438E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12076,7 +12078,7 @@
       </c>
       <c r="AK94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12172,7 +12174,7 @@
       </c>
       <c r="AK95" s="55" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5650999999999999</v>
+        <v>1.5590999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12363,7 +12365,7 @@
       </c>
       <c r="AK97" s="53">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.109689446</v>
+        <v>0.108371169</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12648,7 +12650,7 @@
       </c>
       <c r="AK100" s="53">
         <f>AK99/AK103</f>
-        <v>1.2873857299545228E-2</v>
+        <v>1.3429179250232818E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12744,7 +12746,7 @@
       </c>
       <c r="AK101" s="44" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>269457600000</v>
+        <v>258169700000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12840,7 +12842,7 @@
       </c>
       <c r="AK102" s="53">
         <f>AK101/AK103</f>
-        <v>0.98712614270045473</v>
+        <v>0.98657082074976721</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12936,7 +12938,7 @@
       </c>
       <c r="AK103" s="56">
         <f>AK99+AK101</f>
-        <v>272971800000</v>
+        <v>261683900000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13125,7 +13127,7 @@
       </c>
       <c r="AK105" s="58">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10813847849176982</v>
+        <v>0.10677100290865964</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13505,7 +13507,7 @@
       <c r="AG108" s="26"/>
       <c r="AH108" s="25">
         <f>AH106*(1+AK108)/(AK109-AK108)</f>
-        <v>183935767259.46692</v>
+        <v>187011768062.20773</v>
       </c>
       <c r="AI108" s="27" t="s">
         <v>142</v>
@@ -13536,7 +13538,7 @@
       </c>
       <c r="AH109" s="25">
         <f>AH108+AH106</f>
-        <v>198854928069.38727</v>
+        <v>201930928872.12808</v>
       </c>
       <c r="AI109" s="27" t="s">
         <v>135</v>
@@ -13546,7 +13548,7 @@
       </c>
       <c r="AK109" s="60">
         <f>AK105</f>
-        <v>0.10813847849176982</v>
+        <v>0.10677100290865964</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13561,7 +13563,7 @@
       </c>
       <c r="AE111" s="44">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>151259577031.67505</v>
+        <v>153950633032.62112</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13588,7 +13590,7 @@
       </c>
       <c r="AE114" s="44">
         <f>AE111+AE112-AE113</f>
-        <v>155121377031.67505</v>
+        <v>157812433032.62112</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13606,7 +13608,7 @@
       </c>
       <c r="AE116" s="46">
         <f>AE114/AE115</f>
-        <v>397.86694056160792</v>
+        <v>404.76916279857107</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13615,7 +13617,7 @@
       </c>
       <c r="AE117" s="47" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>663</v>
+        <v>640.4</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13624,7 +13626,7 @@
       </c>
       <c r="AE118" s="48">
         <f>AE116/AE117-1</f>
-        <v>-0.3998990338437286</v>
+        <v>-0.36794321861559798</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDE705-5ACA-7F45-B162-6932E3684801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB78FF8-09A2-DB4E-8484-F194FB5E570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,9 +1058,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2800"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>ASML</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1068,8 +1069,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.46612448318542121"/>
-          <c:y val="2.5462962962962962E-2"/>
+          <c:x val="0.45532325459317585"/>
+          <c:y val="3.0566165464696517E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1105,10 +1106,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11949174413398995"/>
-          <c:y val="0.13130212890055409"/>
-          <c:w val="0.8169631053643378"/>
-          <c:h val="0.69726213910761159"/>
+          <c:x val="9.7053333333333339E-2"/>
+          <c:y val="0.14767594009589469"/>
+          <c:w val="0.82561333333333331"/>
+          <c:h val="0.63295942839301389"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1162,6 +1163,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$4:$AC$4</c:f>
@@ -1257,7 +1351,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B594-8C42-A428-FC36B4B4D855}"/>
+              <c16:uniqueId val="{00000000-4D60-DB41-B816-57ED0ECE5ED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1266,11 +1360,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$20</c:f>
+              <c:f>'Sheet 1'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1308,107 +1402,200 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$20:$AC$20</c:f>
+              <c:f>'Sheet 1'!$B$29:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>107705571</c:v>
+                  <c:v>63952620</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165514820</c:v>
+                  <c:v>101317567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234636129</c:v>
+                  <c:v>147545307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123294636</c:v>
+                  <c:v>61647318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160894601</c:v>
+                  <c:v>80795127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>557790668</c:v>
+                  <c:v>345439987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-539359913</c:v>
+                  <c:v>-479826401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-84510333</c:v>
+                  <c:v>-207684564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-74959608</c:v>
+                  <c:v>-159936699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>452720117</c:v>
+                  <c:v>235285987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>525154910</c:v>
+                  <c:v>311227864</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>956889732</c:v>
+                  <c:v>624688886</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>986734420</c:v>
+                  <c:v>688926923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>429851064</c:v>
+                  <c:v>323134474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17954000</c:v>
+                  <c:v>-150925000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1417268000</c:v>
+                  <c:v>1021820000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1847557000</c:v>
+                  <c:v>1466960000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1359979000</c:v>
+                  <c:v>1146316000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1280262000</c:v>
+                  <c:v>1015490000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1540192000</c:v>
+                  <c:v>1196640000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1828989000</c:v>
+                  <c:v>1387174000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2081950000</c:v>
+                  <c:v>1471894000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2813100000</c:v>
+                  <c:v>2135200000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3401500000</c:v>
+                  <c:v>2585400000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3250900000</c:v>
+                  <c:v>2574100000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4639400000</c:v>
+                  <c:v>3553700000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7430200000</c:v>
+                  <c:v>5883200000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6995100000</c:v>
+                  <c:v>5486200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B594-8C42-A428-FC36B4B4D855}"/>
+              <c16:uniqueId val="{00000001-4D60-DB41-B816-57ED0ECE5ED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1425,21 +1612,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent3">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1454,6 +1641,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$108:$AC$108</c:f>
@@ -1549,7 +1829,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B594-8C42-A428-FC36B4B4D855}"/>
+              <c16:uniqueId val="{00000002-4D60-DB41-B816-57ED0ECE5ED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1563,11 +1843,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1991912255"/>
-        <c:axId val="1991913983"/>
+        <c:axId val="1091950016"/>
+        <c:axId val="1091952016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1991912255"/>
+        <c:axId val="1091950016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1875,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1607,7 +1887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1991913983"/>
+        <c:crossAx val="1091952016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +1895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1991913983"/>
+        <c:axId val="1091952016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1652,7 +1932,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1664,7 +1944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1991912255"/>
+        <c:crossAx val="1091950016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,10 +1962,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3114464812992126"/>
-          <c:y val="0.90760608048993874"/>
-          <c:w val="0.41773203740157483"/>
-          <c:h val="5.3042067658209388E-2"/>
+          <c:x val="0.34713574803149599"/>
+          <c:y val="0.91473702704766502"/>
+          <c:w val="0.31639517060367456"/>
+          <c:h val="5.696006028339233E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1701,7 +1981,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2265,22 +2545,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>17991</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>25402</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8395E59-E6B7-F761-804D-28D4C1163D2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC2203A-9B48-D9C1-05E0-40BC1820CA48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,8 +2588,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2318,21 +2597,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2342,24 +2622,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2488,8 +2756,8 @@
     <v>698.1</v>
     <v>375.75</v>
     <v>1.5590999999999999</v>
-    <v>0.6</v>
-    <v>9.3780000000000003E-4</v>
+    <v>-2.7</v>
+    <v>-4.1849999999999995E-3</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>37704</v>
@@ -2497,24 +2765,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>644.5</v>
+    <v>649.20000000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45114.666666666664</v>
+    <v>45118.453726851854</v>
     <v>0</v>
-    <v>628.4</v>
-    <v>258169700000</v>
+    <v>639.20000000000005</v>
+    <v>260104800000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>636.5</v>
-    <v>39.767499999999998</v>
-    <v>639.79999999999995</v>
-    <v>640.4</v>
+    <v>649</v>
+    <v>40.103200000000001</v>
+    <v>645.20000000000005</v>
+    <v>642.5</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>558228</v>
-    <v>534010</v>
+    <v>79541</v>
+    <v>540910</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3082,10 +3350,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE101" sqref="AE101"/>
+      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3442,13 +3710,13 @@
         <v>21173400000</v>
       </c>
       <c r="AD4" s="22">
-        <v>26567000000</v>
+        <v>26623000000</v>
       </c>
       <c r="AE4" s="22">
-        <v>29757000000</v>
+        <v>29779000000</v>
       </c>
       <c r="AF4" s="22">
-        <v>34695000000</v>
+        <v>34805000000</v>
       </c>
       <c r="AG4" s="22">
         <v>40089000000</v>
@@ -3511,95 +3779,95 @@
         <v>0.59966584647636068</v>
       </c>
       <c r="L5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L5" si="1">(L4/K4)-1</f>
         <v>2.5771980300503206E-2</v>
       </c>
       <c r="M5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M5" si="2">(M4/L4)-1</f>
         <v>0.42344074659592534</v>
       </c>
       <c r="N5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N5" si="3">(N4/M4)-1</f>
         <v>6.0487567254747576E-2</v>
       </c>
       <c r="O5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O5" si="4">(O4/N4)-1</f>
         <v>-0.22387152126620291</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P5" si="5">(P4/O4)-1</f>
         <v>-0.46091388963959501</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q5" si="6">(Q4/P4)-1</f>
         <v>1.8244110664804585</v>
       </c>
-      <c r="R5" s="16">
-        <f t="shared" si="0"/>
+      <c r="R5" s="15">
+        <f t="shared" ref="R5" si="7">(R4/Q4)-1</f>
         <v>0.25357425057753669</v>
       </c>
-      <c r="S5" s="16">
-        <f t="shared" si="0"/>
+      <c r="S5" s="15">
+        <f t="shared" ref="S5" si="8">(S4/R4)-1</f>
         <v>-0.16271001683762354</v>
       </c>
-      <c r="T5" s="16">
-        <f t="shared" si="0"/>
+      <c r="T5" s="15">
+        <f t="shared" ref="T5" si="9">(T4/S4)-1</f>
         <v>0.10858396446834084</v>
       </c>
-      <c r="U5" s="16">
-        <f t="shared" ref="U5" si="1">(U4/T4)-1</f>
+      <c r="U5" s="15">
+        <f t="shared" ref="U5" si="10">(U4/T4)-1</f>
         <v>0.11647531535694822</v>
       </c>
-      <c r="V5" s="16">
-        <f t="shared" ref="V5" si="2">(V4/U4)-1</f>
+      <c r="V5" s="15">
+        <f t="shared" ref="V5" si="11">(V4/U4)-1</f>
         <v>7.361297971390357E-2</v>
       </c>
-      <c r="W5" s="16">
-        <f t="shared" ref="W5" si="3">(W4/V4)-1</f>
+      <c r="W5" s="15">
+        <f t="shared" ref="W5" si="12">(W4/V4)-1</f>
         <v>8.06977474701287E-2</v>
       </c>
-      <c r="X5" s="16">
-        <f t="shared" ref="X5" si="4">(X4/W4)-1</f>
+      <c r="X5" s="15">
+        <f t="shared" ref="X5" si="13">(X4/W4)-1</f>
         <v>0.3323223570190641</v>
       </c>
-      <c r="Y5" s="16">
-        <f t="shared" ref="Y5" si="5">(Y4/X4)-1</f>
+      <c r="Y5" s="15">
+        <f t="shared" ref="Y5" si="14">(Y4/X4)-1</f>
         <v>0.20890774125132561</v>
       </c>
-      <c r="Z5" s="16">
-        <f t="shared" ref="Z5" si="6">(Z4/Y4)-1</f>
+      <c r="Z5" s="15">
+        <f t="shared" ref="Z5" si="15">(Z4/Y4)-1</f>
         <v>8.0043859649122862E-2</v>
       </c>
-      <c r="AA5" s="16">
-        <f t="shared" ref="AA5" si="7">(AA4/Z4)-1</f>
+      <c r="AA5" s="15">
+        <f t="shared" ref="AA5" si="16">(AA4/Z4)-1</f>
         <v>0.18261421319796955</v>
       </c>
-      <c r="AB5" s="16">
-        <f t="shared" ref="AB5" si="8">(AB4/AA4)-1</f>
+      <c r="AB5" s="15">
+        <f t="shared" ref="AB5" si="17">(AB4/AA4)-1</f>
         <v>0.33140179561469396</v>
       </c>
-      <c r="AC5" s="16">
-        <f t="shared" ref="AC5:AH5" si="9">(AC4/AB4)-1</f>
+      <c r="AC5" s="15">
+        <f t="shared" ref="AC5" si="18">(AC4/AB4)-1</f>
         <v>0.137682016012036</v>
       </c>
       <c r="AD5" s="16">
-        <f t="shared" si="9"/>
-        <v>0.25473471431135297</v>
+        <f t="shared" ref="AC5:AH5" si="19">(AD4/AC4)-1</f>
+        <v>0.25737954225584936</v>
       </c>
       <c r="AE5" s="16">
-        <f t="shared" si="9"/>
-        <v>0.12007377573681643</v>
+        <f t="shared" si="19"/>
+        <v>0.11854411598993342</v>
       </c>
       <c r="AF5" s="16">
-        <f t="shared" si="9"/>
-        <v>0.16594414759552367</v>
+        <f t="shared" si="19"/>
+        <v>0.16877665468954639</v>
       </c>
       <c r="AG5" s="16">
-        <f t="shared" si="9"/>
-        <v>0.1554690877648075</v>
+        <f t="shared" si="19"/>
+        <v>0.15181726763396064</v>
       </c>
       <c r="AH5" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>7.7377834318641092E-2</v>
       </c>
       <c r="AI5" s="29">
@@ -4012,111 +4280,111 @@
         <v>#VALUE!</v>
       </c>
       <c r="C10" s="15" t="e">
-        <f t="shared" ref="C10:Q10" si="10">C9/C4</f>
+        <f t="shared" ref="C10:Q10" si="20">C9/C4</f>
         <v>#VALUE!</v>
       </c>
       <c r="D10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9.7267513774879119E-2</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.14716565767749037</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.14522821576763487</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9.9361978120332858E-2</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.22133624215846345</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.15234988122058779</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.18585130723506788</v>
       </c>
       <c r="K10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.13424272385808617</v>
       </c>
       <c r="L10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.1280657876430473</v>
       </c>
       <c r="M10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.10746614299273313</v>
       </c>
       <c r="N10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12764037046042478</v>
       </c>
       <c r="O10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.18225541670117293</v>
       </c>
       <c r="P10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.29244522302691062</v>
       </c>
       <c r="Q10" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.11611206720234396</v>
       </c>
       <c r="R10" s="15">
-        <f t="shared" ref="R10" si="11">R9/R4</f>
+        <f t="shared" ref="R10" si="21">R9/R4</f>
         <v>0.10445343198192897</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" ref="S10" si="12">S9/S4</f>
+        <f t="shared" ref="S10" si="22">S9/S4</f>
         <v>0.12452185380915999</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" ref="T10" si="13">T9/T4</f>
+        <f t="shared" ref="T10" si="23">T9/T4</f>
         <v>0.16815523000858287</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" ref="U10" si="14">U9/U4</f>
+        <f t="shared" ref="U10" si="24">U9/U4</f>
         <v>0.18339894099954629</v>
       </c>
       <c r="V10" s="15">
-        <f t="shared" ref="V10" si="15">V9/V4</f>
+        <f t="shared" ref="V10" si="25">V9/V4</f>
         <v>0.16987645877651644</v>
       </c>
       <c r="W10" s="15">
-        <f t="shared" ref="W10" si="16">W9/W4</f>
+        <f t="shared" ref="W10" si="26">W9/W4</f>
         <v>0.16273780117361164</v>
       </c>
       <c r="X10" s="15">
-        <f t="shared" ref="X10" si="17">X9/X4</f>
+        <f t="shared" ref="X10" si="27">X9/X4</f>
         <v>0.13915031813361611</v>
       </c>
       <c r="Y10" s="15">
-        <f t="shared" ref="Y10" si="18">Y9/Y4</f>
+        <f t="shared" ref="Y10" si="28">Y9/Y4</f>
         <v>0.1439967105263158</v>
       </c>
       <c r="Z10" s="15">
-        <f t="shared" ref="Z10" si="19">Z9/Z4</f>
+        <f t="shared" ref="Z10" si="29">Z9/Z4</f>
         <v>0.16653976311336718</v>
       </c>
       <c r="AA10" s="15">
-        <f t="shared" ref="AA10" si="20">AA9/AA4</f>
+        <f t="shared" ref="AA10" si="30">AA9/AA4</f>
         <v>0.15744178559931324</v>
       </c>
       <c r="AB10" s="15">
-        <f t="shared" ref="AB10" si="21">AB9/AB4</f>
+        <f t="shared" ref="AB10" si="31">AB9/AB4</f>
         <v>0.13685454838536348</v>
       </c>
       <c r="AC10" s="15">
-        <f t="shared" ref="AC10" si="22">AC9/AC4</f>
+        <f t="shared" ref="AC10" si="32">AC9/AC4</f>
         <v>0.15365978066819688</v>
       </c>
       <c r="AI10" s="28" t="s">
@@ -4436,111 +4704,111 @@
         <v>0.1397868250917351</v>
       </c>
       <c r="C14" s="15">
-        <f t="shared" ref="C14:Q14" si="23">C13/C4</f>
+        <f t="shared" ref="C14:Q14" si="33">C13/C4</f>
         <v>0.15540277597613181</v>
       </c>
       <c r="D14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7.0392443494883619E-2</v>
       </c>
       <c r="E14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.12085855806274078</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.11709543568464731</v>
       </c>
       <c r="G14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>8.587571276599211E-2</v>
       </c>
       <c r="H14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.1518104435794162</v>
       </c>
       <c r="I14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.13439884375416106</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.13781284027188695</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>8.1784345284460269E-2</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7.9559790970681679E-2</v>
       </c>
       <c r="M14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.6934468969767608E-2</v>
       </c>
       <c r="N14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.9250992467164296E-2</v>
       </c>
       <c r="O14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>7.1890462774718139E-2</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>9.8143995569097212E-2</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.0161377552220108E-2</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" ref="R14" si="24">R13/R4</f>
+        <f t="shared" ref="R14" si="34">R13/R4</f>
         <v>3.8560015997069562E-2</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" ref="S14" si="25">S13/S4</f>
+        <f t="shared" ref="S14" si="35">S13/S4</f>
         <v>5.4802490935855125E-2</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" ref="T14" si="26">T13/T4</f>
+        <f t="shared" ref="T14" si="36">T13/T4</f>
         <v>5.9432149689075571E-2</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" ref="U14" si="27">U13/U4</f>
+        <f t="shared" ref="U14" si="37">U13/U4</f>
         <v>5.483176427617751E-2</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" ref="V14" si="28">V13/V4</f>
+        <f t="shared" ref="V14" si="38">V13/V4</f>
         <v>5.4988290025646633E-2</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" ref="W14" si="29">W13/W4</f>
+        <f t="shared" ref="W14" si="39">W13/W4</f>
         <v>5.5154330871825787E-2</v>
       </c>
       <c r="X14" s="15">
-        <f t="shared" ref="X14" si="30">X13/X4</f>
+        <f t="shared" ref="X14" si="40">X13/X4</f>
         <v>4.6018911276069281E-2</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" ref="Y14" si="31">Y13/Y4</f>
+        <f t="shared" ref="Y14" si="41">Y13/Y4</f>
         <v>4.4590643274853799E-2</v>
       </c>
       <c r="Z14" s="15">
-        <f t="shared" ref="Z14" si="32">Z13/Z4</f>
+        <f t="shared" ref="Z14" si="42">Z13/Z4</f>
         <v>4.4035532994923861E-2</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" ref="AA14" si="33">AA13/AA4</f>
+        <f t="shared" ref="AA14" si="43">AA13/AA4</f>
         <v>3.8981292699502811E-2</v>
       </c>
       <c r="AB14" s="15">
-        <f t="shared" ref="AB14" si="34">AB13/AB4</f>
+        <f t="shared" ref="AB14" si="44">AB13/AB4</f>
         <v>3.898769544892805E-2</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" ref="AC14" si="35">AC13/AC4</f>
+        <f t="shared" ref="AC14" si="45">AC13/AC4</f>
         <v>4.4673977726770384E-2</v>
       </c>
       <c r="AI14" s="29">
@@ -4844,15 +5112,15 @@
       </c>
       <c r="AJ17" s="38">
         <f>AK101/AC4</f>
-        <v>12.193114946111631</v>
+        <v>12.284507920315113</v>
       </c>
       <c r="AK17" s="38">
         <f>AK101/AC26</f>
-        <v>39.988491504158858</v>
+        <v>40.288223540527561</v>
       </c>
       <c r="AL17" s="39">
         <f>AK101/AC108</f>
-        <v>36.019490756888736</v>
+        <v>36.289473317056157</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5134,10 +5402,10 @@
         <v>6995100000</v>
       </c>
       <c r="AD20" s="33">
-        <v>9265000000</v>
+        <v>9292000000</v>
       </c>
       <c r="AE20" s="33">
-        <v>11305000000</v>
+        <v>11342000000</v>
       </c>
       <c r="AF20" s="33">
         <v>14025000000</v>
@@ -5154,15 +5422,15 @@
       </c>
       <c r="AJ20" s="38">
         <f>AK101/AD4</f>
-        <v>9.7176835924266953</v>
+        <v>9.7699282575216913</v>
       </c>
       <c r="AK20" s="38">
         <f>AK101/AD29</f>
-        <v>34.864240378122886</v>
+        <v>35.101862348178138</v>
       </c>
       <c r="AL20" s="39">
         <f>AK101/AD106</f>
-        <v>30.765749123818061</v>
+        <v>30.994764229966574</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,119 +5451,119 @@
         <v>-0.47452834085922035</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" ref="F21:Q21" si="36">(F20/E20)-1</f>
+        <f t="shared" ref="F21:Q21" si="46">(F20/E20)-1</f>
         <v>0.30496026607353777</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>2.4668078638636235</v>
       </c>
       <c r="H21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-1.9669575773540908</v>
       </c>
       <c r="I21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-0.84331365575550288</v>
       </c>
       <c r="J21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-0.11301251173628668</v>
       </c>
       <c r="K21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-7.0395208710269666</v>
       </c>
       <c r="L21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0.15999905963975536</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>0.82210946480534663</v>
       </c>
       <c r="N21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>3.1189265598682292E-2</v>
       </c>
       <c r="O21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-0.56437005207541047</v>
       </c>
       <c r="P21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>-0.95823204476236912</v>
       </c>
       <c r="Q21" s="15">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>77.93884371170769</v>
       </c>
       <c r="R21" s="15">
-        <f t="shared" ref="R21" si="37">(R20/Q20)-1</f>
+        <f t="shared" ref="R21" si="47">(R20/Q20)-1</f>
         <v>0.30360454056678066</v>
       </c>
       <c r="S21" s="15">
-        <f t="shared" ref="S21" si="38">(S20/R20)-1</f>
+        <f t="shared" ref="S21" si="48">(S20/R20)-1</f>
         <v>-0.26390417183339943</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" ref="T21" si="39">(T20/S20)-1</f>
+        <f t="shared" ref="T21" si="49">(T20/S20)-1</f>
         <v>-5.8616346281817555E-2</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" ref="U21" si="40">(U20/T20)-1</f>
+        <f t="shared" ref="U21" si="50">(U20/T20)-1</f>
         <v>0.20302875505170026</v>
       </c>
       <c r="V21" s="15">
-        <f t="shared" ref="V21" si="41">(V20/U20)-1</f>
+        <f t="shared" ref="V21" si="51">(V20/U20)-1</f>
         <v>0.18750714196671581</v>
       </c>
       <c r="W21" s="15">
-        <f t="shared" ref="W21" si="42">(W20/V20)-1</f>
+        <f t="shared" ref="W21" si="52">(W20/V20)-1</f>
         <v>0.13830646329748286</v>
       </c>
       <c r="X21" s="15">
-        <f t="shared" ref="X21" si="43">(X20/W20)-1</f>
+        <f t="shared" ref="X21" si="53">(X20/W20)-1</f>
         <v>0.35118518696414425</v>
       </c>
       <c r="Y21" s="15">
-        <f t="shared" ref="Y21" si="44">(Y20/X20)-1</f>
+        <f t="shared" ref="Y21" si="54">(Y20/X20)-1</f>
         <v>0.20916426717855741</v>
       </c>
       <c r="Z21" s="15">
-        <f t="shared" ref="Z21" si="45">(Z20/Y20)-1</f>
+        <f t="shared" ref="Z21" si="55">(Z20/Y20)-1</f>
         <v>-4.4274584742025613E-2</v>
       </c>
       <c r="AA21" s="15">
-        <f t="shared" ref="AA21" si="46">(AA20/Z20)-1</f>
+        <f t="shared" ref="AA21" si="56">(AA20/Z20)-1</f>
         <v>0.42711249192531309</v>
       </c>
       <c r="AB21" s="15">
-        <f t="shared" ref="AB21" si="47">(AB20/AA20)-1</f>
+        <f t="shared" ref="AB21" si="57">(AB20/AA20)-1</f>
         <v>0.6015433030133206</v>
       </c>
       <c r="AC21" s="15">
-        <f t="shared" ref="AC21" si="48">(AC20/AB20)-1</f>
+        <f t="shared" ref="AC21" si="58">(AC20/AB20)-1</f>
         <v>-5.8558316061478877E-2</v>
       </c>
       <c r="AD21" s="16">
-        <f t="shared" ref="AD21" si="49">(AD20/AC20)-1</f>
-        <v>0.32449857757573164</v>
+        <f t="shared" ref="AD21" si="59">(AD20/AC20)-1</f>
+        <v>0.32835842232419843</v>
       </c>
       <c r="AE21" s="16">
-        <f t="shared" ref="AE21" si="50">(AE20/AD20)-1</f>
-        <v>0.22018348623853212</v>
+        <f t="shared" ref="AE21" si="60">(AE20/AD20)-1</f>
+        <v>0.22061988807576416</v>
       </c>
       <c r="AF21" s="16">
-        <f t="shared" ref="AF21" si="51">(AF20/AE20)-1</f>
-        <v>0.24060150375939848</v>
+        <f t="shared" ref="AF21" si="61">(AF20/AE20)-1</f>
+        <v>0.23655439957679425</v>
       </c>
       <c r="AG21" s="16">
-        <f t="shared" ref="AG21" si="52">(AG20/AF20)-1</f>
+        <f t="shared" ref="AG21" si="62">(AG20/AF20)-1</f>
         <v>0.13069518716577533</v>
       </c>
       <c r="AH21" s="16">
-        <f t="shared" ref="AH21" si="53">(AH20/AG20)-1</f>
+        <f t="shared" ref="AH21" si="63">(AH20/AG20)-1</f>
         <v>0.18627821919535892</v>
       </c>
     </row>
@@ -5389,22 +5657,22 @@
       </c>
       <c r="AD22" s="34">
         <f>AD20/AD4</f>
-        <v>0.34874091918545563</v>
+        <v>0.34902152274349246</v>
       </c>
       <c r="AE22" s="34">
-        <f t="shared" ref="AE22:AH22" si="54">AE20/AE4</f>
-        <v>0.37991060926840742</v>
+        <f t="shared" ref="AE22:AH22" si="64">AE20/AE4</f>
+        <v>0.38087242687800127</v>
       </c>
       <c r="AF22" s="34">
-        <f t="shared" si="54"/>
-        <v>0.40423692174664938</v>
+        <f t="shared" si="64"/>
+        <v>0.40295934492170665</v>
       </c>
       <c r="AG22" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0.39556985706802367</v>
       </c>
       <c r="AH22" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>0.43555370331782084</v>
       </c>
       <c r="AK22" s="31" t="s">
@@ -5504,11 +5772,11 @@
       </c>
       <c r="AK23" s="41">
         <f>AC99*-1/AK101</f>
-        <v>9.9151836950656866E-3</v>
+        <v>9.8414177669923809E-3</v>
       </c>
       <c r="AL23" s="42">
         <f>AC108/AK101</f>
-        <v>2.7762746751458438E-2</v>
+        <v>2.7556200423829166E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,16 +6313,16 @@
         <v>5486200000</v>
       </c>
       <c r="AD29" s="35">
-        <v>7405000000</v>
+        <v>7410000000</v>
       </c>
       <c r="AE29" s="35">
-        <v>8861000000</v>
+        <v>8840000000</v>
       </c>
       <c r="AF29" s="35">
-        <v>11223000000</v>
+        <v>11131000000</v>
       </c>
       <c r="AG29" s="35">
-        <v>12889000000</v>
+        <v>13802000000</v>
       </c>
       <c r="AH29" s="35">
         <v>15237000000</v>
@@ -6078,120 +6346,120 @@
         <v>-0.58218042136711268</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" ref="F30:Q30" si="55">(F29/E29)-1</f>
+        <f t="shared" ref="F30:Q30" si="65">(F29/E29)-1</f>
         <v>0.31060246611215114</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>3.2755052170411219</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-2.3890296985218447</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-0.56716728473638112</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-0.22990569968406516</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-2.4711194395727776</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0.32276413044521868</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>1.0071753151253837</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>0.10283204718324379</v>
       </c>
       <c r="O30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-0.53095972415640369</v>
       </c>
       <c r="P30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-1.467065609347519</v>
       </c>
       <c r="Q30" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>-7.7703826403842973</v>
       </c>
       <c r="R30" s="15">
-        <f t="shared" ref="R30" si="56">(R29/Q29)-1</f>
+        <f t="shared" ref="R30" si="66">(R29/Q29)-1</f>
         <v>0.43563445616644803</v>
       </c>
       <c r="S30" s="15">
-        <f t="shared" ref="S30" si="57">(S29/R29)-1</f>
+        <f t="shared" ref="S30" si="67">(S29/R29)-1</f>
         <v>-0.21857719365217865</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" ref="T30" si="58">(T29/S29)-1</f>
+        <f t="shared" ref="T30" si="68">(T29/S29)-1</f>
         <v>-0.11412734359461096</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ref="U30" si="59">(U29/T29)-1</f>
+        <f t="shared" ref="U30" si="69">(U29/T29)-1</f>
         <v>0.17838678864390589</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" ref="V30" si="60">(V29/U29)-1</f>
+        <f t="shared" ref="V30" si="70">(V29/U29)-1</f>
         <v>0.15922416098408876</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" ref="W30" si="61">(W29/V29)-1</f>
+        <f t="shared" ref="W30" si="71">(W29/V29)-1</f>
         <v>6.1073809053514561E-2</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" ref="X30" si="62">(X29/W29)-1</f>
+        <f t="shared" ref="X30" si="72">(X29/W29)-1</f>
         <v>0.45064794068051106</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" ref="Y30" si="63">(Y29/X29)-1</f>
+        <f t="shared" ref="Y30" si="73">(Y29/X29)-1</f>
         <v>0.21084675908579986</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" ref="Z30" si="64">(Z29/Y29)-1</f>
+        <f t="shared" ref="Z30" si="74">(Z29/Y29)-1</f>
         <v>-4.3706969907945092E-3</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" ref="AA30" si="65">(AA29/Z29)-1</f>
+        <f t="shared" ref="AA30" si="75">(AA29/Z29)-1</f>
         <v>0.38056019579658917</v>
       </c>
       <c r="AB30" s="15">
-        <f t="shared" ref="AB30" si="66">(AB29/AA29)-1</f>
+        <f t="shared" ref="AB30" si="76">(AB29/AA29)-1</f>
         <v>0.6555139713538003</v>
       </c>
       <c r="AC30" s="15">
-        <f t="shared" ref="AC30" si="67">(AC29/AB29)-1</f>
+        <f t="shared" ref="AC30" si="77">(AC29/AB29)-1</f>
         <v>-6.74802828392711E-2</v>
       </c>
       <c r="AD30" s="16">
-        <f t="shared" ref="AD30" si="68">(AD29/AC29)-1</f>
-        <v>0.34975028252706797</v>
+        <f t="shared" ref="AD30" si="78">(AD29/AC29)-1</f>
+        <v>0.35066166016550615</v>
       </c>
       <c r="AE30" s="16">
-        <f t="shared" ref="AE30" si="69">(AE29/AD29)-1</f>
-        <v>0.19662390276839981</v>
+        <f t="shared" ref="AE30" si="79">(AE29/AD29)-1</f>
+        <v>0.19298245614035081</v>
       </c>
       <c r="AF30" s="16">
-        <f t="shared" ref="AF30" si="70">(AF29/AE29)-1</f>
-        <v>0.26656133619230338</v>
+        <f t="shared" ref="AF30" si="80">(AF29/AE29)-1</f>
+        <v>0.25916289592760178</v>
       </c>
       <c r="AG30" s="16">
-        <f t="shared" ref="AG30" si="71">(AG29/AF29)-1</f>
-        <v>0.14844515726632812</v>
+        <f t="shared" ref="AG30" si="81">(AG29/AF29)-1</f>
+        <v>0.23996047075734439</v>
       </c>
       <c r="AH30" s="16">
-        <f t="shared" ref="AH30" si="72">(AH29/AG29)-1</f>
-        <v>0.18217084335479861</v>
+        <f t="shared" ref="AH30" si="82">(AH29/AG29)-1</f>
+        <v>0.10397043906680192</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6284,22 +6552,22 @@
       </c>
       <c r="AD31" s="34">
         <f>AD29/AD4</f>
-        <v>0.27872925057402043</v>
+        <v>0.27833076663035722</v>
       </c>
       <c r="AE31" s="34">
-        <f t="shared" ref="AE31:AH31" si="73">AE29/AE4</f>
-        <v>0.29777867392546292</v>
+        <f t="shared" ref="AE31:AH31" si="83">AE29/AE4</f>
+        <v>0.29685348735686223</v>
       </c>
       <c r="AF31" s="34">
-        <f t="shared" si="73"/>
-        <v>0.32347600518806746</v>
+        <f t="shared" si="83"/>
+        <v>0.31981037207297802</v>
       </c>
       <c r="AG31" s="34">
-        <f t="shared" si="73"/>
-        <v>0.32150964104866669</v>
+        <f t="shared" si="83"/>
+        <v>0.34428396817081991</v>
       </c>
       <c r="AH31" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>0.35278182954782245</v>
       </c>
     </row>
@@ -6392,16 +6660,16 @@
         <v>13.39</v>
       </c>
       <c r="AD32" s="36">
-        <v>18.77</v>
+        <v>18.78</v>
       </c>
       <c r="AE32" s="36">
-        <v>22.46</v>
+        <v>22.4</v>
       </c>
       <c r="AF32" s="36">
-        <v>28.44</v>
+        <v>28.21</v>
       </c>
       <c r="AG32" s="36">
-        <v>32.659999999999997</v>
+        <v>34.979999999999997</v>
       </c>
       <c r="AH32" s="36">
         <v>38.61</v>
@@ -6684,107 +6952,107 @@
         <v>4.1735427891645867E-2</v>
       </c>
       <c r="D36" s="24">
-        <f t="shared" ref="D36:G36" si="74">(D35-C35)/C35</f>
+        <f t="shared" ref="D36:G36" si="84">(D35-C35)/C35</f>
         <v>2.3061923137880198E-2</v>
       </c>
       <c r="E36" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>2.1963683622972824E-2</v>
       </c>
       <c r="F36" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>-0.12146748094155442</v>
       </c>
       <c r="G36" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>3.9632295351572443E-2</v>
       </c>
       <c r="H36" s="24">
-        <f t="shared" ref="H36" si="75">(H35-G35)/G35</f>
+        <f t="shared" ref="H36" si="85">(H35-G35)/G35</f>
         <v>6.6059800089528317E-2</v>
       </c>
       <c r="I36" s="24">
-        <f t="shared" ref="I36" si="76">(I35-H35)/H35</f>
+        <f t="shared" ref="I36" si="86">(I35-H35)/H35</f>
         <v>2.3611940477784515E-2</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" ref="J36" si="77">(J35-I35)/I35</f>
+        <f t="shared" ref="J36" si="87">(J35-I35)/I35</f>
         <v>1.1269413512263345E-2</v>
       </c>
       <c r="K36" s="24">
-        <f t="shared" ref="K36" si="78">(K35-J35)/J35</f>
+        <f t="shared" ref="K36" si="88">(K35-J35)/J35</f>
         <v>5.0203212061519838E-3</v>
       </c>
       <c r="L36" s="24">
-        <f t="shared" ref="L36" si="79">(L35-K35)/K35</f>
+        <f t="shared" ref="L36" si="89">(L35-K35)/K35</f>
         <v>0.12032740392851796</v>
       </c>
       <c r="M36" s="24">
-        <f t="shared" ref="M36" si="80">(M35-L35)/L35</f>
+        <f t="shared" ref="M36" si="90">(M35-L35)/L35</f>
         <v>-7.1818615831729993E-2</v>
       </c>
       <c r="N36" s="24">
-        <f t="shared" ref="N36" si="81">(N35-M35)/M35</f>
+        <f t="shared" ref="N36" si="91">(N35-M35)/M35</f>
         <v>8.4060985386721909E-2</v>
       </c>
       <c r="O36" s="24">
-        <f t="shared" ref="O36" si="82">(O35-N35)/N35</f>
+        <f t="shared" ref="O36" si="92">(O35-N35)/N35</f>
         <v>-0.10591730962867786</v>
       </c>
       <c r="P36" s="24">
-        <f t="shared" ref="P36" si="83">(P35-O35)/O35</f>
+        <f t="shared" ref="P36" si="93">(P35-O35)/O35</f>
         <v>-3.6618647873700211E-3</v>
       </c>
       <c r="Q36" s="24">
-        <f t="shared" ref="Q36" si="84">(Q35-P35)/P35</f>
+        <f t="shared" ref="Q36" si="94">(Q35-P35)/P35</f>
         <v>1.4759081400321302E-2</v>
       </c>
       <c r="R36" s="24">
-        <f t="shared" ref="R36" si="85">(R35-Q35)/Q35</f>
+        <f t="shared" ref="R36" si="95">(R35-Q35)/Q35</f>
         <v>-2.2658314350797265E-2</v>
       </c>
       <c r="S36" s="24">
-        <f t="shared" ref="S36" si="86">(S35-R35)/R35</f>
+        <f t="shared" ref="S36" si="96">(S35-R35)/R35</f>
         <v>0.292487069302521</v>
       </c>
       <c r="T36" s="24">
-        <f t="shared" ref="T36" si="87">(T35-S35)/S35</f>
+        <f t="shared" ref="T36" si="97">(T35-S35)/S35</f>
         <v>1.5096018735362997E-2</v>
       </c>
       <c r="U36" s="24">
-        <f t="shared" ref="U36" si="88">(U35-T35)/T35</f>
+        <f t="shared" ref="U36" si="98">(U35-T35)/T35</f>
         <v>1.4412406620432534E-2</v>
       </c>
       <c r="V36" s="24">
-        <f t="shared" ref="V36" si="89">(V35-U35)/U35</f>
+        <f t="shared" ref="V36" si="99">(V35-U35)/U35</f>
         <v>-1.6131710079532766E-2</v>
       </c>
       <c r="W36" s="24">
-        <f t="shared" ref="W36" si="90">(W35-V35)/V35</f>
+        <f t="shared" ref="W36" si="100">(W35-V35)/V35</f>
         <v>-1.1326860841423949E-2</v>
       </c>
       <c r="X36" s="24">
-        <f t="shared" ref="X36" si="91">(X35-W35)/W35</f>
+        <f t="shared" ref="X36" si="101">(X35-W35)/W35</f>
         <v>9.11854103343465E-3</v>
       </c>
       <c r="Y36" s="24">
-        <f t="shared" ref="Y36" si="92">(Y35-X35)/X35</f>
+        <f t="shared" ref="Y36" si="102">(Y35-X35)/X35</f>
         <v>-1.2048192771084338E-2</v>
       </c>
       <c r="Z36" s="24">
-        <f t="shared" ref="Z36" si="93">(Z35-Y35)/Y35</f>
+        <f t="shared" ref="Z36" si="103">(Z35-Y35)/Y35</f>
         <v>-1.125703564727955E-2</v>
       </c>
       <c r="AA36" s="24">
-        <f t="shared" ref="AA36" si="94">(AA35-Z35)/Z35</f>
+        <f t="shared" ref="AA36" si="104">(AA35-Z35)/Z35</f>
         <v>-5.9297912713472487E-3</v>
       </c>
       <c r="AB36" s="24">
-        <f t="shared" ref="AB36" si="95">(AB35-AA35)/AA35</f>
+        <f t="shared" ref="AB36" si="105">(AB35-AA35)/AA35</f>
         <v>-2.0758768790264854E-2</v>
       </c>
       <c r="AC36" s="24">
-        <f t="shared" ref="AC36" si="96">(AC35-AB35)/AB35</f>
+        <f t="shared" ref="AC36" si="106">(AC35-AB35)/AB35</f>
         <v>0</v>
       </c>
     </row>
@@ -10713,111 +10981,111 @@
         <v>#VALUE!</v>
       </c>
       <c r="C81" s="15" t="e">
-        <f t="shared" ref="C81:Q81" si="97">C80/C4</f>
+        <f t="shared" ref="C81:Q81" si="107">C80/C4</f>
         <v>#VALUE!</v>
       </c>
       <c r="D81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="E81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="F81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="G81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="H81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="J81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="K81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="L81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="M81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="N81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="O81" s="15" t="e">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>#VALUE!</v>
       </c>
       <c r="P81" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>8.3918993172575271E-3</v>
       </c>
       <c r="Q81" s="15">
-        <f t="shared" si="97"/>
+        <f t="shared" si="107"/>
         <v>2.6861505193727154E-3</v>
       </c>
       <c r="R81" s="15">
-        <f t="shared" ref="R81" si="98">R80/R4</f>
+        <f t="shared" ref="R81" si="108">R80/R4</f>
         <v>2.1995970649624362E-3</v>
       </c>
       <c r="S81" s="15">
-        <f t="shared" ref="S81" si="99">S80/S4</f>
+        <f t="shared" ref="S81" si="109">S80/S4</f>
         <v>3.9551479376230434E-3</v>
       </c>
       <c r="T81" s="15">
-        <f t="shared" ref="T81" si="100">T80/T4</f>
+        <f t="shared" ref="T81" si="110">T80/T4</f>
         <v>9.9843174666360106E-3</v>
       </c>
       <c r="U81" s="15">
-        <f t="shared" ref="U81" si="101">U80/U4</f>
+        <f t="shared" ref="U81" si="111">U80/U4</f>
         <v>1.0822575503173774E-2</v>
       </c>
       <c r="V81" s="15">
-        <f t="shared" ref="V81" si="102">V80/V4</f>
+        <f t="shared" ref="V81" si="112">V80/V4</f>
         <v>9.3950177935943069E-3</v>
       </c>
       <c r="W81" s="15">
-        <f t="shared" ref="W81" si="103">W80/W4</f>
+        <f t="shared" ref="W81" si="113">W80/W4</f>
         <v>7.0202709385125458E-3</v>
       </c>
       <c r="X81" s="15">
-        <f t="shared" ref="X81" si="104">X80/X4</f>
+        <f t="shared" ref="X81" si="114">X80/X4</f>
         <v>5.8655885471898201E-3</v>
       </c>
       <c r="Y81" s="15">
-        <f t="shared" ref="Y81" si="105">Y80/Y4</f>
+        <f t="shared" ref="Y81" si="115">Y80/Y4</f>
         <v>4.2306286549707601E-3</v>
       </c>
       <c r="Z81" s="15">
-        <f t="shared" ref="Z81" si="106">Z80/Z4</f>
+        <f t="shared" ref="Z81" si="116">Z80/Z4</f>
         <v>6.3113367174280881E-3</v>
       </c>
       <c r="AA81" s="15">
-        <f t="shared" ref="AA81" si="107">AA80/AA4</f>
+        <f t="shared" ref="AA81" si="117">AA80/AA4</f>
         <v>3.8559215938763101E-3</v>
       </c>
       <c r="AB81" s="15">
-        <f t="shared" ref="AB81" si="108">AB80/AB4</f>
+        <f t="shared" ref="AB81" si="118">AB80/AB4</f>
         <v>6.3134705281822582E-3</v>
       </c>
       <c r="AC81" s="15">
-        <f t="shared" ref="AC81" si="109">AC80/AC4</f>
+        <f t="shared" ref="AC81" si="119">AC80/AC4</f>
         <v>3.2540829531393163E-3</v>
       </c>
     </row>
@@ -11585,111 +11853,111 @@
         <v>4.9624322907565965E-2</v>
       </c>
       <c r="C90" s="15">
-        <f t="shared" ref="C90:Q90" si="110">(-1*C89)/C4</f>
+        <f t="shared" ref="C90:Q90" si="120">(-1*C89)/C4</f>
         <v>6.0967700090802955E-2</v>
       </c>
       <c r="D90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>5.0714044754301135E-2</v>
       </c>
       <c r="E90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>0.12647220693450742</v>
       </c>
       <c r="F90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>9.1701244813278002E-2</v>
       </c>
       <c r="G90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>6.0903775613929838E-2</v>
       </c>
       <c r="H90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>0.18799741345080007</v>
       </c>
       <c r="I90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>7.0755451803855382E-2</v>
       </c>
       <c r="J90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>4.6307118616669946E-2</v>
       </c>
       <c r="K90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>3.0412923882041139E-2</v>
       </c>
       <c r="L90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.8731066089044664E-2</v>
       </c>
       <c r="M90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>1.9665471475837595E-2</v>
       </c>
       <c r="N90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>4.7037890898362446E-2</v>
       </c>
       <c r="O90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>8.7959856039251064E-2</v>
       </c>
       <c r="P90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>6.5761188624759798E-2</v>
       </c>
       <c r="Q90" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>2.8555849703345522E-2</v>
       </c>
       <c r="R90" s="15">
-        <f t="shared" ref="R90" si="111">(-1*R89)/R4</f>
+        <f t="shared" ref="R90" si="121">(-1*R89)/R4</f>
         <v>5.3246529175628887E-2</v>
       </c>
       <c r="S90" s="15">
-        <f t="shared" ref="S90" si="112">(-1*S89)/S4</f>
+        <f t="shared" ref="S90" si="122">(-1*S89)/S4</f>
         <v>3.6325901315740809E-2</v>
       </c>
       <c r="T90" s="15">
-        <f t="shared" ref="T90" si="113">(-1*T89)/T4</f>
+        <f t="shared" ref="T90" si="123">(-1*T89)/T4</f>
         <v>4.0188922480699961E-2</v>
       </c>
       <c r="U90" s="15">
-        <f t="shared" ref="U90" si="114">(-1*U89)/U4</f>
+        <f t="shared" ref="U90" si="124">(-1*U89)/U4</f>
         <v>6.1178800114816974E-2</v>
       </c>
       <c r="V90" s="15">
-        <f t="shared" ref="V90" si="115">(-1*V89)/V4</f>
+        <f t="shared" ref="V90" si="125">(-1*V89)/V4</f>
         <v>5.9129604962325298E-2</v>
       </c>
       <c r="W90" s="15">
-        <f t="shared" ref="W90" si="116">(-1*W89)/W4</f>
+        <f t="shared" ref="W90" si="126">(-1*W89)/W4</f>
         <v>4.6556224568608244E-2</v>
       </c>
       <c r="X90" s="15">
-        <f t="shared" ref="X90" si="117">(-1*X89)/X4</f>
+        <f t="shared" ref="X90" si="127">(-1*X89)/X4</f>
         <v>3.7435931424531638E-2</v>
       </c>
       <c r="Y90" s="15">
-        <f t="shared" ref="Y90" si="118">(-1*Y89)/Y4</f>
+        <f t="shared" ref="Y90" si="128">(-1*Y89)/Y4</f>
         <v>5.2448830409356724E-2</v>
       </c>
       <c r="Z90" s="15">
-        <f t="shared" ref="Z90" si="119">(-1*Z89)/Z4</f>
+        <f t="shared" ref="Z90" si="129">(-1*Z89)/Z4</f>
         <v>6.4856175972927241E-2</v>
       </c>
       <c r="AA90" s="15">
-        <f t="shared" ref="AA90" si="120">(-1*AA89)/AA4</f>
+        <f t="shared" ref="AA90" si="130">(-1*AA89)/AA4</f>
         <v>6.8819973530779413E-2</v>
       </c>
       <c r="AB90" s="15">
-        <f t="shared" ref="AB90" si="121">(-1*AB89)/AB4</f>
+        <f t="shared" ref="AB90" si="131">(-1*AB89)/AB4</f>
         <v>4.8396109827521357E-2</v>
       </c>
       <c r="AC90" s="15">
-        <f t="shared" ref="AC90" si="122">(-1*AC89)/AC4</f>
+        <f t="shared" ref="AC90" si="132">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
       <c r="AJ90" s="50" t="s">
@@ -12078,7 +12346,7 @@
       </c>
       <c r="AK94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12365,7 +12633,7 @@
       </c>
       <c r="AK97" s="53">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.108371169</v>
+        <v>0.10833203200000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12650,7 +12918,7 @@
       </c>
       <c r="AK100" s="53">
         <f>AK99/AK103</f>
-        <v>1.3429179250232818E-2</v>
+        <v>1.3330602118967146E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12746,7 +13014,7 @@
       </c>
       <c r="AK101" s="44" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>258169700000</v>
+        <v>260104800000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12842,7 +13110,7 @@
       </c>
       <c r="AK102" s="53">
         <f>AK101/AK103</f>
-        <v>0.98657082074976721</v>
+        <v>0.98666939788103281</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12938,7 +13206,7 @@
       </c>
       <c r="AK103" s="56">
         <f>AK99+AK101</f>
-        <v>261683900000</v>
+        <v>263619000000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13127,7 +13395,7 @@
       </c>
       <c r="AK105" s="58">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10677100290865964</v>
+        <v>0.10674413367634235</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13135,111 +13403,111 @@
         <v>161</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" ref="B106:AB106" si="123">(B23*(1-$AK$91))+B78+B89+B82</f>
+        <f t="shared" ref="B106:AB106" si="133">(B23*(1-$AK$91))+B78+B89+B82</f>
         <v>29995522.702297062</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>25230055.660414189</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-23946940.938956946</v>
       </c>
       <c r="E106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-134079767.39722122</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-84278120.741624191</v>
       </c>
       <c r="G106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>133411816.62892461</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-875796020.54777658</v>
       </c>
       <c r="I106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-294867467.76993853</v>
       </c>
       <c r="J106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>455794446.05374759</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>113561069.62000281</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>670661808.65572095</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>421860305.67117929</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>307453545.34096444</v>
       </c>
       <c r="O106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-206557647.16652465</v>
       </c>
       <c r="P106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>-68938094.530753881</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>746233470.43880987</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>1544769095.6614676</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>285060824.59999084</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>506886756.2150526</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>378576816.68499565</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>1272633745.4345503</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>1154350596.2732921</v>
       </c>
       <c r="X106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>1260495836.495717</v>
       </c>
       <c r="Y106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>2309122936.447701</v>
       </c>
       <c r="Z106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>2165038074.0694847</v>
       </c>
       <c r="AA106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>3503243094.1280341</v>
       </c>
       <c r="AB106" s="1">
-        <f t="shared" si="123"/>
+        <f t="shared" si="133"/>
         <v>10198732375.582783</v>
       </c>
       <c r="AC106" s="1">
@@ -13248,23 +13516,23 @@
       </c>
       <c r="AD106" s="25">
         <f>AC106*(1+$AK$107)</f>
-        <v>8391464773.4071131</v>
+        <v>8391894775.1996021</v>
       </c>
       <c r="AE106" s="25">
-        <f t="shared" ref="AE106:AH106" si="124">AD106*(1+$AK$107)</f>
-        <v>9689791464.2418251</v>
+        <f t="shared" ref="AE106:AH106" si="134">AD106*(1+$AK$107)</f>
+        <v>9690784552.9493923</v>
       </c>
       <c r="AF106" s="25">
-        <f t="shared" si="124"/>
-        <v>11188995146.358883</v>
+        <f t="shared" si="134"/>
+        <v>11190715299.388256</v>
       </c>
       <c r="AG106" s="25">
-        <f t="shared" si="124"/>
-        <v>12920155490.161354</v>
+        <f t="shared" si="134"/>
+        <v>12922803951.290813</v>
       </c>
       <c r="AH106" s="25">
-        <f t="shared" si="124"/>
-        <v>14919160809.920361</v>
+        <f t="shared" si="134"/>
+        <v>14922983696.370731</v>
       </c>
       <c r="AI106" s="26" t="s">
         <v>164</v>
@@ -13280,124 +13548,124 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="15">
-        <f t="shared" ref="C107:AC107" si="125">(C108/B108)-1</f>
+        <f t="shared" ref="C107:AC107" si="135">(C108/B108)-1</f>
         <v>-0.8009824268767608</v>
       </c>
       <c r="D107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-21.832079824350117</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>1.6594573719174357</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.52591351736719194</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-1.744870646716107</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-11.913888658073057</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.66979189736365963</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-3.26949536002674</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.59701276650847013</v>
       </c>
       <c r="L107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>2.6237406549827647</v>
       </c>
       <c r="M107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.36278011504110608</v>
       </c>
       <c r="N107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.20933002743700557</v>
       </c>
       <c r="O107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.95732894849008021</v>
       </c>
       <c r="P107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-1.3427722668223172</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-113.76164002779709</v>
       </c>
       <c r="R107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>1.1810654242469063</v>
       </c>
       <c r="S107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.70391095549017768</v>
       </c>
       <c r="T107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.60202656019177692</v>
       </c>
       <c r="U107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.20896054059656721</v>
       </c>
       <c r="V107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>1.4891065011581777</v>
       </c>
       <c r="W107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.18849012102605311</v>
       </c>
       <c r="X107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>7.4125548768849026E-2</v>
       </c>
       <c r="Y107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.7098431209218381</v>
       </c>
       <c r="Z107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-2.9514452744397568E-2</v>
       </c>
       <c r="AA107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>0.51717213971972398</v>
       </c>
       <c r="AB107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>1.7311955442814604</v>
       </c>
       <c r="AC107" s="15">
-        <f t="shared" si="125"/>
+        <f t="shared" si="135"/>
         <v>-0.2764120942910504</v>
       </c>
       <c r="AD107" s="37">
-        <v>6586000000</v>
+        <v>6629000000</v>
       </c>
       <c r="AE107" s="37">
-        <v>8547000000</v>
+        <v>8610000000</v>
       </c>
       <c r="AF107" s="37">
-        <v>10951000000</v>
+        <v>10964000000</v>
       </c>
       <c r="AG107" s="37">
-        <v>13796000000</v>
+        <v>13772000000</v>
       </c>
       <c r="AH107" s="37">
         <v>14728000000</v>
@@ -13410,7 +13678,7 @@
       </c>
       <c r="AK107" s="60">
         <f>(SUM(AD5:AH5)/5)</f>
-        <v>0.15471991194542833</v>
+        <v>0.15477908297758619</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13505,9 +13773,9 @@
       <c r="AE108" s="26"/>
       <c r="AF108" s="26"/>
       <c r="AG108" s="26"/>
-      <c r="AH108" s="25">
-        <f>AH106*(1+AK108)/(AK109-AK108)</f>
-        <v>187011768062.20773</v>
+      <c r="AH108" s="37">
+        <f>AH107*(1+AK108)/(AK109-AK108)</f>
+        <v>184676249182.2579</v>
       </c>
       <c r="AI108" s="27" t="s">
         <v>142</v>
@@ -13520,25 +13788,25 @@
       </c>
     </row>
     <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="25">
-        <f t="shared" ref="AD109:AG109" si="126">AD108+AD106</f>
-        <v>8391464773.4071131</v>
-      </c>
-      <c r="AE109" s="25">
-        <f t="shared" si="126"/>
-        <v>9689791464.2418251</v>
-      </c>
-      <c r="AF109" s="25">
-        <f t="shared" si="126"/>
-        <v>11188995146.358883</v>
-      </c>
-      <c r="AG109" s="25">
-        <f t="shared" si="126"/>
-        <v>12920155490.161354</v>
-      </c>
-      <c r="AH109" s="25">
-        <f>AH108+AH106</f>
-        <v>201930928872.12808</v>
+      <c r="AD109" s="37">
+        <f t="shared" ref="AD109:AG109" si="136">AD108+AD107</f>
+        <v>6629000000</v>
+      </c>
+      <c r="AE109" s="37">
+        <f t="shared" si="136"/>
+        <v>8610000000</v>
+      </c>
+      <c r="AF109" s="37">
+        <f t="shared" si="136"/>
+        <v>10964000000</v>
+      </c>
+      <c r="AG109" s="37">
+        <f t="shared" si="136"/>
+        <v>13772000000</v>
+      </c>
+      <c r="AH109" s="37">
+        <f>AH108+AH107</f>
+        <v>199404249182.2579</v>
       </c>
       <c r="AI109" s="27" t="s">
         <v>135</v>
@@ -13548,7 +13816,7 @@
       </c>
       <c r="AK109" s="60">
         <f>AK105</f>
-        <v>0.10677100290865964</v>
+        <v>0.10674413367634235</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13563,7 +13831,7 @@
       </c>
       <c r="AE111" s="44">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>153950633032.62112</v>
+        <v>150373525829.54898</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13590,7 +13858,7 @@
       </c>
       <c r="AE114" s="44">
         <f>AE111+AE112-AE113</f>
-        <v>157812433032.62112</v>
+        <v>154235325829.54898</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13608,7 +13876,7 @@
       </c>
       <c r="AE116" s="46">
         <f>AE114/AE115</f>
-        <v>404.76916279857107</v>
+        <v>395.59432999228034</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13617,7 +13885,7 @@
       </c>
       <c r="AE117" s="47" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>640.4</v>
+        <v>642.5</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13626,7 +13894,7 @@
       </c>
       <c r="AE118" s="48">
         <f>AE116/AE117-1</f>
-        <v>-0.36794321861559798</v>
+        <v>-0.38428898055676208</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB78FF8-09A2-DB4E-8484-F194FB5E570A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AEE4F-0187-BB4C-AAA1-BCFF92B7256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2598,6 +2598,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2609,7 +2610,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2628,6 +2629,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2755,34 +2757,34 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>375.75</v>
-    <v>1.5590999999999999</v>
-    <v>-2.7</v>
-    <v>-4.1849999999999995E-3</v>
+    <v>1.5610999999999999</v>
+    <v>12.7</v>
+    <v>2.0627E-2</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
-    <v>37704</v>
+    <v>41500</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>649.20000000000005</v>
+    <v>629.1</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45118.453726851854</v>
+    <v>45132.666666666664</v>
     <v>0</v>
-    <v>639.20000000000005</v>
-    <v>260104800000</v>
+    <v>612.70000000000005</v>
+    <v>252163000000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>649</v>
-    <v>40.103200000000001</v>
-    <v>645.20000000000005</v>
-    <v>642.5</v>
+    <v>616</v>
+    <v>31.628</v>
+    <v>615.70000000000005</v>
+    <v>628.4</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>79541</v>
-    <v>540910</v>
+    <v>430293</v>
+    <v>642850</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3350,10 +3352,10 @@
   <dimension ref="A1:AL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD11" sqref="AD11"/>
+      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3755,7 +3757,7 @@
         <v>-4.1823205772379302E-2</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" ref="F5:T5" si="0">(F4/E4)-1</f>
+        <f t="shared" ref="F5:K5" si="0">(F4/E4)-1</f>
         <v>0.54589804438726186</v>
       </c>
       <c r="G5" s="15">
@@ -3851,7 +3853,7 @@
         <v>0.137682016012036</v>
       </c>
       <c r="AD5" s="16">
-        <f t="shared" ref="AC5:AH5" si="19">(AD4/AC4)-1</f>
+        <f t="shared" ref="AD5:AH5" si="19">(AD4/AC4)-1</f>
         <v>0.25737954225584936</v>
       </c>
       <c r="AE5" s="16">
@@ -5112,15 +5114,15 @@
       </c>
       <c r="AJ17" s="38">
         <f>AK101/AC4</f>
-        <v>12.284507920315113</v>
+        <v>11.909424088715086</v>
       </c>
       <c r="AK17" s="38">
         <f>AK101/AC26</f>
-        <v>40.288223540527561</v>
+        <v>39.058100091386443</v>
       </c>
       <c r="AL17" s="39">
         <f>AK101/AC108</f>
-        <v>36.289473317056157</v>
+        <v>35.181444018137427</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5422,15 +5424,15 @@
       </c>
       <c r="AJ20" s="38">
         <f>AK101/AD4</f>
-        <v>9.7699282575216913</v>
+        <v>9.4716222814859332</v>
       </c>
       <c r="AK20" s="38">
         <f>AK101/AD29</f>
-        <v>35.101862348178138</v>
+        <v>34.030094466936575</v>
       </c>
       <c r="AL20" s="39">
         <f>AK101/AD106</f>
-        <v>30.994764229966574</v>
+        <v>30.048398693607581</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5772,11 +5774,11 @@
       </c>
       <c r="AK23" s="41">
         <f>AC99*-1/AK101</f>
-        <v>9.8414177669923809E-3</v>
+        <v>1.0151370343785568E-2</v>
       </c>
       <c r="AL23" s="42">
         <f>AC108/AK101</f>
-        <v>2.7556200423829166E-2</v>
+        <v>2.8424074903931187E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12346,7 +12348,7 @@
       </c>
       <c r="AK94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12442,7 +12444,7 @@
       </c>
       <c r="AK95" s="55" cm="1">
         <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5590999999999999</v>
+        <v>1.5610999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12633,7 +12635,7 @@
       </c>
       <c r="AK97" s="53">
         <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.10833203200000001</v>
+        <v>0.10918216800000001</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12918,7 +12920,7 @@
       </c>
       <c r="AK100" s="53">
         <f>AK99/AK103</f>
-        <v>1.3330602118967146E-2</v>
+        <v>1.3744674926039552E-2</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13014,7 +13016,7 @@
       </c>
       <c r="AK101" s="44" cm="1">
         <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>260104800000</v>
+        <v>252163000000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13110,7 +13112,7 @@
       </c>
       <c r="AK102" s="53">
         <f>AK101/AK103</f>
-        <v>0.98666939788103281</v>
+        <v>0.98625532507396041</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13206,7 +13208,7 @@
       </c>
       <c r="AK103" s="56">
         <f>AK99+AK101</f>
-        <v>263619000000</v>
+        <v>255677200000</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13395,7 +13397,7 @@
       </c>
       <c r="AK105" s="58">
         <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10674413367634235</v>
+        <v>0.10753326181628278</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
@@ -13775,7 +13777,7 @@
       <c r="AG108" s="26"/>
       <c r="AH108" s="37">
         <f>AH107*(1+AK108)/(AK109-AK108)</f>
-        <v>184676249182.2579</v>
+        <v>182910497753.06113</v>
       </c>
       <c r="AI108" s="27" t="s">
         <v>142</v>
@@ -13806,7 +13808,7 @@
       </c>
       <c r="AH109" s="37">
         <f>AH108+AH107</f>
-        <v>199404249182.2579</v>
+        <v>197638497753.06113</v>
       </c>
       <c r="AI109" s="27" t="s">
         <v>135</v>
@@ -13816,7 +13818,7 @@
       </c>
       <c r="AK109" s="60">
         <f>AK105</f>
-        <v>0.10674413367634235</v>
+        <v>0.10753326181628278</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -13831,7 +13833,7 @@
       </c>
       <c r="AE111" s="44">
         <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>150373525829.54898</v>
+        <v>148829018268.76263</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13858,7 +13860,7 @@
       </c>
       <c r="AE114" s="44">
         <f>AE111+AE112-AE113</f>
-        <v>154235325829.54898</v>
+        <v>152690818268.76263</v>
       </c>
     </row>
     <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13876,7 +13878,7 @@
       </c>
       <c r="AE116" s="46">
         <f>AE114/AE115</f>
-        <v>395.59432999228034</v>
+        <v>391.63286117577508</v>
       </c>
     </row>
     <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13885,7 +13887,7 @@
       </c>
       <c r="AE117" s="47" cm="1">
         <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>642.5</v>
+        <v>628.4</v>
       </c>
     </row>
     <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
@@ -13894,7 +13896,7 @@
       </c>
       <c r="AE118" s="48">
         <f>AE116/AE117-1</f>
-        <v>-0.38428898055676208</v>
+        <v>-0.37677775115249035</v>
       </c>
     </row>
     <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725AEE4F-0187-BB4C-AAA1-BCFF92B7256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD04F9-D781-9446-8F4E-142B48C8F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="169">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,16 +567,19 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -708,6 +711,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -752,7 +762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -863,12 +873,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -910,11 +929,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,7 +948,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,70 +957,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,7 +1137,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>ASML</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1069,8 +1144,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.45532325459317585"/>
-          <c:y val="3.0566165464696517E-2"/>
+          <c:x val="0.45812948962774991"/>
+          <c:y val="2.5137556592917908E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1106,15 +1181,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7053333333333339E-2"/>
-          <c:y val="0.14767594009589469"/>
-          <c:w val="0.82561333333333331"/>
-          <c:h val="0.63295942839301389"/>
+          <c:x val="0.10677740863787374"/>
+          <c:y val="0.14441678517051992"/>
+          <c:w val="0.82810631229235876"/>
+          <c:h val="0.63728956981845042"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1165,10 +1240,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -1252,16 +1327,31 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$4:$AC$4</c:f>
+              <c:f>'Sheet 1'!$B$4:$AH$4</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>446342493</c:v>
                 </c:pt>
@@ -1345,13 +1435,28 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>21173400000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27261000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29516000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34565000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39042000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42404000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D60-DB41-B816-57ED0ECE5ED1}"/>
+              <c16:uniqueId val="{00000000-0BDF-4B49-8E19-3495640D0471}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1404,10 +1509,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -1491,16 +1596,31 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$29:$AC$29</c:f>
+              <c:f>'Sheet 1'!$B$29:$AH$29</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>63952620</c:v>
                 </c:pt>
@@ -1584,13 +1704,28 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5486200000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7641000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8493000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10920000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13587000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15684000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D60-DB41-B816-57ED0ECE5ED1}"/>
+              <c16:uniqueId val="{00000001-0BDF-4B49-8E19-3495640D0471}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1643,10 +1778,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AC$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AH$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1995</c:v>
                 </c:pt>
@@ -1730,16 +1865,31 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$108:$AC$108</c:f>
+              <c:f>'Sheet 1'!$B$108:$AH$108</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>13726416</c:v>
                 </c:pt>
@@ -1823,13 +1973,28 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7167500000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6761000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8190000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10823000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13455000000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16152000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D60-DB41-B816-57ED0ECE5ED1}"/>
+              <c16:uniqueId val="{00000002-0BDF-4B49-8E19-3495640D0471}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1841,13 +2006,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1091950016"/>
-        <c:axId val="1091952016"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1590849424"/>
+        <c:axId val="1590851696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1091950016"/>
+        <c:axId val="1590849424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +2040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1887,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1091952016"/>
+        <c:crossAx val="1590851696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1895,7 +2060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1091952016"/>
+        <c:axId val="1590851696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1944,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1091950016"/>
+        <c:crossAx val="1590849424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1962,10 +2127,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34713574803149599"/>
-          <c:y val="0.91473702704766502"/>
-          <c:w val="0.31639517060367456"/>
-          <c:h val="5.696006028339233E-2"/>
+          <c:x val="0.34232798807125847"/>
+          <c:y val="0.89917420820163907"/>
+          <c:w val="0.31395332241631829"/>
+          <c:h val="5.3346789686422577E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2072,7 +2237,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2310,7 +2475,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2545,22 +2709,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC2203A-9B48-D9C1-05E0-40BC1820CA48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BD8A6F-A472-0791-79B3-250A68182FE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,38 +2752,38 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Treasuries"/>
+      <sheetName val="Software"/>
       <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
       <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Growth"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="C8">
+            <v>4.9020000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -2756,35 +2920,35 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
-    <v>375.75</v>
-    <v>1.5610999999999999</v>
-    <v>12.7</v>
-    <v>2.0627E-2</v>
+    <v>390.75</v>
+    <v>1.5421</v>
+    <v>9.3000000000000007</v>
+    <v>1.6811E-2</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
-    <v>41500</v>
+    <v>39850</v>
     <v>Euronext Amsterdam</v>
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>629.1</v>
+    <v>578.9</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45132.666666666664</v>
+    <v>45218.666666666664</v>
     <v>0</v>
-    <v>612.70000000000005</v>
-    <v>252163000000</v>
+    <v>557.20000000000005</v>
+    <v>223016100000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>616</v>
-    <v>31.628</v>
-    <v>615.70000000000005</v>
-    <v>628.4</v>
+    <v>557.5</v>
+    <v>28.3111</v>
+    <v>553.20000000000005</v>
+    <v>562.5</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>430293</v>
-    <v>642850</v>
+    <v>781442</v>
+    <v>630100</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3349,13 +3513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL119"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE100" sqref="AE100"/>
+      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3712,27 +3876,27 @@
         <v>21173400000</v>
       </c>
       <c r="AD4" s="22">
-        <v>26623000000</v>
+        <v>27261000000</v>
       </c>
       <c r="AE4" s="22">
-        <v>29779000000</v>
+        <v>29516000000</v>
       </c>
       <c r="AF4" s="22">
-        <v>34805000000</v>
+        <v>34565000000</v>
       </c>
       <c r="AG4" s="22">
-        <v>40089000000</v>
+        <v>39042000000</v>
       </c>
       <c r="AH4" s="22">
-        <v>43191000000</v>
-      </c>
-      <c r="AI4" s="28" t="s">
+        <v>42404000000</v>
+      </c>
+      <c r="AI4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AJ4" s="28" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AK4" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AL4" s="18" t="s">
@@ -3854,33 +4018,33 @@
       </c>
       <c r="AD5" s="16">
         <f t="shared" ref="AD5:AH5" si="19">(AD4/AC4)-1</f>
-        <v>0.25737954225584936</v>
+        <v>0.2875116891949332</v>
       </c>
       <c r="AE5" s="16">
         <f t="shared" si="19"/>
-        <v>0.11854411598993342</v>
+        <v>8.2718902461391686E-2</v>
       </c>
       <c r="AF5" s="16">
         <f t="shared" si="19"/>
-        <v>0.16877665468954639</v>
+        <v>0.17105976419569058</v>
       </c>
       <c r="AG5" s="16">
         <f t="shared" si="19"/>
-        <v>0.15181726763396064</v>
+        <v>0.12952408505713864</v>
       </c>
       <c r="AH5" s="16">
         <f t="shared" si="19"/>
-        <v>7.7377834318641092E-2</v>
-      </c>
-      <c r="AI5" s="29">
+        <v>8.6112391783207842E-2</v>
+      </c>
+      <c r="AI5" s="26">
         <f>(AC5+AB5+AA5)/3</f>
         <v>0.21723267494156651</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="26">
         <f>(AC21+AB21+AA21)/3</f>
         <v>0.32336582629238492</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5" s="26">
         <f>(AC30+AB30+AA30)/3</f>
         <v>0.32286462810370614</v>
       </c>
@@ -4066,16 +4230,16 @@
       <c r="AC7" s="10">
         <v>10700100000</v>
       </c>
-      <c r="AI7" s="28" t="s">
+      <c r="AI7" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AJ7" s="28" t="s">
+      <c r="AJ7" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="AK7" s="28" t="s">
+      <c r="AK7" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="AL7" s="18" t="s">
+      <c r="AL7" s="70" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4167,21 +4331,21 @@
       <c r="AC8" s="2">
         <v>0.50539999999999996</v>
       </c>
-      <c r="AI8" s="29">
+      <c r="AI8" s="26">
         <f>AC8</f>
         <v>0.50539999999999996</v>
       </c>
-      <c r="AJ8" s="29">
-        <f>AC22</f>
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="AK8" s="29">
-        <f>AC31</f>
-        <v>0.2591</v>
+      <c r="AJ8" s="26">
+        <f>AD22</f>
+        <v>0.34943692454422071</v>
+      </c>
+      <c r="AK8" s="26">
+        <f>AD31</f>
+        <v>0.28029052492571804</v>
       </c>
       <c r="AL8" s="17">
-        <f>AC108/AC4</f>
-        <v>0.33851436236032001</v>
+        <f>AD108/AD4</f>
+        <v>0.24800997762371152</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -4389,7 +4553,7 @@
         <f t="shared" ref="AC10" si="32">AC9/AC4</f>
         <v>0.15365978066819688</v>
       </c>
-      <c r="AI10" s="28" t="s">
+      <c r="AI10" s="25" t="s">
         <v>95</v>
       </c>
       <c r="AJ10" s="18" t="s">
@@ -4490,15 +4654,15 @@
       <c r="AC11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI11" s="29">
+      <c r="AI11" s="26">
         <f>(AC10+AB10+AA10)/3</f>
         <v>0.14931870488429119</v>
       </c>
-      <c r="AJ11" s="29">
+      <c r="AJ11" s="26">
         <f>(AC14+AB14+AA14)/3</f>
         <v>4.0880988625067081E-2</v>
       </c>
-      <c r="AK11" s="29">
+      <c r="AK11" s="26">
         <f>(AC81+AB81+AA81)/3</f>
         <v>4.4744916917326275E-3</v>
       </c>
@@ -4684,13 +4848,13 @@
       <c r="AC13" s="1">
         <v>945900000</v>
       </c>
-      <c r="AI13" s="28" t="s">
+      <c r="AI13" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="AJ13" s="28" t="s">
+      <c r="AJ13" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AK13" s="28" t="s">
+      <c r="AK13" s="25" t="s">
         <v>116</v>
       </c>
       <c r="AL13" s="18" t="s">
@@ -4813,7 +4977,7 @@
         <f t="shared" ref="AC14" si="45">AC13/AC4</f>
         <v>4.4673977726770384E-2</v>
       </c>
-      <c r="AI14" s="29">
+      <c r="AI14" s="26">
         <f>AC29/AC73</f>
         <v>0.62266763517501245</v>
       </c>
@@ -4821,7 +4985,7 @@
         <f>AC29/AC55</f>
         <v>0.15113332084494938</v>
       </c>
-      <c r="AK14" s="29">
+      <c r="AK14" s="26">
         <f>(AC29-AC99)/AC74</f>
         <v>0.2216504501327809</v>
       </c>
@@ -5007,7 +5171,7 @@
       <c r="AC16" s="1">
         <v>4199400000</v>
       </c>
-      <c r="AI16" s="28" t="s">
+      <c r="AI16" s="25" t="s">
         <v>138</v>
       </c>
       <c r="AJ16" s="18" t="s">
@@ -5016,7 +5180,7 @@
       <c r="AK16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="AL16" s="30" t="s">
+      <c r="AL16" s="27" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5112,17 +5276,17 @@
         <f>(SUM(Y36:AC36)/5)</f>
         <v>-9.9987576959951977E-3</v>
       </c>
-      <c r="AJ17" s="38">
-        <f>AK101/AC4</f>
-        <v>11.909424088715086</v>
-      </c>
-      <c r="AK17" s="38">
-        <f>AK101/AC26</f>
-        <v>39.058100091386443</v>
-      </c>
-      <c r="AL17" s="39">
-        <f>AK101/AC108</f>
-        <v>35.181444018137427</v>
+      <c r="AJ17" s="34">
+        <f>AK102/AC4</f>
+        <v>10.532843095582193</v>
+      </c>
+      <c r="AK17" s="34">
+        <f>AK102/AC26</f>
+        <v>34.543470516255944</v>
+      </c>
+      <c r="AL17" s="35">
+        <f>AK102/AC108</f>
+        <v>31.11490756888734</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5302,7 +5466,7 @@
       <c r="AC19" s="1">
         <v>583600000</v>
       </c>
-      <c r="AI19" s="31" t="s">
+      <c r="AI19" s="28" t="s">
         <v>157</v>
       </c>
       <c r="AJ19" s="18" t="s">
@@ -5311,7 +5475,7 @@
       <c r="AK19" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="AL19" s="30" t="s">
+      <c r="AL19" s="27" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5403,36 +5567,36 @@
       <c r="AC20" s="10">
         <v>6995100000</v>
       </c>
-      <c r="AD20" s="33">
-        <v>9292000000</v>
-      </c>
-      <c r="AE20" s="33">
-        <v>11342000000</v>
-      </c>
-      <c r="AF20" s="33">
-        <v>14025000000</v>
-      </c>
-      <c r="AG20" s="33">
-        <v>15858000000</v>
-      </c>
-      <c r="AH20" s="33">
-        <v>18812000000</v>
-      </c>
-      <c r="AI20" s="32">
+      <c r="AD20" s="30">
+        <v>9526000000</v>
+      </c>
+      <c r="AE20" s="30">
+        <v>10868000000</v>
+      </c>
+      <c r="AF20" s="30">
+        <v>13788000000</v>
+      </c>
+      <c r="AG20" s="30">
+        <v>16803000000</v>
+      </c>
+      <c r="AH20" s="30">
+        <v>19824000000</v>
+      </c>
+      <c r="AI20" s="29">
         <f>AC41-AC57-AC62</f>
         <v>3861800000</v>
       </c>
-      <c r="AJ20" s="38">
-        <f>AK101/AD4</f>
-        <v>9.4716222814859332</v>
-      </c>
-      <c r="AK20" s="38">
-        <f>AK101/AD29</f>
-        <v>34.030094466936575</v>
-      </c>
-      <c r="AL20" s="39">
-        <f>AK101/AD106</f>
-        <v>30.048398693607581</v>
+      <c r="AJ20" s="34">
+        <f>AK102/AD4</f>
+        <v>8.1807747331352481</v>
+      </c>
+      <c r="AK20" s="34">
+        <f>AK102/AD29</f>
+        <v>29.186768747546132</v>
+      </c>
+      <c r="AL20" s="35">
+        <f>AK102/AD108</f>
+        <v>32.985667800621208</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5550,23 +5714,23 @@
       </c>
       <c r="AD21" s="16">
         <f t="shared" ref="AD21" si="59">(AD20/AC20)-1</f>
-        <v>0.32835842232419843</v>
+        <v>0.36181041014424387</v>
       </c>
       <c r="AE21" s="16">
         <f t="shared" ref="AE21" si="60">(AE20/AD20)-1</f>
-        <v>0.22061988807576416</v>
+        <v>0.14087759815242484</v>
       </c>
       <c r="AF21" s="16">
         <f t="shared" ref="AF21" si="61">(AF20/AE20)-1</f>
-        <v>0.23655439957679425</v>
+        <v>0.26867868973132136</v>
       </c>
       <c r="AG21" s="16">
         <f t="shared" ref="AG21" si="62">(AG20/AF20)-1</f>
-        <v>0.13069518716577533</v>
+        <v>0.21866840731070503</v>
       </c>
       <c r="AH21" s="16">
         <f t="shared" ref="AH21" si="63">(AH20/AG20)-1</f>
-        <v>0.18627821919535892</v>
+        <v>0.17978932333511866</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5657,30 +5821,33 @@
       <c r="AC22" s="2">
         <v>0.33040000000000003</v>
       </c>
-      <c r="AD22" s="34">
+      <c r="AD22" s="43">
         <f>AD20/AD4</f>
-        <v>0.34902152274349246</v>
-      </c>
-      <c r="AE22" s="34">
+        <v>0.34943692454422071</v>
+      </c>
+      <c r="AE22" s="43">
         <f t="shared" ref="AE22:AH22" si="64">AE20/AE4</f>
-        <v>0.38087242687800127</v>
-      </c>
-      <c r="AF22" s="34">
+        <v>0.36820707412928583</v>
+      </c>
+      <c r="AF22" s="43">
         <f t="shared" si="64"/>
-        <v>0.40295934492170665</v>
-      </c>
-      <c r="AG22" s="34">
+        <v>0.39890062201649068</v>
+      </c>
+      <c r="AG22" s="43">
         <f t="shared" si="64"/>
-        <v>0.39556985706802367</v>
-      </c>
-      <c r="AH22" s="34">
+        <v>0.43038266482249887</v>
+      </c>
+      <c r="AH22" s="43">
         <f t="shared" si="64"/>
-        <v>0.43555370331782084</v>
-      </c>
-      <c r="AK22" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL22" s="30" t="s">
+        <v>0.4675030657485143</v>
+      </c>
+      <c r="AJ22" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK22" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL22" s="27" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5772,13 +5939,17 @@
       <c r="AC23" s="10">
         <v>6500700000</v>
       </c>
-      <c r="AK23" s="41">
-        <f>AC99*-1/AK101</f>
-        <v>1.0151370343785568E-2</v>
-      </c>
-      <c r="AL23" s="42">
-        <f>AC108/AK101</f>
-        <v>2.8424074903931187E-2</v>
+      <c r="AJ23" s="46">
+        <f>SUM(AD30:AH30)/5</f>
+        <v>0.23772105194512388</v>
+      </c>
+      <c r="AK23" s="44">
+        <f>AC99*-1/AK102</f>
+        <v>1.1478095079234189E-2</v>
+      </c>
+      <c r="AL23" s="37">
+        <f>AD108/AK102</f>
+        <v>3.0316196902376108E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -6314,20 +6485,20 @@
       <c r="AC29" s="11">
         <v>5486200000</v>
       </c>
-      <c r="AD29" s="35">
-        <v>7410000000</v>
-      </c>
-      <c r="AE29" s="35">
-        <v>8840000000</v>
-      </c>
-      <c r="AF29" s="35">
-        <v>11131000000</v>
-      </c>
-      <c r="AG29" s="35">
-        <v>13802000000</v>
-      </c>
-      <c r="AH29" s="35">
-        <v>15237000000</v>
+      <c r="AD29" s="32">
+        <v>7641000000</v>
+      </c>
+      <c r="AE29" s="32">
+        <v>8493000000</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>10920000000</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>13587000000</v>
+      </c>
+      <c r="AH29" s="32">
+        <v>15684000000</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6445,23 +6616,23 @@
       </c>
       <c r="AD30" s="16">
         <f t="shared" ref="AD30" si="78">(AD29/AC29)-1</f>
-        <v>0.35066166016550615</v>
+        <v>0.39276730706135399</v>
       </c>
       <c r="AE30" s="16">
         <f t="shared" ref="AE30" si="79">(AE29/AD29)-1</f>
-        <v>0.19298245614035081</v>
+        <v>0.11150372987828816</v>
       </c>
       <c r="AF30" s="16">
         <f t="shared" ref="AF30" si="80">(AF29/AE29)-1</f>
-        <v>0.25916289592760178</v>
+        <v>0.28576474743906743</v>
       </c>
       <c r="AG30" s="16">
         <f t="shared" ref="AG30" si="81">(AG29/AF29)-1</f>
-        <v>0.23996047075734439</v>
+        <v>0.24423076923076925</v>
       </c>
       <c r="AH30" s="16">
         <f t="shared" ref="AH30" si="82">(AH29/AG29)-1</f>
-        <v>0.10397043906680192</v>
+        <v>0.15433870611614053</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -6552,25 +6723,25 @@
       <c r="AC31" s="2">
         <v>0.2591</v>
       </c>
-      <c r="AD31" s="34">
+      <c r="AD31" s="31">
         <f>AD29/AD4</f>
-        <v>0.27833076663035722</v>
-      </c>
-      <c r="AE31" s="34">
+        <v>0.28029052492571804</v>
+      </c>
+      <c r="AE31" s="31">
         <f t="shared" ref="AE31:AH31" si="83">AE29/AE4</f>
-        <v>0.29685348735686223</v>
-      </c>
-      <c r="AF31" s="34">
+        <v>0.2877422414961377</v>
+      </c>
+      <c r="AF31" s="31">
         <f t="shared" si="83"/>
-        <v>0.31981037207297802</v>
-      </c>
-      <c r="AG31" s="34">
+        <v>0.31592651526110227</v>
+      </c>
+      <c r="AG31" s="31">
         <f t="shared" si="83"/>
-        <v>0.34428396817081991</v>
-      </c>
-      <c r="AH31" s="34">
+        <v>0.34800983556170278</v>
+      </c>
+      <c r="AH31" s="31">
         <f t="shared" si="83"/>
-        <v>0.35278182954782245</v>
+        <v>0.36987076690878218</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6661,23 +6832,23 @@
       <c r="AC32" s="12">
         <v>13.39</v>
       </c>
-      <c r="AD32" s="36">
-        <v>18.78</v>
-      </c>
-      <c r="AE32" s="36">
-        <v>22.4</v>
-      </c>
-      <c r="AF32" s="36">
-        <v>28.21</v>
-      </c>
-      <c r="AG32" s="36">
-        <v>34.979999999999997</v>
-      </c>
-      <c r="AH32" s="36">
-        <v>38.61</v>
+      <c r="AD32" s="33">
+        <v>19.36</v>
+      </c>
+      <c r="AE32" s="33">
+        <v>21.52</v>
+      </c>
+      <c r="AF32" s="33">
+        <v>27.67</v>
+      </c>
+      <c r="AG32" s="33">
+        <v>34.43</v>
+      </c>
+      <c r="AH32" s="33">
+        <v>39.75</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
@@ -6766,7 +6937,7 @@
         <v>13.37</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -6854,8 +7025,12 @@
       <c r="AC34" s="1">
         <v>409800000</v>
       </c>
+      <c r="AD34" s="1" cm="1">
+        <f t="array" ref="AD34">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>403138200</v>
+      </c>
     </row>
-    <row r="35" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
@@ -6943,8 +7118,12 @@
       <c r="AC35" s="1">
         <v>410400000</v>
       </c>
+      <c r="AD35" s="1" cm="1">
+        <f t="array" ref="AD35">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>403138200</v>
+      </c>
     </row>
-    <row r="36" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>137</v>
       </c>
@@ -7057,8 +7236,12 @@
         <f t="shared" ref="AC36" si="106">(AC35-AB35)/AB35</f>
         <v>0</v>
       </c>
+      <c r="AD36" s="24">
+        <f>(AD35-AC35)/AC35</f>
+        <v>-1.7694444444444443E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>28</v>
       </c>
@@ -7147,7 +7330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
@@ -7236,7 +7419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
@@ -7325,7 +7508,7 @@
         <v>7268300000</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>31</v>
       </c>
@@ -7414,7 +7597,7 @@
         <v>107700000</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>32</v>
       </c>
@@ -7503,7 +7686,7 @@
         <v>7376000000</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
@@ -7592,7 +7775,7 @@
         <v>6845800000</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
@@ -7681,7 +7864,7 @@
         <v>7199700000</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>35</v>
       </c>
@@ -7770,7 +7953,7 @@
         <v>1643400000</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>36</v>
       </c>
@@ -7859,7 +8042,7 @@
         <v>23064900000</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>37</v>
       </c>
@@ -7948,7 +8131,7 @@
         <v>4136900000</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>38</v>
       </c>
@@ -8037,7 +8220,7 @@
         <v>4555600000</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
@@ -11180,7 +11363,7 @@
         <v>2441200000</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>70</v>
       </c>
@@ -11268,12 +11451,8 @@
       <c r="AC83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ83" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK83" s="68"/>
     </row>
-    <row r="84" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>34</v>
       </c>
@@ -11361,12 +11540,18 @@
       <c r="AC84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ84" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK84" s="64"/>
+      <c r="AD84" s="47"/>
+      <c r="AE84" s="47"/>
+      <c r="AF84" s="47"/>
+      <c r="AG84" s="47"/>
+      <c r="AH84" s="47"/>
+      <c r="AI84" s="47"/>
+      <c r="AJ84" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK84" s="76"/>
     </row>
-    <row r="85" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -11454,13 +11639,16 @@
       <c r="AC85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ85" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK85" s="51">
-        <f>AC18</f>
-        <v>-44600000</v>
-      </c>
+      <c r="AD85" s="47"/>
+      <c r="AE85" s="47"/>
+      <c r="AF85" s="47"/>
+      <c r="AG85" s="47"/>
+      <c r="AH85" s="47"/>
+      <c r="AI85" s="47"/>
+      <c r="AJ85" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK85" s="77"/>
     </row>
     <row r="86" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11550,12 +11738,18 @@
       <c r="AC86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ86" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK86" s="51">
-        <f>AC57</f>
-        <v>0</v>
+      <c r="AD86" s="47"/>
+      <c r="AE86" s="47"/>
+      <c r="AF86" s="47"/>
+      <c r="AG86" s="47"/>
+      <c r="AH86" s="47"/>
+      <c r="AI86" s="47"/>
+      <c r="AJ86" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK86" s="48">
+        <f>AC18</f>
+        <v>-44600000</v>
       </c>
     </row>
     <row r="87" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -11646,12 +11840,18 @@
       <c r="AC87" s="1">
         <v>333100000</v>
       </c>
-      <c r="AJ87" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK87" s="51">
-        <f>AC62</f>
-        <v>3514200000</v>
+      <c r="AD87" s="47"/>
+      <c r="AE87" s="47"/>
+      <c r="AF87" s="47"/>
+      <c r="AG87" s="47"/>
+      <c r="AH87" s="47"/>
+      <c r="AI87" s="47"/>
+      <c r="AJ87" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK87" s="48">
+        <f>AC57</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -11742,12 +11942,18 @@
       <c r="AC88" s="10">
         <v>8486800000</v>
       </c>
-      <c r="AJ88" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK88" s="53">
-        <f>AK85/(AK86+AK87)</f>
-        <v>-1.2691366456092425E-2</v>
+      <c r="AD88" s="47"/>
+      <c r="AE88" s="47"/>
+      <c r="AF88" s="47"/>
+      <c r="AG88" s="47"/>
+      <c r="AH88" s="47"/>
+      <c r="AI88" s="47"/>
+      <c r="AJ88" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK88" s="48">
+        <f>AC62</f>
+        <v>3514200000</v>
       </c>
     </row>
     <row r="89" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11838,12 +12044,18 @@
       <c r="AC89" s="1">
         <v>-1281800000</v>
       </c>
-      <c r="AJ89" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK89" s="51">
-        <f>AC28</f>
-        <v>969900000</v>
+      <c r="AD89" s="47"/>
+      <c r="AE89" s="47"/>
+      <c r="AF89" s="47"/>
+      <c r="AG89" s="47"/>
+      <c r="AH89" s="47"/>
+      <c r="AI89" s="47"/>
+      <c r="AJ89" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK89" s="49">
+        <f>AK86/(AK87+AK88)</f>
+        <v>-1.2691366456092425E-2</v>
       </c>
     </row>
     <row r="90" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11962,12 +12174,18 @@
         <f t="shared" ref="AC90" si="132">(-1*AC89)/AC4</f>
         <v>6.0538222486705019E-2</v>
       </c>
-      <c r="AJ90" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK90" s="51">
-        <f>AC26</f>
-        <v>6456100000</v>
+      <c r="AD90" s="47"/>
+      <c r="AE90" s="47"/>
+      <c r="AF90" s="47"/>
+      <c r="AG90" s="47"/>
+      <c r="AH90" s="47"/>
+      <c r="AI90" s="47"/>
+      <c r="AJ90" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK90" s="48">
+        <f>AC28</f>
+        <v>969900000</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12058,12 +12276,18 @@
       <c r="AC91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AJ91" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK91" s="53">
-        <f>AK89/AK90</f>
-        <v>0.15023001502455041</v>
+      <c r="AD91" s="47"/>
+      <c r="AE91" s="47"/>
+      <c r="AF91" s="47"/>
+      <c r="AG91" s="47"/>
+      <c r="AH91" s="47"/>
+      <c r="AI91" s="47"/>
+      <c r="AJ91" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK91" s="48">
+        <f>AC26</f>
+        <v>6456100000</v>
       </c>
     </row>
     <row r="92" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12154,15 +12378,21 @@
       <c r="AC92" s="1">
         <v>-334300000</v>
       </c>
-      <c r="AJ92" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK92" s="53">
-        <f>AK88*(1-AK91)</f>
-        <v>-1.0784742282711585E-2</v>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="47"/>
+      <c r="AF92" s="47"/>
+      <c r="AG92" s="47"/>
+      <c r="AH92" s="47"/>
+      <c r="AI92" s="47"/>
+      <c r="AJ92" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK92" s="49">
+        <f>AK90/AK91</f>
+        <v>0.15023001502455041</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>77</v>
       </c>
@@ -12250,12 +12480,21 @@
       <c r="AC93" s="1">
         <v>864700000</v>
       </c>
-      <c r="AJ93" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK93" s="69"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="47"/>
+      <c r="AF93" s="47"/>
+      <c r="AG93" s="47"/>
+      <c r="AH93" s="47"/>
+      <c r="AI93" s="47"/>
+      <c r="AJ93" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK93" s="49">
+        <f>AK89*(1-AK92)</f>
+        <v>-1.0784742282711585E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>78</v>
       </c>
@@ -12343,13 +12582,16 @@
       <c r="AC94" s="1">
         <v>-277500000</v>
       </c>
-      <c r="AJ94" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK94" s="54">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AD94" s="47"/>
+      <c r="AE94" s="47"/>
+      <c r="AF94" s="47"/>
+      <c r="AG94" s="47"/>
+      <c r="AH94" s="47"/>
+      <c r="AI94" s="47"/>
+      <c r="AJ94" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK94" s="77"/>
     </row>
     <row r="95" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -12439,12 +12681,18 @@
       <c r="AC95" s="10">
         <v>-1028900000</v>
       </c>
-      <c r="AJ95" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK95" s="55" cm="1">
-        <f t="array" ref="AK95">_FV(A1,"Beta")</f>
-        <v>1.5610999999999999</v>
+      <c r="AD95" s="47"/>
+      <c r="AE95" s="47"/>
+      <c r="AF95" s="47"/>
+      <c r="AG95" s="47"/>
+      <c r="AH95" s="47"/>
+      <c r="AI95" s="47"/>
+      <c r="AJ95" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK95" s="71">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.9020000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12535,11 +12783,18 @@
       <c r="AC96" s="1">
         <v>-516200000</v>
       </c>
-      <c r="AJ96" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK96" s="54">
-        <v>8.4000000000000005E-2</v>
+      <c r="AD96" s="47"/>
+      <c r="AE96" s="47"/>
+      <c r="AF96" s="47"/>
+      <c r="AG96" s="47"/>
+      <c r="AH96" s="47"/>
+      <c r="AI96" s="47"/>
+      <c r="AJ96" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK96" s="51" cm="1">
+        <f t="array" ref="AK96">_FV(A1,"Beta")</f>
+        <v>1.5421</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12630,15 +12885,20 @@
       <c r="AC97" s="1">
         <v>81800000</v>
       </c>
-      <c r="AJ97" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK97" s="53">
-        <f>(AK94)+((AK95)*(AK96-AK94))</f>
-        <v>0.10918216800000001</v>
+      <c r="AD97" s="47"/>
+      <c r="AE97" s="47"/>
+      <c r="AF97" s="47"/>
+      <c r="AG97" s="47"/>
+      <c r="AH97" s="47"/>
+      <c r="AI97" s="47"/>
+      <c r="AJ97" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK97" s="50">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>82</v>
       </c>
@@ -12726,12 +12986,21 @@
       <c r="AC98" s="1">
         <v>-4639700000</v>
       </c>
-      <c r="AJ98" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK98" s="69"/>
+      <c r="AD98" s="47"/>
+      <c r="AE98" s="47"/>
+      <c r="AF98" s="47"/>
+      <c r="AG98" s="47"/>
+      <c r="AH98" s="47"/>
+      <c r="AI98" s="47"/>
+      <c r="AJ98" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK98" s="49">
+        <f>(AK95)+((AK96)*(AK97-AK95))</f>
+        <v>0.10296265800000001</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>83</v>
       </c>
@@ -12819,13 +13088,16 @@
       <c r="AC99" s="1">
         <v>-2559800000</v>
       </c>
-      <c r="AJ99" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK99" s="51">
-        <f>AK86+AK87</f>
-        <v>3514200000</v>
-      </c>
+      <c r="AD99" s="47"/>
+      <c r="AE99" s="47"/>
+      <c r="AF99" s="47"/>
+      <c r="AG99" s="47"/>
+      <c r="AH99" s="47"/>
+      <c r="AI99" s="47"/>
+      <c r="AJ99" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK99" s="77"/>
     </row>
     <row r="100" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -12915,12 +13187,18 @@
       <c r="AC100" s="1">
         <v>495600000</v>
       </c>
-      <c r="AJ100" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK100" s="53">
-        <f>AK99/AK103</f>
-        <v>1.3744674926039552E-2</v>
+      <c r="AD100" s="47"/>
+      <c r="AE100" s="47"/>
+      <c r="AF100" s="47"/>
+      <c r="AG100" s="47"/>
+      <c r="AH100" s="47"/>
+      <c r="AI100" s="47"/>
+      <c r="AJ100" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK100" s="48">
+        <f>AK87+AK88</f>
+        <v>3514200000</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13011,12 +13289,18 @@
       <c r="AC101" s="10">
         <v>-7138300000</v>
       </c>
-      <c r="AJ101" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK101" s="44" cm="1">
-        <f t="array" ref="AK101">_FV(A1,"Market cap",TRUE)</f>
-        <v>252163000000</v>
+      <c r="AD101" s="47"/>
+      <c r="AE101" s="47"/>
+      <c r="AF101" s="47"/>
+      <c r="AG101" s="47"/>
+      <c r="AH101" s="47"/>
+      <c r="AI101" s="47"/>
+      <c r="AJ101" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK101" s="49">
+        <f>AK100/AK104</f>
+        <v>1.551315651813466E-2</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13107,12 +13391,18 @@
       <c r="AC102" s="1">
         <v>-3100000</v>
       </c>
-      <c r="AJ102" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="AK102" s="53">
-        <f>AK101/AK103</f>
-        <v>0.98625532507396041</v>
+      <c r="AD102" s="47"/>
+      <c r="AE102" s="47"/>
+      <c r="AF102" s="47"/>
+      <c r="AG102" s="47"/>
+      <c r="AH102" s="47"/>
+      <c r="AI102" s="47"/>
+      <c r="AJ102" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK102" s="52" cm="1">
+        <f t="array" ref="AK102">_FV(A1,"Market cap",TRUE)</f>
+        <v>223016100000</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13203,15 +13493,21 @@
       <c r="AC103" s="10">
         <v>316500000</v>
       </c>
-      <c r="AJ103" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK103" s="56">
-        <f>AK99+AK101</f>
-        <v>255677200000</v>
+      <c r="AD103" s="47"/>
+      <c r="AE103" s="47"/>
+      <c r="AF103" s="47"/>
+      <c r="AG103" s="47"/>
+      <c r="AH103" s="47"/>
+      <c r="AI103" s="47"/>
+      <c r="AJ103" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK103" s="49">
+        <f>AK102/AK104</f>
+        <v>0.98448684348186533</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
@@ -13299,12 +13595,21 @@
       <c r="AC104" s="1">
         <v>6951800000</v>
       </c>
-      <c r="AJ104" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK104" s="64"/>
+      <c r="AD104" s="47"/>
+      <c r="AE104" s="47"/>
+      <c r="AF104" s="47"/>
+      <c r="AG104" s="47"/>
+      <c r="AH104" s="47"/>
+      <c r="AI104" s="47"/>
+      <c r="AJ104" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK104" s="53">
+        <f>AK100+AK102</f>
+        <v>226530300000</v>
+      </c>
     </row>
-    <row r="105" spans="1:37" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>89</v>
       </c>
@@ -13392,20 +13697,25 @@
       <c r="AC105" s="11">
         <v>7268300000</v>
       </c>
-      <c r="AJ105" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK105" s="58">
-        <f>(AK100*AK92)+(AK102*AK97)</f>
-        <v>0.10753326181628278</v>
-      </c>
+      <c r="AD105" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE105" s="79"/>
+      <c r="AF105" s="79"/>
+      <c r="AG105" s="79"/>
+      <c r="AH105" s="79"/>
+      <c r="AI105" s="47"/>
+      <c r="AJ105" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK105" s="77"/>
     </row>
-    <row r="106" spans="1:37" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>161</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" ref="B106:AB106" si="133">(B23*(1-$AK$91))+B78+B89+B82</f>
+        <f t="shared" ref="B106:AC106" si="133">(B23*(1-$AK$92))+B78+B89+B82</f>
         <v>29995522.702297062</v>
       </c>
       <c r="C106" s="1">
@@ -13513,36 +13823,39 @@
         <v>10198732375.582783</v>
       </c>
       <c r="AC106" s="1">
-        <f>(AC23*(1-$AK$91))+AC78+AC89+AC82</f>
+        <f t="shared" si="133"/>
         <v>7267099741.3299055</v>
       </c>
-      <c r="AD106" s="25">
-        <f>AC106*(1+$AK$107)</f>
-        <v>8391894775.1996021</v>
-      </c>
-      <c r="AE106" s="25">
-        <f t="shared" ref="AE106:AH106" si="134">AD106*(1+$AK$107)</f>
-        <v>9690784552.9493923</v>
-      </c>
-      <c r="AF106" s="25">
-        <f t="shared" si="134"/>
-        <v>11190715299.388256</v>
-      </c>
-      <c r="AG106" s="25">
-        <f t="shared" si="134"/>
-        <v>12922803951.290813</v>
-      </c>
-      <c r="AH106" s="25">
-        <f t="shared" si="134"/>
-        <v>14922983696.370731</v>
-      </c>
-      <c r="AI106" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ106" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK106" s="65"/>
+      <c r="AD106" s="72">
+        <f>AD108/AD4</f>
+        <v>0.24800997762371152</v>
+      </c>
+      <c r="AE106" s="72">
+        <f>AE108/AE4</f>
+        <v>0.27747662284862445</v>
+      </c>
+      <c r="AF106" s="72">
+        <f>AF108/AF4</f>
+        <v>0.31312020830319687</v>
+      </c>
+      <c r="AG106" s="72">
+        <f>AG108/AG4</f>
+        <v>0.3446288612263716</v>
+      </c>
+      <c r="AH106" s="72">
+        <f>AH108/AH4</f>
+        <v>0.38090746156023014</v>
+      </c>
+      <c r="AI106" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ106" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK106" s="55">
+        <f>(AK101*AK93)+(AK103*AK98)</f>
+        <v>0.10119807677588338</v>
+      </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
@@ -13550,141 +13863,144 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="15">
-        <f t="shared" ref="C107:AC107" si="135">(C108/B108)-1</f>
+        <f t="shared" ref="C107:AC107" si="134">(C108/B108)-1</f>
         <v>-0.8009824268767608</v>
       </c>
       <c r="D107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-21.832079824350117</v>
       </c>
       <c r="E107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1.6594573719174357</v>
       </c>
       <c r="F107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.52591351736719194</v>
       </c>
       <c r="G107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-1.744870646716107</v>
       </c>
       <c r="H107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-11.913888658073057</v>
       </c>
       <c r="I107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.66979189736365963</v>
       </c>
       <c r="J107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-3.26949536002674</v>
       </c>
       <c r="K107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.59701276650847013</v>
       </c>
       <c r="L107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>2.6237406549827647</v>
       </c>
       <c r="M107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.36278011504110608</v>
       </c>
       <c r="N107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.20933002743700557</v>
       </c>
       <c r="O107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.95732894849008021</v>
       </c>
       <c r="P107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-1.3427722668223172</v>
       </c>
       <c r="Q107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-113.76164002779709</v>
       </c>
       <c r="R107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1.1810654242469063</v>
       </c>
       <c r="S107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.70391095549017768</v>
       </c>
       <c r="T107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.60202656019177692</v>
       </c>
       <c r="U107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.20896054059656721</v>
       </c>
       <c r="V107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1.4891065011581777</v>
       </c>
       <c r="W107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.18849012102605311</v>
       </c>
       <c r="X107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>7.4125548768849026E-2</v>
       </c>
       <c r="Y107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.7098431209218381</v>
       </c>
       <c r="Z107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-2.9514452744397568E-2</v>
       </c>
       <c r="AA107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>0.51717213971972398</v>
       </c>
       <c r="AB107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>1.7311955442814604</v>
       </c>
       <c r="AC107" s="15">
-        <f t="shared" si="135"/>
+        <f t="shared" si="134"/>
         <v>-0.2764120942910504</v>
       </c>
-      <c r="AD107" s="37">
-        <v>6629000000</v>
-      </c>
-      <c r="AE107" s="37">
-        <v>8610000000</v>
-      </c>
-      <c r="AF107" s="37">
-        <v>10964000000</v>
-      </c>
-      <c r="AG107" s="37">
-        <v>13772000000</v>
-      </c>
-      <c r="AH107" s="37">
-        <v>14728000000</v>
-      </c>
-      <c r="AI107" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ107" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK107" s="60">
-        <f>(SUM(AD5:AH5)/5)</f>
-        <v>0.15477908297758619</v>
-      </c>
+      <c r="AD107" s="56">
+        <f>(AD108/AC108)-1</f>
+        <v>-5.6714335542378813E-2</v>
+      </c>
+      <c r="AE107" s="56">
+        <f>(AE108/AD108)-1</f>
+        <v>0.2113592663807129</v>
+      </c>
+      <c r="AF107" s="56">
+        <f>(AF108/AE108)-1</f>
+        <v>0.32148962148962146</v>
+      </c>
+      <c r="AG107" s="56">
+        <f>(AG108/AF108)-1</f>
+        <v>0.24318580800147838</v>
+      </c>
+      <c r="AH107" s="56">
+        <f>(AH108/AG108)-1</f>
+        <v>0.20044593088071339</v>
+      </c>
+      <c r="AI107" s="57">
+        <f>SUM(AD107:AH107)/5</f>
+        <v>0.18395325824202946</v>
+      </c>
+      <c r="AJ107" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK107" s="80"/>
     </row>
     <row r="108" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="36" t="s">
         <v>163</v>
       </c>
       <c r="B108" s="1">
@@ -13771,152 +14087,240 @@
       <c r="AC108" s="1">
         <v>7167500000</v>
       </c>
-      <c r="AD108" s="26"/>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="26"/>
-      <c r="AH108" s="37">
-        <f>AH107*(1+AK108)/(AK109-AK108)</f>
-        <v>182910497753.06113</v>
-      </c>
-      <c r="AI108" s="27" t="s">
+      <c r="AD108" s="58">
+        <v>6761000000</v>
+      </c>
+      <c r="AE108" s="58">
+        <v>8190000000</v>
+      </c>
+      <c r="AF108" s="58">
+        <v>10823000000</v>
+      </c>
+      <c r="AG108" s="58">
+        <v>13455000000</v>
+      </c>
+      <c r="AH108" s="58">
+        <v>16152000000</v>
+      </c>
+      <c r="AI108" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ108" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK108" s="41">
+        <f>(SUM(AD5:AH5)/5)</f>
+        <v>0.1513853665384724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AD109" s="74"/>
+      <c r="AE109" s="74"/>
+      <c r="AF109" s="74"/>
+      <c r="AG109" s="74"/>
+      <c r="AH109" s="58">
+        <f>AH108*(1+AK109)/(AK110-AK109)</f>
+        <v>217273200328.85516</v>
+      </c>
+      <c r="AI109" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="AJ108" s="61" t="s">
+      <c r="AJ109" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="AK108" s="62">
+      <c r="AK109" s="42">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD109" s="37">
-        <f t="shared" ref="AD109:AG109" si="136">AD108+AD107</f>
-        <v>6629000000</v>
-      </c>
-      <c r="AE109" s="37">
-        <f t="shared" si="136"/>
-        <v>8610000000</v>
-      </c>
-      <c r="AF109" s="37">
-        <f t="shared" si="136"/>
-        <v>10964000000</v>
-      </c>
-      <c r="AG109" s="37">
-        <f t="shared" si="136"/>
-        <v>13772000000</v>
-      </c>
-      <c r="AH109" s="37">
-        <f>AH108+AH107</f>
-        <v>197638497753.06113</v>
-      </c>
-      <c r="AI109" s="27" t="s">
+    <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AD110" s="58">
+        <f t="shared" ref="AD110:AG110" si="135">AD109+AD108</f>
+        <v>6761000000</v>
+      </c>
+      <c r="AE110" s="58">
+        <f t="shared" si="135"/>
+        <v>8190000000</v>
+      </c>
+      <c r="AF110" s="58">
+        <f t="shared" si="135"/>
+        <v>10823000000</v>
+      </c>
+      <c r="AG110" s="58">
+        <f t="shared" si="135"/>
+        <v>13455000000</v>
+      </c>
+      <c r="AH110" s="58">
+        <f>AH109+AH108</f>
+        <v>233425200328.85516</v>
+      </c>
+      <c r="AI110" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="AJ109" s="63" t="s">
+      <c r="AJ110" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AK109" s="60">
-        <f>AK105</f>
-        <v>0.10753326181628278</v>
+      <c r="AK110" s="41">
+        <f>AK106</f>
+        <v>0.10119807677588338</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="19" x14ac:dyDescent="0.25">
-      <c r="AD110" s="66" t="s">
+    <row r="111" spans="1:37" ht="19" x14ac:dyDescent="0.2">
+      <c r="AD111" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="AE110" s="66"/>
+      <c r="AE111" s="78"/>
+      <c r="AF111" s="47"/>
+      <c r="AG111" s="47"/>
+      <c r="AH111" s="47"/>
+      <c r="AI111" s="47"/>
+      <c r="AJ111" s="47"/>
+      <c r="AK111" s="47"/>
     </row>
-    <row r="111" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD111" s="43" t="s">
+    <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD112" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="AE111" s="44">
-        <f>NPV(AK109,AD109,AE109,AF109,AG109,AH109)</f>
-        <v>148829018268.76263</v>
-      </c>
+      <c r="AE112" s="52">
+        <f>NPV(AK110,AD110,AE110,AF110,AG110,AH110)</f>
+        <v>174300486501.6615</v>
+      </c>
+      <c r="AF112" s="47"/>
+      <c r="AG112" s="47"/>
+      <c r="AH112" s="47"/>
+      <c r="AI112" s="47"/>
+      <c r="AJ112" s="47"/>
+      <c r="AK112" s="47"/>
     </row>
-    <row r="112" spans="1:37" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD112" s="43" t="s">
+    <row r="113" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD113" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AE112" s="44">
+      <c r="AE113" s="52">
         <f>AC41</f>
         <v>7376000000</v>
       </c>
+      <c r="AF113" s="47"/>
+      <c r="AG113" s="47"/>
+      <c r="AH113" s="47"/>
+      <c r="AI113" s="47"/>
+      <c r="AJ113" s="47"/>
+      <c r="AK113" s="47"/>
     </row>
-    <row r="113" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD113" s="43" t="s">
+    <row r="114" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD114" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="AE113" s="44">
-        <f>AK99</f>
+      <c r="AE114" s="52">
+        <f>AK100</f>
         <v>3514200000</v>
       </c>
+      <c r="AF114" s="47"/>
+      <c r="AG114" s="47"/>
+      <c r="AH114" s="47"/>
+      <c r="AI114" s="47"/>
+      <c r="AJ114" s="47"/>
+      <c r="AK114" s="47"/>
     </row>
-    <row r="114" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD114" s="43" t="s">
+    <row r="115" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD115" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="AE114" s="44">
-        <f>AE111+AE112-AE113</f>
-        <v>152690818268.76263</v>
-      </c>
+      <c r="AE115" s="52">
+        <f>AE112+AE113-AE114</f>
+        <v>178162286501.6615</v>
+      </c>
+      <c r="AF115" s="47"/>
+      <c r="AG115" s="47"/>
+      <c r="AH115" s="47"/>
+      <c r="AI115" s="47"/>
+      <c r="AJ115" s="47"/>
+      <c r="AK115" s="47"/>
     </row>
-    <row r="115" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD115" s="43" t="s">
+    <row r="116" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD116" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AE115" s="43">
+      <c r="AE116" s="63">
         <f>AC35*(1+(5*AI17))</f>
         <v>389882549.20781785</v>
       </c>
+      <c r="AF116" s="47"/>
+      <c r="AG116" s="47"/>
+      <c r="AH116" s="47"/>
+      <c r="AI116" s="47"/>
+      <c r="AJ116" s="47"/>
+      <c r="AK116" s="47"/>
     </row>
-    <row r="116" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD116" s="45" t="s">
+    <row r="117" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD117" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="AE116" s="46">
-        <f>AE114/AE115</f>
-        <v>391.63286117577508</v>
-      </c>
+      <c r="AE117" s="65">
+        <f>AE115/AE116</f>
+        <v>456.96399303754481</v>
+      </c>
+      <c r="AF117" s="47"/>
+      <c r="AG117" s="47"/>
+      <c r="AH117" s="47"/>
+      <c r="AI117" s="47"/>
+      <c r="AJ117" s="47"/>
+      <c r="AK117" s="47"/>
     </row>
-    <row r="117" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD117" s="43" t="s">
+    <row r="118" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD118" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AE117" s="47" cm="1">
-        <f t="array" ref="AE117">_FV(A1,"Price")</f>
-        <v>628.4</v>
-      </c>
+      <c r="AE118" s="66" cm="1">
+        <f t="array" ref="AE118">_FV(A1,"Price")</f>
+        <v>562.5</v>
+      </c>
+      <c r="AF118" s="47"/>
+      <c r="AG118" s="47"/>
+      <c r="AH118" s="47"/>
+      <c r="AI118" s="47"/>
+      <c r="AJ118" s="47"/>
+      <c r="AK118" s="47"/>
     </row>
-    <row r="118" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD118" s="45" t="s">
+    <row r="119" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD119" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="AE118" s="48">
-        <f>AE116/AE117-1</f>
-        <v>-0.37677775115249035</v>
-      </c>
+      <c r="AE119" s="67">
+        <f>AE117/AE118-1</f>
+        <v>-0.18761956793325363</v>
+      </c>
+      <c r="AF119" s="47"/>
+      <c r="AG119" s="47"/>
+      <c r="AH119" s="47"/>
+      <c r="AI119" s="47"/>
+      <c r="AJ119" s="47"/>
+      <c r="AK119" s="47"/>
     </row>
-    <row r="119" spans="30:31" ht="20" x14ac:dyDescent="0.25">
-      <c r="AD119" s="45" t="s">
+    <row r="120" spans="30:37" ht="20" x14ac:dyDescent="0.2">
+      <c r="AD120" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="AE119" s="49" t="str">
-        <f>IF(AE116&gt;AE117,"BUY","SELL")</f>
+      <c r="AE120" s="68" t="str">
+        <f>IF(AE117&gt;AE118,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
+      <c r="AF120" s="47"/>
+      <c r="AG120" s="47"/>
+      <c r="AH120" s="47"/>
+      <c r="AI120" s="47"/>
+      <c r="AJ120" s="47"/>
+      <c r="AK120" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AJ104:AK104"/>
-    <mergeCell ref="AJ106:AK106"/>
-    <mergeCell ref="AD110:AE110"/>
-    <mergeCell ref="AJ83:AK83"/>
+  <mergeCells count="8">
     <mergeCell ref="AJ84:AK84"/>
-    <mergeCell ref="AJ93:AK93"/>
-    <mergeCell ref="AJ98:AK98"/>
+    <mergeCell ref="AJ94:AK94"/>
+    <mergeCell ref="AJ85:AK85"/>
+    <mergeCell ref="AD111:AE111"/>
+    <mergeCell ref="AD105:AH105"/>
+    <mergeCell ref="AJ107:AK107"/>
+    <mergeCell ref="AJ105:AK105"/>
+    <mergeCell ref="AJ99:AK99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ASML" display="ROIC.AI | ASML" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13978,7 +14382,7 @@
     <hyperlink ref="AC75" r:id="rId57" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
     <hyperlink ref="AD1" r:id="rId58" display="https://finbox.com/ENXTAM:ASML/explorer/revenue_proj" xr:uid="{E3846DBC-89B9-5E45-B936-D668B6065684}"/>
     <hyperlink ref="A3" r:id="rId59" xr:uid="{CF4C75A9-BADF-2145-B981-31B69E6CC415}"/>
-    <hyperlink ref="AI107" r:id="rId60" xr:uid="{A226C403-6D66-F445-845F-7758BD692BB5}"/>
+    <hyperlink ref="AI108" r:id="rId60" xr:uid="{A226C403-6D66-F445-845F-7758BD692BB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId61"/>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD04F9-D781-9446-8F4E-142B48C8F34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1505E-3832-9547-AD65-3A483538B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2755,16 +2755,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2777,14 +2776,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.845E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2793,7 +2792,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2920,10 +2918,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
-    <v>390.75</v>
-    <v>1.5421</v>
-    <v>9.3000000000000007</v>
-    <v>1.6811E-2</v>
+    <v>448.55</v>
+    <v>1.5424</v>
+    <v>-0.4</v>
+    <v>-7.1349999999999994E-4</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>39850</v>
@@ -2931,24 +2929,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>578.9</v>
+    <v>565.9</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45218.666666666664</v>
+    <v>45226.666666666664</v>
     <v>0</v>
-    <v>557.20000000000005</v>
-    <v>223016100000</v>
+    <v>556.6</v>
+    <v>225838000000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>557.5</v>
-    <v>28.3111</v>
-    <v>553.20000000000005</v>
-    <v>562.5</v>
+    <v>565.9</v>
+    <v>28.195399999999999</v>
+    <v>560.6</v>
+    <v>560.20000000000005</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>781442</v>
-    <v>630100</v>
+    <v>511354</v>
+    <v>634030</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3516,10 +3514,10 @@
   <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI27" sqref="AI27"/>
+      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5278,15 +5276,15 @@
       </c>
       <c r="AJ17" s="34">
         <f>AK102/AC4</f>
-        <v>10.532843095582193</v>
+        <v>10.666118809449593</v>
       </c>
       <c r="AK17" s="34">
         <f>AK102/AC26</f>
-        <v>34.543470516255944</v>
+        <v>34.980561019810722</v>
       </c>
       <c r="AL17" s="35">
         <f>AK102/AC108</f>
-        <v>31.11490756888734</v>
+        <v>31.508615277293337</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5588,15 +5586,15 @@
       </c>
       <c r="AJ20" s="34">
         <f>AK102/AD4</f>
-        <v>8.1807747331352481</v>
+        <v>8.2842889108983524</v>
       </c>
       <c r="AK20" s="34">
         <f>AK102/AD29</f>
-        <v>29.186768747546132</v>
+        <v>29.556079047245124</v>
       </c>
       <c r="AL20" s="35">
         <f>AK102/AD108</f>
-        <v>32.985667800621208</v>
+        <v>33.403046886555245</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5945,11 +5943,11 @@
       </c>
       <c r="AK23" s="44">
         <f>AC99*-1/AK102</f>
-        <v>1.1478095079234189E-2</v>
+        <v>1.1334673527041508E-2</v>
       </c>
       <c r="AL23" s="37">
         <f>AD108/AK102</f>
-        <v>3.0316196902376108E-2</v>
+        <v>2.9937388747686394E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12692,7 +12690,7 @@
       </c>
       <c r="AK95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.845E-2</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12794,7 +12792,7 @@
       </c>
       <c r="AK96" s="51" cm="1">
         <f t="array" ref="AK96">_FV(A1,"Beta")</f>
-        <v>1.5421</v>
+        <v>1.5424</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12997,7 +12995,7 @@
       </c>
       <c r="AK98" s="49">
         <f>(AK95)+((AK96)*(AK97-AK95))</f>
-        <v>0.10296265800000001</v>
+        <v>0.10328232000000001</v>
       </c>
     </row>
     <row r="99" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13300,7 +13298,7 @@
       </c>
       <c r="AK101" s="49">
         <f>AK100/AK104</f>
-        <v>1.551315651813466E-2</v>
+        <v>1.5322285986356356E-2</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,7 +13400,7 @@
       </c>
       <c r="AK102" s="52" cm="1">
         <f t="array" ref="AK102">_FV(A1,"Market cap",TRUE)</f>
-        <v>223016100000</v>
+        <v>225838000000</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13504,7 +13502,7 @@
       </c>
       <c r="AK103" s="49">
         <f>AK102/AK104</f>
-        <v>0.98448684348186533</v>
+        <v>0.98467771401364368</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13606,7 +13604,7 @@
       </c>
       <c r="AK104" s="53">
         <f>AK100+AK102</f>
-        <v>226530300000</v>
+        <v>229352200000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13854,7 +13852,7 @@
       </c>
       <c r="AK106" s="55">
         <f>(AK101*AK93)+(AK103*AK98)</f>
-        <v>0.10119807677588338</v>
+        <v>0.10153455185008078</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -14120,7 +14118,7 @@
       <c r="AG109" s="74"/>
       <c r="AH109" s="58">
         <f>AH108*(1+AK109)/(AK110-AK109)</f>
-        <v>217273200328.85516</v>
+        <v>216317984489.28296</v>
       </c>
       <c r="AI109" s="60" t="s">
         <v>142</v>
@@ -14151,7 +14149,7 @@
       </c>
       <c r="AH110" s="58">
         <f>AH109+AH108</f>
-        <v>233425200328.85516</v>
+        <v>232469984489.28296</v>
       </c>
       <c r="AI110" s="60" t="s">
         <v>135</v>
@@ -14161,7 +14159,7 @@
       </c>
       <c r="AK110" s="41">
         <f>AK106</f>
-        <v>0.10119807677588338</v>
+        <v>0.10153455185008078</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -14182,7 +14180,7 @@
       </c>
       <c r="AE112" s="52">
         <f>NPV(AK110,AD110,AE110,AF110,AG110,AH110)</f>
-        <v>174300486501.6615</v>
+        <v>173466862847.99066</v>
       </c>
       <c r="AF112" s="47"/>
       <c r="AG112" s="47"/>
@@ -14227,7 +14225,7 @@
       </c>
       <c r="AE115" s="52">
         <f>AE112+AE113-AE114</f>
-        <v>178162286501.6615</v>
+        <v>177328662847.99066</v>
       </c>
       <c r="AF115" s="47"/>
       <c r="AG115" s="47"/>
@@ -14257,7 +14255,7 @@
       </c>
       <c r="AE117" s="65">
         <f>AE115/AE116</f>
-        <v>456.96399303754481</v>
+        <v>454.82585257610424</v>
       </c>
       <c r="AF117" s="47"/>
       <c r="AG117" s="47"/>
@@ -14272,7 +14270,7 @@
       </c>
       <c r="AE118" s="66" cm="1">
         <f t="array" ref="AE118">_FV(A1,"Price")</f>
-        <v>562.5</v>
+        <v>560.20000000000005</v>
       </c>
       <c r="AF118" s="47"/>
       <c r="AG118" s="47"/>
@@ -14287,7 +14285,7 @@
       </c>
       <c r="AE119" s="67">
         <f>AE117/AE118-1</f>
-        <v>-0.18761956793325363</v>
+        <v>-0.18810094149213819</v>
       </c>
       <c r="AF119" s="47"/>
       <c r="AG119" s="47"/>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1505E-3832-9547-AD65-3A483538B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6A1B7-C6C6-B842-A561-4C55D6A16E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2760,10 +2760,9 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2780,7 +2779,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2791,7 +2790,6 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2919,9 +2917,9 @@
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
     <v>448.55</v>
-    <v>1.5424</v>
-    <v>-0.4</v>
-    <v>-7.1349999999999994E-4</v>
+    <v>1.5395000000000001</v>
+    <v>23.4</v>
+    <v>4.0959000000000002E-2</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>39850</v>
@@ -2929,24 +2927,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>565.9</v>
+    <v>602.20000000000005</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45226.666666666664</v>
+    <v>45232.708333333336</v>
     <v>0</v>
-    <v>556.6</v>
-    <v>225838000000</v>
+    <v>580.6</v>
+    <v>230312900000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>565.9</v>
-    <v>28.195399999999999</v>
-    <v>560.6</v>
-    <v>560.20000000000005</v>
+    <v>584</v>
+    <v>29.931799999999999</v>
+    <v>571.29999999999995</v>
+    <v>594.70000000000005</v>
     <v>403138200</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>511354</v>
-    <v>634030</v>
+    <v>813473</v>
+    <v>566090</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3514,10 +3512,10 @@
   <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AB121" sqref="AB121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5276,15 +5274,15 @@
       </c>
       <c r="AJ17" s="34">
         <f>AK102/AC4</f>
-        <v>10.666118809449593</v>
+        <v>10.877464176750074</v>
       </c>
       <c r="AK17" s="34">
         <f>AK102/AC26</f>
-        <v>34.980561019810722</v>
+        <v>35.673688449683247</v>
       </c>
       <c r="AL17" s="35">
         <f>AK102/AC108</f>
-        <v>31.508615277293337</v>
+        <v>32.132947331705616</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5586,15 +5584,15 @@
       </c>
       <c r="AJ20" s="34">
         <f>AK102/AD4</f>
-        <v>8.2842889108983524</v>
+        <v>8.4484391621730683</v>
       </c>
       <c r="AK20" s="34">
         <f>AK102/AD29</f>
-        <v>29.556079047245124</v>
+        <v>30.141722287658684</v>
       </c>
       <c r="AL20" s="35">
         <f>AK102/AD108</f>
-        <v>33.403046886555245</v>
+        <v>34.064916432480402</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5943,11 +5941,11 @@
       </c>
       <c r="AK23" s="44">
         <f>AC99*-1/AK102</f>
-        <v>1.1334673527041508E-2</v>
+        <v>1.1114444740177384E-2</v>
       </c>
       <c r="AL23" s="37">
         <f>AD108/AK102</f>
-        <v>2.9937388747686394E-2</v>
+        <v>2.9355715637291703E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12690,7 +12688,7 @@
       </c>
       <c r="AK95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12792,7 +12790,7 @@
       </c>
       <c r="AK96" s="51" cm="1">
         <f t="array" ref="AK96">_FV(A1,"Beta")</f>
-        <v>1.5424</v>
+        <v>1.5395000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12995,7 +12993,7 @@
       </c>
       <c r="AK98" s="49">
         <f>(AK95)+((AK96)*(AK97-AK95))</f>
-        <v>0.10328232000000001</v>
+        <v>0.10301737500000001</v>
       </c>
     </row>
     <row r="99" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13298,7 +13296,7 @@
       </c>
       <c r="AK101" s="49">
         <f>AK100/AK104</f>
-        <v>1.5322285986356356E-2</v>
+        <v>1.5029053518604131E-2</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13400,7 +13398,7 @@
       </c>
       <c r="AK102" s="52" cm="1">
         <f t="array" ref="AK102">_FV(A1,"Market cap",TRUE)</f>
-        <v>225838000000</v>
+        <v>230312900000</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13502,7 +13500,7 @@
       </c>
       <c r="AK103" s="49">
         <f>AK102/AK104</f>
-        <v>0.98467771401364368</v>
+        <v>0.98497094648139583</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13604,7 +13602,7 @@
       </c>
       <c r="AK104" s="53">
         <f>AK100+AK102</f>
-        <v>229352200000</v>
+        <v>233827100000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13852,7 +13850,7 @@
       </c>
       <c r="AK106" s="55">
         <f>(AK101*AK93)+(AK103*AK98)</f>
-        <v>0.10153455185008078</v>
+        <v>0.10130703688882767</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -14118,7 +14116,7 @@
       <c r="AG109" s="74"/>
       <c r="AH109" s="58">
         <f>AH108*(1+AK109)/(AK110-AK109)</f>
-        <v>216317984489.28296</v>
+        <v>216962952238.86459</v>
       </c>
       <c r="AI109" s="60" t="s">
         <v>142</v>
@@ -14149,7 +14147,7 @@
       </c>
       <c r="AH110" s="58">
         <f>AH109+AH108</f>
-        <v>232469984489.28296</v>
+        <v>233114952238.86459</v>
       </c>
       <c r="AI110" s="60" t="s">
         <v>135</v>
@@ -14159,7 +14157,7 @@
       </c>
       <c r="AK110" s="41">
         <f>AK106</f>
-        <v>0.10153455185008078</v>
+        <v>0.10130703688882767</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -14180,7 +14178,7 @@
       </c>
       <c r="AE112" s="52">
         <f>NPV(AK110,AD110,AE110,AF110,AG110,AH110)</f>
-        <v>173466862847.99066</v>
+        <v>174029721735.11685</v>
       </c>
       <c r="AF112" s="47"/>
       <c r="AG112" s="47"/>
@@ -14225,7 +14223,7 @@
       </c>
       <c r="AE115" s="52">
         <f>AE112+AE113-AE114</f>
-        <v>177328662847.99066</v>
+        <v>177891521735.11685</v>
       </c>
       <c r="AF115" s="47"/>
       <c r="AG115" s="47"/>
@@ -14255,7 +14253,7 @@
       </c>
       <c r="AE117" s="65">
         <f>AE115/AE116</f>
-        <v>454.82585257610424</v>
+        <v>456.2695152593144</v>
       </c>
       <c r="AF117" s="47"/>
       <c r="AG117" s="47"/>
@@ -14270,7 +14268,7 @@
       </c>
       <c r="AE118" s="66" cm="1">
         <f t="array" ref="AE118">_FV(A1,"Price")</f>
-        <v>560.20000000000005</v>
+        <v>594.70000000000005</v>
       </c>
       <c r="AF118" s="47"/>
       <c r="AG118" s="47"/>
@@ -14285,7 +14283,7 @@
       </c>
       <c r="AE119" s="67">
         <f>AE117/AE118-1</f>
-        <v>-0.18810094149213819</v>
+        <v>-0.23277364173648163</v>
       </c>
       <c r="AF119" s="47"/>
       <c r="AG119" s="47"/>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6A1B7-C6C6-B842-A561-4C55D6A16E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE1CA4F-A969-6F49-BF3C-97ADFE20395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2762,6 +2762,7 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -2779,7 +2780,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2790,6 +2791,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2916,10 +2918,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>698.1</v>
-    <v>448.55</v>
-    <v>1.5395000000000001</v>
-    <v>23.4</v>
-    <v>4.0959000000000002E-2</v>
+    <v>464.25</v>
+    <v>1.5406</v>
+    <v>3.5</v>
+    <v>5.8330000000000005E-3</v>
     <v>EUR</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>39850</v>
@@ -2927,24 +2929,24 @@
     <v>XAMS</v>
     <v>XAMS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>602.20000000000005</v>
+    <v>605.79999999999995</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45232.708333333336</v>
+    <v>45239.708333333336</v>
     <v>0</v>
-    <v>580.6</v>
-    <v>230312900000</v>
+    <v>592.29999999999995</v>
+    <v>241883000000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>584</v>
-    <v>29.931799999999999</v>
-    <v>571.29999999999995</v>
-    <v>594.70000000000005</v>
-    <v>403138200</v>
+    <v>595.1</v>
+    <v>30.198599999999999</v>
+    <v>600</v>
+    <v>603.5</v>
+    <v>403138400</v>
     <v>ASML</v>
     <v>ASML Holding NV (XAMS:ASML)</v>
-    <v>813473</v>
-    <v>566090</v>
+    <v>564152</v>
+    <v>508990</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -3512,10 +3514,10 @@
   <dimension ref="A1:AL120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB121" sqref="AB121"/>
+      <selection pane="bottomRight" activeCell="AD130" sqref="AD130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5274,15 +5276,15 @@
       </c>
       <c r="AJ17" s="34">
         <f>AK102/AC4</f>
-        <v>10.877464176750074</v>
+        <v>11.423909244618248</v>
       </c>
       <c r="AK17" s="34">
         <f>AK102/AC26</f>
-        <v>35.673688449683247</v>
+        <v>37.465807530862286</v>
       </c>
       <c r="AL17" s="35">
         <f>AK102/AC108</f>
-        <v>32.132947331705616</v>
+        <v>33.747192186955004</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -5584,15 +5586,15 @@
       </c>
       <c r="AJ20" s="34">
         <f>AK102/AD4</f>
-        <v>8.4484391621730683</v>
+        <v>8.8728586625582331</v>
       </c>
       <c r="AK20" s="34">
         <f>AK102/AD29</f>
-        <v>30.141722287658684</v>
+        <v>31.655935087030493</v>
       </c>
       <c r="AL20" s="35">
         <f>AK102/AD108</f>
-        <v>34.064916432480402</v>
+        <v>35.776216536015383</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -5941,11 +5943,11 @@
       </c>
       <c r="AK23" s="44">
         <f>AC99*-1/AK102</f>
-        <v>1.1114444740177384E-2</v>
+        <v>1.0582802429273657E-2</v>
       </c>
       <c r="AL23" s="37">
         <f>AD108/AK102</f>
-        <v>2.9355715637291703E-2</v>
+        <v>2.7951530285303224E-2</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -7023,7 +7025,7 @@
       </c>
       <c r="AD34" s="1" cm="1">
         <f t="array" ref="AD34">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>403138200</v>
+        <v>403138400</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -7116,7 +7118,7 @@
       </c>
       <c r="AD35" s="1" cm="1">
         <f t="array" ref="AD35">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>403138200</v>
+        <v>403138400</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -7234,7 +7236,7 @@
       </c>
       <c r="AD36" s="24">
         <f>(AD35-AC35)/AC35</f>
-        <v>-1.7694444444444443E-2</v>
+        <v>-1.7693957115009748E-2</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -12688,7 +12690,7 @@
       </c>
       <c r="AK95" s="71">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12790,7 +12792,7 @@
       </c>
       <c r="AK96" s="51" cm="1">
         <f t="array" ref="AK96">_FV(A1,"Beta")</f>
-        <v>1.5395000000000001</v>
+        <v>1.5406</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -12993,7 +12995,7 @@
       </c>
       <c r="AK98" s="49">
         <f>(AK95)+((AK96)*(AK97-AK95))</f>
-        <v>0.10301737500000001</v>
+        <v>0.104699574</v>
       </c>
     </row>
     <row r="99" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13296,7 +13298,7 @@
       </c>
       <c r="AK101" s="49">
         <f>AK100/AK104</f>
-        <v>1.5029053518604131E-2</v>
+        <v>1.432045679412805E-2</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13398,7 +13400,7 @@
       </c>
       <c r="AK102" s="52" cm="1">
         <f t="array" ref="AK102">_FV(A1,"Market cap",TRUE)</f>
-        <v>230312900000</v>
+        <v>241883000000</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="20" x14ac:dyDescent="0.25">
@@ -13500,7 +13502,7 @@
       </c>
       <c r="AK103" s="49">
         <f>AK102/AK104</f>
-        <v>0.98497094648139583</v>
+        <v>0.98567954320587192</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13602,7 +13604,7 @@
       </c>
       <c r="AK104" s="53">
         <f>AK100+AK102</f>
-        <v>233827100000</v>
+        <v>245397200000</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13850,7 +13852,7 @@
       </c>
       <c r="AK106" s="55">
         <f>(AK101*AK93)+(AK103*AK98)</f>
-        <v>0.10130703688882767</v>
+        <v>0.10304578583827401</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -14116,7 +14118,7 @@
       <c r="AG109" s="74"/>
       <c r="AH109" s="58">
         <f>AH108*(1+AK109)/(AK110-AK109)</f>
-        <v>216962952238.86459</v>
+        <v>212129326678.91669</v>
       </c>
       <c r="AI109" s="60" t="s">
         <v>142</v>
@@ -14147,7 +14149,7 @@
       </c>
       <c r="AH110" s="58">
         <f>AH109+AH108</f>
-        <v>233114952238.86459</v>
+        <v>228281326678.91669</v>
       </c>
       <c r="AI110" s="60" t="s">
         <v>135</v>
@@ -14157,7 +14159,7 @@
       </c>
       <c r="AK110" s="41">
         <f>AK106</f>
-        <v>0.10130703688882767</v>
+        <v>0.10304578583827401</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="19" x14ac:dyDescent="0.2">
@@ -14178,7 +14180,7 @@
       </c>
       <c r="AE112" s="52">
         <f>NPV(AK110,AD110,AE110,AF110,AG110,AH110)</f>
-        <v>174029721735.11685</v>
+        <v>169812385653.78702</v>
       </c>
       <c r="AF112" s="47"/>
       <c r="AG112" s="47"/>
@@ -14223,7 +14225,7 @@
       </c>
       <c r="AE115" s="52">
         <f>AE112+AE113-AE114</f>
-        <v>177891521735.11685</v>
+        <v>173674185653.78702</v>
       </c>
       <c r="AF115" s="47"/>
       <c r="AG115" s="47"/>
@@ -14253,7 +14255,7 @@
       </c>
       <c r="AE117" s="65">
         <f>AE115/AE116</f>
-        <v>456.2695152593144</v>
+        <v>445.45257541448467</v>
       </c>
       <c r="AF117" s="47"/>
       <c r="AG117" s="47"/>
@@ -14268,7 +14270,7 @@
       </c>
       <c r="AE118" s="66" cm="1">
         <f t="array" ref="AE118">_FV(A1,"Price")</f>
-        <v>594.70000000000005</v>
+        <v>603.5</v>
       </c>
       <c r="AF118" s="47"/>
       <c r="AG118" s="47"/>
@@ -14283,7 +14285,7 @@
       </c>
       <c r="AE119" s="67">
         <f>AE117/AE118-1</f>
-        <v>-0.23277364173648163</v>
+        <v>-0.26188471348055564</v>
       </c>
       <c r="AF119" s="47"/>
       <c r="AG119" s="47"/>

--- a/Technology/Hardware/ASML.xlsx
+++ b/Technology/Hardware/ASML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC7FDC3-41A7-0144-BA73-40F2E384E7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD94D9-976D-AF45-9B33-15C1E560DE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,7 +1816,7 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,6 +1853,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1872,7 +1874,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1885,6 +1887,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2012,11 +2016,11 @@
     <v>Powered by Refinitiv</v>
     <v>771.98</v>
     <v>529.01</v>
-    <v>1.4681</v>
-    <v>8.44</v>
-    <v>1.2343999999999999E-2</v>
-    <v>0.5</v>
-    <v>7.2230000000000005E-4</v>
+    <v>1.4676</v>
+    <v>-3.22</v>
+    <v>-4.6020000000000002E-3</v>
+    <v>0.98</v>
+    <v>1.4069999999999998E-3</v>
     <v>USD</v>
     <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
     <v>39850</v>
@@ -2024,25 +2028,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>De Run 6501, VELDHOVEN, NOORD-BRABANT, 5504 DR NL</v>
-    <v>695.57950000000005</v>
+    <v>702.83</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45262.030571388284</v>
+    <v>45269.040373610937</v>
     <v>0</v>
-    <v>683.04499999999996</v>
-    <v>251155200000</v>
+    <v>694.03</v>
+    <v>280530900000</v>
     <v>ASML Holding NV</v>
     <v>ASML Holding NV</v>
-    <v>688.17</v>
-    <v>33.479799999999997</v>
-    <v>683.76</v>
-    <v>692.2</v>
-    <v>692.7</v>
+    <v>695.34</v>
+    <v>34.257899999999999</v>
+    <v>699.65</v>
+    <v>696.43</v>
+    <v>697.41</v>
     <v>403138400</v>
     <v>ASML</v>
     <v>ASML Holding NV (XNAS:ASML)</v>
-    <v>857676</v>
-    <v>827990</v>
+    <v>920784</v>
+    <v>786747</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -2061,16 +2065,16 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1.1274999999999999</v>
-    <v>1.0287999999999999</v>
-    <v>-5.0000000000000001E-4</v>
-    <v>-4.593E-4</v>
+    <v>1.0441</v>
+    <v>-3.0999999999999999E-3</v>
+    <v>-2.872E-3</v>
     <v>USD</v>
     <v>EUR</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>Euro/US Dollar FX Spot Rate</v>
-    <v>1.0886</v>
-    <v>1.0881000000000001</v>
+    <v>1.0791999999999999</v>
+    <v>1.0761000000000001</v>
     <v>EURUSD</v>
     <v>EUR/USD</v>
   </rv>
@@ -2288,9 +2292,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2442,7 +2446,7 @@
     </rSty>
     <rSty dxfid="3"/>
     <rSty dxfid="1">
-      <rpv i="0">_([$€-x-euro2] * #,##0_);_([$€-x-euro2] * (#,##0);_([$€-x-euro2] * "-"_);_(@_)</rpv>
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
     </rSty>
     <rSty dxfid="2"/>
     <rSty dxfid="6">
@@ -14281,7 +14285,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14334,7 +14338,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>251155200000</v>
+        <v>280530900000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14354,22 +14358,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="39">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-3.3152290006318772E-3</v>
+        <f>AVERAGE(Financials!J129:N129)</f>
+        <v>-1.5789007342553729E-2</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>213536525017.3443</v>
+        <v>209623740326.2692</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="42">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>9.7745287296460513E-3</v>
+        <v>8.7509922008591565E-3</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>206</v>
@@ -14407,21 +14411,21 @@
       </c>
       <c r="G4" s="49">
         <f>A5*(1+(5*G3))</f>
-        <v>396455919.42525834</v>
+        <v>371312624.2116732</v>
       </c>
       <c r="H4" s="48" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>175632995196.33844</v>
+        <v>172302988025.01697</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2343999999999999E-2</v>
+        <v>-4.6020000000000002E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14466,14 +14470,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>175322158066.33844</v>
+        <v>171992150895.01697</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>692.2</v>
+        <v>696.43</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14493,7 +14497,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>8.4746526783680558</v>
+        <v>9.5483170727350632</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14521,14 +14525,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.5569105560634304E-2</v>
+        <v>9.6265596524268804E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>442.22358521094287</v>
+        <v>463.20038609021236</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14548,14 +14552,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>30.190257068292588</v>
+        <v>34.015098663718845</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>2.9473727798588284E-2</v>
+        <v>2.615954249603163E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14582,7 +14586,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.36113321986283897</v>
+        <v>-0.33489311762817164</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14612,7 +14616,7 @@
       <c r="J8" s="73"/>
       <c r="K8" s="112" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>1.0886</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="L8" s="111" t="e" vm="2">
         <v>#VALUE!</v>
@@ -14692,23 +14696,23 @@
       </c>
       <c r="F10" s="83">
         <f>$K$8*27224000000</f>
-        <v>29636046400</v>
+        <v>29380140800</v>
       </c>
       <c r="G10" s="83">
         <f>$K$8*27241000000</f>
-        <v>29654552600</v>
+        <v>29398487200</v>
       </c>
       <c r="H10" s="83">
         <f>$K$8*33124000000</f>
-        <v>36058786400</v>
+        <v>35747420800</v>
       </c>
       <c r="I10" s="83">
         <f>$K$8*37000000000</f>
-        <v>40278200000</v>
+        <v>39930400000</v>
       </c>
       <c r="J10" s="84">
         <f>$K$8*40355000000</f>
-        <v>43930453000</v>
+        <v>43551116000</v>
       </c>
       <c r="K10" s="85" t="s">
         <v>236</v>
@@ -14742,7 +14746,7 @@
       </c>
       <c r="F11" s="88">
         <f t="shared" si="0"/>
-        <v>0.31148890092900428</v>
+        <v>0.30016426775912319</v>
       </c>
       <c r="G11" s="87">
         <f t="shared" si="0"/>
@@ -14762,7 +14766,7 @@
       </c>
       <c r="K11" s="89">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.14715302276042297</v>
+        <v>0.14488809612644676</v>
       </c>
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
@@ -14795,23 +14799,23 @@
       </c>
       <c r="F12" s="91">
         <f>$K$8*7642000000</f>
-        <v>8319081200</v>
+        <v>8247246399.999999</v>
       </c>
       <c r="G12" s="83">
         <f>$K$8*7540000000</f>
-        <v>8208044000</v>
+        <v>8137168000</v>
       </c>
       <c r="H12" s="83">
         <f>$K$8*10400000000</f>
-        <v>11321440000</v>
+        <v>11223680000</v>
       </c>
       <c r="I12" s="83">
         <f>$K$8*11871000000</f>
-        <v>12922770600</v>
+        <v>12811183200</v>
       </c>
       <c r="J12" s="84">
         <f>$K$8*13600000000</f>
-        <v>14804960000</v>
+        <v>14677120000</v>
       </c>
       <c r="K12" s="92" t="s">
         <v>239</v>
@@ -14846,11 +14850,11 @@
       </c>
       <c r="F13" s="88">
         <f t="shared" si="1"/>
-        <v>0.21875228853522422</v>
+        <v>0.20822843081684161</v>
       </c>
       <c r="G13" s="87">
         <f t="shared" si="1"/>
-        <v>-1.3347291285003893E-2</v>
+        <v>-1.3347291285003782E-2</v>
       </c>
       <c r="H13" s="87">
         <f t="shared" si="1"/>
@@ -14866,7 +14870,7 @@
       </c>
       <c r="K13" s="89">
         <f>AVERAGE(F13:J13)</f>
-        <v>0.17436134210127247</v>
+        <v>0.17225657055759597</v>
       </c>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
@@ -14926,7 +14930,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14950,23 +14954,23 @@
       </c>
       <c r="F15" s="91">
         <f>$K$8*6800000000</f>
-        <v>7402480000</v>
+        <v>7338560000</v>
       </c>
       <c r="G15" s="83">
         <f>$K$8*7062000000</f>
-        <v>7687693200</v>
+        <v>7621310400</v>
       </c>
       <c r="H15" s="83">
         <f>$K$8*10261000000</f>
-        <v>11170124600</v>
+        <v>11073671200</v>
       </c>
       <c r="I15" s="83">
         <f>$K$8*12400000000</f>
-        <v>13498640000</v>
+        <v>13382080000</v>
       </c>
       <c r="J15" s="84">
         <f>$K$8*13505000000</f>
-        <v>14701543000</v>
+        <v>14574596000</v>
       </c>
       <c r="K15" s="92" t="s">
         <v>244</v>
@@ -15001,7 +15005,7 @@
       </c>
       <c r="F16" s="88">
         <f t="shared" si="3"/>
-        <v>-4.6563423513085067E-2</v>
+        <v>-5.479629492496918E-2</v>
       </c>
       <c r="G16" s="87">
         <f t="shared" si="3"/>
@@ -15021,7 +15025,7 @@
       </c>
       <c r="K16" s="89">
         <f>AVERAGE(F16:J16)</f>
-        <v>0.14850518562512771</v>
+        <v>0.14685861134275088</v>
       </c>
       <c r="L16" s="74"/>
       <c r="M16" s="74"/>
@@ -15083,7 +15087,7 @@
       </c>
       <c r="O17" s="100">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -15166,7 +15170,7 @@
       </c>
       <c r="O20" s="106">
         <f>A3</f>
-        <v>251155200000</v>
+        <v>280530900000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -15196,21 +15200,21 @@
       </c>
       <c r="O21" s="106">
         <f>O19+O20</f>
-        <v>256739565204</v>
+        <v>286115265204</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
       <c r="R21" s="44"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="str" cm="1">
+      <c r="A22" s="126" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>ASML Holding N.V. is a holding company based in the Netherlands. The Company operates through its subsidiaries in the Netherlands, the United States, Italy, France, Germany, the United Kingdom, Ireland, Belgium, South Korea, Taiwan, Singapore, China, Hong Kong, Japan, Malaysia and Israel. The Company operates through one business segment which is engage in development, production, marketing, sales, upgrading and servicing of advanced semiconductor equipment systems, consisting of lithography, metrology and inspection systems. The Company offers TWINSCAN systems, equipped with lithography system with a mercury lamp as light source (i-line), Krypton Fluoride (KrF) and Argon Fluoride (ArF) light sources for processing wafers for manufacturing environments for which imaging at a small resolution is required. TWINSCAN systems also include immersion lithography systems (TWINSCAN immersion systems).</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
@@ -15224,18 +15228,18 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>2.1751089278206022E-2</v>
+        <v>1.9517886261742626E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
       <c r="F23" s="74"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
@@ -15249,18 +15253,18 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.97824891072179398</v>
+        <v>0.98048211373825733</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
       <c r="R23" s="44"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="74"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
@@ -15278,11 +15282,11 @@
       <c r="R24" s="44"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
@@ -15293,7 +15297,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.5569105560634304E-2</v>
+        <v>9.6265596524268804E-2</v>
       </c>
       <c r="O25" s="117"/>
       <c r="P25" s="44"/>
@@ -15301,11 +15305,11 @@
       <c r="R25" s="44"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="74"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
@@ -15321,11 +15325,11 @@
       <c r="R26" s="44"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
@@ -15341,11 +15345,11 @@
       <c r="R27" s="44"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
@@ -15361,11 +15365,11 @@
       <c r="R28" s="44"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="74"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
@@ -15381,11 +15385,11 @@
       <c r="R29" s="44"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
       <c r="F30" s="74"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
